--- a/IT114115_FYP_MarkSheet_Template.xlsx
+++ b/IT114115_FYP_MarkSheet_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyrus\Desktop\FYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\IVE\Course\NHD Project\1516\Marksheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="117">
   <si>
     <t>Weighting</t>
   </si>
@@ -310,9 +310,6 @@
     <t>Overall (0-30):</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
     <t>Cyrus Wong</t>
   </si>
   <si>
@@ -434,9 +431,6 @@
   </si>
   <si>
     <t>YYYY</t>
-  </si>
-  <si>
-    <t>IT114115/2X</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1839,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1863,8 +1857,9 @@
       <c r="A1" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="106" t="s">
-        <v>118</v>
+      <c r="B1" s="106" t="str">
+        <f>"IT114115/2"&amp;LEFT( B3, 1)</f>
+        <v>IT114115/2</v>
       </c>
       <c r="C1" s="70"/>
       <c r="D1" s="70"/>
@@ -1880,7 +1875,7 @@
       <c r="B2" s="107"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="70">
         <f>COUNTA(B5:B8)</f>
@@ -1894,35 +1889,33 @@
       <c r="A3" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="106" t="s">
-        <v>82</v>
-      </c>
+      <c r="B3" s="106"/>
       <c r="C3" s="70"/>
       <c r="D3" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="116" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="116" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="116" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="116" t="s">
-        <v>94</v>
-      </c>
       <c r="H3" s="117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="C4" s="108" t="s">
         <v>106</v>
-      </c>
-      <c r="C4" s="108" t="s">
-        <v>107</v>
       </c>
       <c r="D4" s="105">
         <v>0.1</v>
@@ -1945,7 +1938,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="108">
         <v>123456688</v>
@@ -1976,7 +1969,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="108">
         <v>123456789</v>
@@ -2071,10 +2064,10 @@
         <v>47</v>
       </c>
       <c r="B10" s="114" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="113">
         <v>41992</v>
@@ -2086,13 +2079,13 @@
     </row>
     <row r="11" spans="1:9" ht="15">
       <c r="A11" s="112" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="113">
         <v>42017</v>
@@ -2104,13 +2097,13 @@
     </row>
     <row r="12" spans="1:9" ht="15">
       <c r="A12" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="114" t="s">
-        <v>100</v>
-      </c>
       <c r="C12" s="70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="113">
         <v>42123</v>
@@ -2122,7 +2115,7 @@
     </row>
     <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="118" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75">
@@ -2668,7 +2661,7 @@
     </row>
     <row r="46" spans="1:9" ht="15.75">
       <c r="A46" s="126" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18.75">
@@ -3460,7 +3453,7 @@
     </row>
     <row r="93" spans="1:9" ht="15.75">
       <c r="A93" s="126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="18.75">
@@ -3595,7 +3588,7 @@
         <v/>
       </c>
       <c r="D102" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E102" s="23" t="s">
         <v>21</v>
@@ -3951,7 +3944,7 @@
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="3"/>
       <c r="B3" s="152" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="152"/>
@@ -3981,7 +3974,7 @@
       </c>
       <c r="C5" s="4" t="str">
         <f>'Project Summary'!B1</f>
-        <v>IT114115/2X</v>
+        <v>IT114115/2</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
@@ -4020,9 +4013,9 @@
       <c r="B7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="98" t="str">
+      <c r="C7" s="98">
         <f>'Project Summary'!B3</f>
-        <v>B2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
@@ -4572,16 +4565,16 @@
       </c>
       <c r="C4" s="50" t="str">
         <f>'Project Summary'!B1</f>
-        <v>IT114115/2X</v>
+        <v>IT114115/2</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="51" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="49"/>
-      <c r="G4" s="165" t="str">
+      <c r="G4" s="165">
         <f>'Project Summary'!B3</f>
-        <v>B2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="165"/>
       <c r="I4" s="165"/>
@@ -5265,7 +5258,7 @@
     </row>
     <row r="2" spans="1:9" s="48" customFormat="1" ht="20.25">
       <c r="A2" s="164" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="164"/>
       <c r="C2" s="164"/>
@@ -5294,16 +5287,16 @@
       </c>
       <c r="C4" s="101" t="str">
         <f>'Project Summary'!B1</f>
-        <v>IT114115/2X</v>
+        <v>IT114115/2</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="51" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="49"/>
-      <c r="G4" s="165" t="str">
+      <c r="G4" s="165">
         <f>'Project Summary'!B3</f>
-        <v>B2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="165"/>
       <c r="I4" s="165"/>
@@ -6018,7 +6011,7 @@
       </c>
       <c r="C4" s="50" t="str">
         <f>'Project Summary'!B1</f>
-        <v>IT114115/2X</v>
+        <v>IT114115/2</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="148" t="s">
@@ -6037,9 +6030,9 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="104" t="str">
+      <c r="C5" s="104">
         <f>'Project Summary'!B3</f>
-        <v>B2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="148" t="s">
@@ -7101,7 +7094,7 @@
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" ht="20.25">
       <c r="A2" s="167" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="167"/>
       <c r="C2" s="167"/>
@@ -7130,7 +7123,7 @@
       </c>
       <c r="C4" s="103" t="str">
         <f>'Project Summary'!B1</f>
-        <v>IT114115/2X</v>
+        <v>IT114115/2</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="148" t="s">
@@ -7149,9 +7142,9 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="104" t="str">
+      <c r="C5" s="104">
         <f>'Project Summary'!B3</f>
-        <v>B2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="148" t="s">
@@ -8154,7 +8147,7 @@
     </row>
     <row r="2" spans="1:14" s="70" customFormat="1" ht="15.75">
       <c r="A2" s="69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="172" t="str">
         <f>'Project Summary'!B10</f>
@@ -8175,7 +8168,7 @@
     </row>
     <row r="3" spans="1:14" s="70" customFormat="1" ht="15.75">
       <c r="A3" s="71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="172" t="str">
         <f>'Project Summary'!B11&amp;"(Semester 1) /  "&amp;'Project Summary'!B12&amp;"(Semester 2)"</f>
@@ -8196,7 +8189,7 @@
     </row>
     <row r="4" spans="1:14" s="70" customFormat="1" ht="73.150000000000006" customHeight="1">
       <c r="A4" s="72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="173"/>
       <c r="C4" s="172"/>
@@ -8232,19 +8225,19 @@
       <c r="A6" s="73"/>
       <c r="B6" s="73"/>
       <c r="C6" s="174" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="174"/>
       <c r="E6" s="174"/>
       <c r="F6" s="174"/>
       <c r="G6" s="175" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" s="175"/>
       <c r="I6" s="175"/>
       <c r="J6" s="175"/>
       <c r="K6" s="176" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" s="176"/>
       <c r="M6" s="176"/>
@@ -8252,25 +8245,25 @@
     </row>
     <row r="7" spans="1:14" s="70" customFormat="1" ht="15.75">
       <c r="A7" s="177" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="178" t="s">
+      <c r="C7" s="179" t="s">
         <v>91</v>
-      </c>
-      <c r="C7" s="179" t="s">
-        <v>92</v>
       </c>
       <c r="D7" s="179"/>
       <c r="E7" s="179"/>
       <c r="F7" s="179"/>
       <c r="G7" s="179" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" s="179"/>
       <c r="I7" s="179"/>
       <c r="J7" s="179"/>
       <c r="K7" s="179" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L7" s="179"/>
       <c r="M7" s="179"/>
@@ -8318,7 +8311,7 @@
     </row>
     <row r="9" spans="1:14" s="70" customFormat="1" ht="15.75">
       <c r="A9" s="75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="76">
         <v>0.1</v>
@@ -8362,7 +8355,7 @@
     </row>
     <row r="10" spans="1:14" s="70" customFormat="1" ht="47.25">
       <c r="A10" s="80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="76">
         <v>0.3</v>
@@ -8418,7 +8411,7 @@
     </row>
     <row r="11" spans="1:14" s="70" customFormat="1" ht="47.25">
       <c r="A11" s="80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="76">
         <v>0.5</v>
@@ -8474,7 +8467,7 @@
     </row>
     <row r="12" spans="1:14" s="70" customFormat="1" ht="15.75">
       <c r="A12" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="76">
         <v>0.1</v>
@@ -8518,7 +8511,7 @@
     </row>
     <row r="13" spans="1:14" s="86" customFormat="1" ht="16.5" thickBot="1">
       <c r="A13" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="82">
         <f>SUM(B9:B12)</f>

--- a/IT114115_FYP_MarkSheet_Template.xlsx
+++ b/IT114115_FYP_MarkSheet_Template.xlsx
@@ -14,18 +14,19 @@
   <sheets>
     <sheet name="Project Summary" sheetId="9" r:id="rId1"/>
     <sheet name="Initial Report" sheetId="5" r:id="rId2"/>
-    <sheet name="Interim Report" sheetId="6" r:id="rId3"/>
-    <sheet name="Interim Report_Co" sheetId="7" r:id="rId4"/>
-    <sheet name="Final_Report" sheetId="1" r:id="rId5"/>
-    <sheet name="Final_Report_Co" sheetId="4" r:id="rId6"/>
-    <sheet name="Finalize" sheetId="8" r:id="rId7"/>
+    <sheet name="Initial Report_Co" sheetId="10" r:id="rId3"/>
+    <sheet name="Interim Report" sheetId="6" r:id="rId4"/>
+    <sheet name="Interim Report_Co" sheetId="7" r:id="rId5"/>
+    <sheet name="Final_Report" sheetId="1" r:id="rId6"/>
+    <sheet name="Final_Report_Co" sheetId="4" r:id="rId7"/>
+    <sheet name="Finalize" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="120">
   <si>
     <t>Weighting</t>
   </si>
@@ -277,9 +278,6 @@
 clarity, modularity and flexibility, and complexity)</t>
   </si>
   <si>
-    <t>User-interface design</t>
-  </si>
-  <si>
     <t>Critical Evaluation and Project Plan</t>
   </si>
   <si>
@@ -431,6 +429,18 @@
   </si>
   <si>
     <t>YYYY</t>
+  </si>
+  <si>
+    <t>User-interface design / Implementation scenario design</t>
+  </si>
+  <si>
+    <t>Co-marker Assessment Sheet - Initial Report (50%)</t>
+  </si>
+  <si>
+    <t>Co-marker Assessment Sheet - Interim Report (50%)</t>
+  </si>
+  <si>
+    <t>Co-Marker Assessment Sheet - Final Report and Project Management (50%)</t>
   </si>
 </sst>
 </file>
@@ -441,7 +451,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -581,8 +591,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,6 +643,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,7 +933,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1163,58 +1184,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1236,9 +1206,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1363,6 +1330,20 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1505,22 +1486,76 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1835,11 +1870,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1857,7 +1892,7 @@
       <c r="A1" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="106" t="str">
+      <c r="B1" s="88" t="str">
         <f>"IT114115/2"&amp;LEFT( B3, 1)</f>
         <v>IT114115/2</v>
       </c>
@@ -1872,10 +1907,10 @@
       <c r="A2" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="107"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="70">
         <f>COUNTA(B5:B8)</f>
@@ -1889,187 +1924,187 @@
       <c r="A3" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="106"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="70"/>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="116" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="116" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="117" t="s">
-        <v>107</v>
+      <c r="H3" s="99" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="C4" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="105">
+      <c r="D4" s="87">
         <v>0.1</v>
       </c>
-      <c r="E4" s="105">
+      <c r="E4" s="87">
         <v>0.3</v>
       </c>
-      <c r="F4" s="105">
+      <c r="F4" s="87">
         <v>0.5</v>
       </c>
-      <c r="G4" s="105">
+      <c r="G4" s="87">
         <v>0.1</v>
       </c>
-      <c r="H4" s="115">
+      <c r="H4" s="97">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="111" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="108">
+      <c r="B5" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="90">
         <v>123456688</v>
       </c>
-      <c r="D5" s="108">
+      <c r="D5" s="90">
         <f>Finalize!K9</f>
         <v>3.4</v>
       </c>
-      <c r="E5" s="108">
+      <c r="E5" s="90">
         <f>Finalize!K10</f>
         <v>12.7</v>
       </c>
-      <c r="F5" s="108">
+      <c r="F5" s="90">
         <f>Finalize!K11</f>
         <v>27.4</v>
       </c>
-      <c r="G5" s="108">
+      <c r="G5" s="90">
         <f>Finalize!K12</f>
         <v>4.8</v>
       </c>
-      <c r="H5" s="108">
+      <c r="H5" s="90">
         <f>SUM(D5:G5)</f>
         <v>48.3</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="111" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="108">
+      <c r="B6" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="90">
         <v>123456789</v>
       </c>
-      <c r="D6" s="108">
+      <c r="D6" s="90">
         <f>Finalize!L9</f>
         <v>4.2</v>
       </c>
-      <c r="E6" s="108">
+      <c r="E6" s="90">
         <f>Finalize!L10</f>
         <v>14.0625</v>
       </c>
-      <c r="F6" s="108">
+      <c r="F6" s="90">
         <f>Finalize!L11</f>
         <v>28.4</v>
       </c>
-      <c r="G6" s="108">
+      <c r="G6" s="90">
         <f>Finalize!L12</f>
         <v>5.2</v>
       </c>
-      <c r="H6" s="108">
+      <c r="H6" s="90">
         <f t="shared" ref="H6:H8" si="0">SUM(D6:G6)</f>
         <v>51.862499999999997</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="111"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108" t="str">
+      <c r="B7" s="93"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90" t="e">
         <f>Finalize!M9</f>
-        <v/>
-      </c>
-      <c r="E7" s="108">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" s="90">
         <f>Finalize!M10</f>
         <v>0</v>
       </c>
-      <c r="F7" s="108" t="e">
+      <c r="F7" s="90" t="e">
         <f>Finalize!M11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="108">
+      <c r="G7" s="90">
         <f>Finalize!M12</f>
         <v>0</v>
       </c>
-      <c r="H7" s="108" t="e">
+      <c r="H7" s="90" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108" t="str">
+      <c r="B8" s="93"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90" t="e">
         <f>Finalize!N9</f>
-        <v/>
-      </c>
-      <c r="E8" s="108">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" s="90">
         <f>Finalize!N10</f>
         <v>0</v>
       </c>
-      <c r="F8" s="108" t="e">
+      <c r="F8" s="90" t="e">
         <f>Finalize!N11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G8" s="108">
+      <c r="G8" s="90">
         <f>Finalize!N12</f>
         <v>0</v>
       </c>
-      <c r="H8" s="108" t="e">
+      <c r="H8" s="90" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15">
-      <c r="A9" s="131"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
     </row>
     <row r="10" spans="1:9" ht="15">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="114" t="s">
-        <v>82</v>
+      <c r="B10" s="96" t="s">
+        <v>81</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="113">
+        <v>99</v>
+      </c>
+      <c r="D10" s="95">
         <v>41992</v>
       </c>
       <c r="E10" s="70"/>
@@ -2078,16 +2113,16 @@
       <c r="H10" s="70"/>
     </row>
     <row r="11" spans="1:9" ht="15">
-      <c r="A11" s="112" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="114" t="s">
-        <v>114</v>
+      <c r="A11" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>113</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="113">
+        <v>100</v>
+      </c>
+      <c r="D11" s="95">
         <v>42017</v>
       </c>
       <c r="E11" s="70"/>
@@ -2096,16 +2131,16 @@
       <c r="H11" s="70"/>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="114" t="s">
-        <v>99</v>
-      </c>
       <c r="C12" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="113">
+        <v>101</v>
+      </c>
+      <c r="D12" s="95">
         <v>42123</v>
       </c>
       <c r="E12" s="70"/>
@@ -2114,30 +2149,30 @@
       <c r="H12" s="70"/>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="118" t="s">
-        <v>108</v>
+      <c r="A15" s="100" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="133"/>
-      <c r="B16" s="134" t="s">
+      <c r="A16" s="120"/>
+      <c r="B16" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="135" t="s">
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
     </row>
     <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="133"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
+      <c r="A17" s="120"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
       <c r="E17" s="37" t="s">
         <v>0</v>
       </c>
@@ -2155,13 +2190,13 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A18" s="99"/>
+      <c r="A18" s="81"/>
       <c r="B18" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
@@ -2171,11 +2206,11 @@
       <c r="A19" s="17">
         <v>1</v>
       </c>
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
       <c r="E19" s="40">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2192,11 +2227,11 @@
       <c r="A20" s="17">
         <v>2</v>
       </c>
-      <c r="B20" s="136" t="s">
+      <c r="B20" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
       <c r="E20" s="40">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2213,11 +2248,11 @@
       <c r="A21" s="17">
         <v>3</v>
       </c>
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
       <c r="E21" s="40">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2234,11 +2269,11 @@
       <c r="A22" s="17">
         <v>4</v>
       </c>
-      <c r="B22" s="136" t="s">
+      <c r="B22" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
       <c r="E22" s="40">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2255,11 +2290,11 @@
       <c r="A23" s="17">
         <v>5</v>
       </c>
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
       <c r="E23" s="40">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2277,8 +2312,8 @@
       <c r="B24" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
       <c r="E24" s="40"/>
       <c r="F24" s="43"/>
       <c r="G24" s="44"/>
@@ -2286,14 +2321,14 @@
       <c r="I24" s="43"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A25" s="99">
+      <c r="A25" s="81">
         <v>6</v>
       </c>
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
       <c r="E25" s="40">
         <v>0.01</v>
       </c>
@@ -2310,11 +2345,11 @@
       <c r="A26" s="17">
         <v>7</v>
       </c>
-      <c r="B26" s="136" t="s">
+      <c r="B26" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
       <c r="E26" s="40">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -2328,14 +2363,14 @@
       <c r="I26" s="41"/>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A27" s="99">
+      <c r="A27" s="81">
         <v>8</v>
       </c>
-      <c r="B27" s="136" t="s">
+      <c r="B27" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
       <c r="E27" s="40">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -2349,1535 +2384,1789 @@
       <c r="I27" s="41"/>
     </row>
     <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="118" t="s">
+      <c r="A28" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75">
+      <c r="A29" s="120"/>
+      <c r="B29" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75">
+      <c r="A30" s="120"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A31" s="116"/>
+      <c r="B31" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A32" s="17">
+        <v>1</v>
+      </c>
+      <c r="B32" s="123" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F32" s="41">
+        <v>0</v>
+      </c>
+      <c r="G32" s="42">
+        <v>0</v>
+      </c>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A33" s="17">
+        <v>2</v>
+      </c>
+      <c r="B33" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F33" s="41">
+        <v>5</v>
+      </c>
+      <c r="G33" s="42">
+        <v>5.5</v>
+      </c>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A34" s="17">
+        <v>3</v>
+      </c>
+      <c r="B34" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F34" s="41">
+        <v>0</v>
+      </c>
+      <c r="G34" s="42">
+        <v>5</v>
+      </c>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A35" s="17">
+        <v>4</v>
+      </c>
+      <c r="B35" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F35" s="41">
+        <v>4.5</v>
+      </c>
+      <c r="G35" s="42">
+        <v>4.5</v>
+      </c>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A36" s="17">
+        <v>5</v>
+      </c>
+      <c r="B36" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F36" s="41">
+        <v>4</v>
+      </c>
+      <c r="G36" s="42">
+        <v>4</v>
+      </c>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A37" s="17"/>
+      <c r="B37" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="43"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A38" s="116">
+        <v>6</v>
+      </c>
+      <c r="B38" s="123" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="F38" s="41">
+        <v>6</v>
+      </c>
+      <c r="G38" s="41">
+        <v>6</v>
+      </c>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A39" s="17">
+        <v>7</v>
+      </c>
+      <c r="B39" s="123" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="40">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F39" s="41">
+        <v>5</v>
+      </c>
+      <c r="G39" s="41">
+        <v>5</v>
+      </c>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A40" s="116">
+        <v>8</v>
+      </c>
+      <c r="B40" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="123"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="40">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F40" s="41">
+        <v>5</v>
+      </c>
+      <c r="G40" s="41">
+        <v>5</v>
+      </c>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75">
+      <c r="A41" s="100" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.75">
-      <c r="A29" s="138" t="s">
+    <row r="42" spans="1:9" ht="18.75">
+      <c r="A42" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="138"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75">
-      <c r="A30" s="139"/>
-      <c r="B30" s="140" t="s">
+      <c r="B42" s="125"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75">
+      <c r="A43" s="126"/>
+      <c r="B43" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="135" t="s">
+      <c r="C43" s="127"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A31" s="139"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="56" t="s">
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A44" s="126"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="56" t="s">
+      <c r="G44" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="56" t="s">
+      <c r="H44" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="56" t="s">
+      <c r="I44" s="56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A32" s="57">
-        <v>1</v>
-      </c>
-      <c r="B32" s="137" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="137"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="58">
-        <v>0.03</v>
-      </c>
-      <c r="F32" s="59">
-        <v>4.5</v>
-      </c>
-      <c r="G32" s="59">
-        <v>4.5</v>
-      </c>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A33" s="57">
-        <v>2</v>
-      </c>
-      <c r="B33" s="141" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="58">
-        <v>0.06</v>
-      </c>
-      <c r="F33" s="60">
-        <v>4</v>
-      </c>
-      <c r="G33" s="60">
-        <v>4</v>
-      </c>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A34" s="57">
-        <v>3</v>
-      </c>
-      <c r="B34" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="58">
-        <v>0.02</v>
-      </c>
-      <c r="F34" s="60">
-        <v>4</v>
-      </c>
-      <c r="G34" s="60">
-        <v>4</v>
-      </c>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A35" s="57">
-        <v>4</v>
-      </c>
-      <c r="B35" s="141" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="61">
-        <v>0.02</v>
-      </c>
-      <c r="F35" s="60">
-        <v>5</v>
-      </c>
-      <c r="G35" s="60">
-        <v>5</v>
-      </c>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A36" s="57">
-        <v>5</v>
-      </c>
-      <c r="B36" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="139"/>
-      <c r="D36" s="139"/>
-      <c r="E36" s="61">
-        <v>0.02</v>
-      </c>
-      <c r="F36" s="62">
-        <v>4.5</v>
-      </c>
-      <c r="G36" s="62">
-        <v>4.5</v>
-      </c>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A37" s="57">
-        <v>6</v>
-      </c>
-      <c r="B37" s="142" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="142"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="F37" s="59">
-        <v>4</v>
-      </c>
-      <c r="G37" s="59">
-        <v>5</v>
-      </c>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A38" s="57">
-        <v>7</v>
-      </c>
-      <c r="B38" s="143" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="61">
-        <v>0.02</v>
-      </c>
-      <c r="F38" s="59">
-        <v>4.5</v>
-      </c>
-      <c r="G38" s="59">
-        <v>5</v>
-      </c>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-    </row>
-    <row r="40" spans="1:9" ht="18.75">
-      <c r="A40" s="138" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="138"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="135" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A42" s="57">
-        <v>1</v>
-      </c>
-      <c r="B42" s="137" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="65">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F42" s="59">
-        <v>5</v>
-      </c>
-      <c r="G42" s="59">
-        <v>6</v>
-      </c>
-      <c r="H42" s="59"/>
-      <c r="I42" s="66"/>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A43" s="57">
-        <v>2</v>
-      </c>
-      <c r="B43" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="65">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F43" s="60">
-        <v>4</v>
-      </c>
-      <c r="G43" s="60">
-        <v>5</v>
-      </c>
-      <c r="H43" s="60"/>
-      <c r="I43" s="67"/>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A44" s="57">
-        <v>3</v>
-      </c>
-      <c r="B44" s="137" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="137"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="65">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F44" s="60">
-        <v>4.5</v>
-      </c>
-      <c r="G44" s="60">
-        <v>5</v>
-      </c>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
     </row>
     <row r="45" spans="1:9" ht="16.5" thickBot="1">
       <c r="A45" s="57">
+        <v>1</v>
+      </c>
+      <c r="B45" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="58">
+        <v>0.03</v>
+      </c>
+      <c r="F45" s="59">
+        <v>4.5</v>
+      </c>
+      <c r="G45" s="59">
+        <v>4.5</v>
+      </c>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A46" s="57">
+        <v>2</v>
+      </c>
+      <c r="B46" s="128" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="58">
+        <v>0.06</v>
+      </c>
+      <c r="F46" s="60">
+        <v>4</v>
+      </c>
+      <c r="G46" s="60">
+        <v>4</v>
+      </c>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A47" s="57">
         <v>3</v>
       </c>
-      <c r="B45" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="65">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F45" s="60">
-        <v>5</v>
-      </c>
-      <c r="G45" s="60">
-        <v>6</v>
-      </c>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75">
-      <c r="A46" s="126" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="18.75">
-      <c r="A47" s="138" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="138"/>
-      <c r="H47" s="138"/>
-      <c r="I47" s="138"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" s="139"/>
-      <c r="B48" s="140" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="140"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="135" t="s">
-        <v>1</v>
-      </c>
-      <c r="G48" s="135"/>
-      <c r="H48" s="135"/>
-      <c r="I48" s="135"/>
+      <c r="B47" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="124"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="58">
+        <v>0.02</v>
+      </c>
+      <c r="F47" s="60">
+        <v>4</v>
+      </c>
+      <c r="G47" s="60">
+        <v>4</v>
+      </c>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A48" s="57">
+        <v>4</v>
+      </c>
+      <c r="B48" s="128" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="61">
+        <v>0.02</v>
+      </c>
+      <c r="F48" s="60">
+        <v>5</v>
+      </c>
+      <c r="G48" s="60">
+        <v>5</v>
+      </c>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A49" s="139"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="F49" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="56" t="s">
-        <v>10</v>
-      </c>
+      <c r="A49" s="57">
+        <v>5</v>
+      </c>
+      <c r="B49" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="126"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="61">
+        <v>0.02</v>
+      </c>
+      <c r="F49" s="62">
+        <v>4.5</v>
+      </c>
+      <c r="G49" s="62">
+        <v>4.5</v>
+      </c>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" thickBot="1">
       <c r="A50" s="57">
-        <v>1</v>
-      </c>
-      <c r="B50" s="137" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="137"/>
-      <c r="D50" s="137"/>
-      <c r="E50" s="58">
-        <v>0.03</v>
+        <v>6</v>
+      </c>
+      <c r="B50" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="61">
+        <v>0.1</v>
       </c>
       <c r="F50" s="59">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G50" s="59">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H50" s="59"/>
       <c r="I50" s="59"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" thickBot="1">
       <c r="A51" s="57">
-        <v>2</v>
-      </c>
-      <c r="B51" s="141" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="141"/>
-      <c r="D51" s="141"/>
-      <c r="E51" s="58">
-        <v>0.06</v>
-      </c>
-      <c r="F51" s="60">
-        <v>4</v>
-      </c>
-      <c r="G51" s="60">
-        <v>4</v>
-      </c>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A52" s="57">
-        <v>3</v>
-      </c>
-      <c r="B52" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="58">
+        <v>7</v>
+      </c>
+      <c r="B51" s="130" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="130"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="61">
         <v>0.02</v>
       </c>
-      <c r="F52" s="60">
-        <v>4</v>
-      </c>
-      <c r="G52" s="60">
-        <v>4</v>
-      </c>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A53" s="57">
-        <v>4</v>
-      </c>
-      <c r="B53" s="141" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="141"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="61">
-        <v>0.02</v>
-      </c>
-      <c r="F53" s="60">
-        <v>5</v>
-      </c>
-      <c r="G53" s="60">
-        <v>5</v>
-      </c>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
+      <c r="F51" s="59">
+        <v>4.5</v>
+      </c>
+      <c r="G51" s="59">
+        <v>5</v>
+      </c>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+    </row>
+    <row r="53" spans="1:9" ht="18.75">
+      <c r="A53" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="125"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A54" s="57">
-        <v>5</v>
-      </c>
-      <c r="B54" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="139"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="61">
-        <v>0.02</v>
-      </c>
-      <c r="F54" s="62">
-        <v>4.5</v>
-      </c>
-      <c r="G54" s="62">
-        <v>4.5</v>
-      </c>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
+      <c r="I54" s="122"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" thickBot="1">
       <c r="A55" s="57">
+        <v>1</v>
+      </c>
+      <c r="B55" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="124"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="65">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F55" s="59">
+        <v>5</v>
+      </c>
+      <c r="G55" s="59">
         <v>6</v>
       </c>
-      <c r="B55" s="142" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="142"/>
-      <c r="D55" s="142"/>
-      <c r="E55" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="F55" s="59">
-        <v>4</v>
-      </c>
-      <c r="G55" s="59">
-        <v>5</v>
-      </c>
       <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
+      <c r="I55" s="66"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" thickBot="1">
       <c r="A56" s="57">
+        <v>2</v>
+      </c>
+      <c r="B56" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="124"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="65">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F56" s="60">
+        <v>4</v>
+      </c>
+      <c r="G56" s="60">
+        <v>5</v>
+      </c>
+      <c r="H56" s="60"/>
+      <c r="I56" s="67"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A57" s="57">
+        <v>3</v>
+      </c>
+      <c r="B57" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="124"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="65">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F57" s="60">
+        <v>4.5</v>
+      </c>
+      <c r="G57" s="60">
+        <v>5</v>
+      </c>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A58" s="57">
+        <v>3</v>
+      </c>
+      <c r="B58" s="124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="124"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="65">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F58" s="60">
+        <v>5</v>
+      </c>
+      <c r="G58" s="60">
+        <v>6</v>
+      </c>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75">
+      <c r="A59" s="108" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="18.75">
+      <c r="A60" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="125"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="125"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75">
+      <c r="A61" s="126"/>
+      <c r="B61" s="127" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="127"/>
+      <c r="D61" s="127"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="122"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="122"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A62" s="126"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="143" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="143"/>
-      <c r="D56" s="143"/>
-      <c r="E56" s="61">
+      <c r="H62" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A63" s="57">
+        <v>1</v>
+      </c>
+      <c r="B63" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="58">
+        <v>0.03</v>
+      </c>
+      <c r="F63" s="59">
+        <v>4.5</v>
+      </c>
+      <c r="G63" s="59">
+        <v>4.5</v>
+      </c>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A64" s="57">
+        <v>2</v>
+      </c>
+      <c r="B64" s="128" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="128"/>
+      <c r="D64" s="128"/>
+      <c r="E64" s="58">
+        <v>0.06</v>
+      </c>
+      <c r="F64" s="60">
+        <v>4</v>
+      </c>
+      <c r="G64" s="60">
+        <v>4</v>
+      </c>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A65" s="57">
+        <v>3</v>
+      </c>
+      <c r="B65" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="124"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="58">
         <v>0.02</v>
       </c>
-      <c r="F56" s="59">
+      <c r="F65" s="60">
+        <v>4</v>
+      </c>
+      <c r="G65" s="60">
+        <v>4</v>
+      </c>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A66" s="57">
+        <v>4</v>
+      </c>
+      <c r="B66" s="128" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="128"/>
+      <c r="D66" s="128"/>
+      <c r="E66" s="61">
+        <v>0.02</v>
+      </c>
+      <c r="F66" s="60">
+        <v>5</v>
+      </c>
+      <c r="G66" s="60">
+        <v>5</v>
+      </c>
+      <c r="H66" s="60"/>
+      <c r="I66" s="60"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A67" s="57">
+        <v>5</v>
+      </c>
+      <c r="B67" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="126"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="61">
+        <v>0.02</v>
+      </c>
+      <c r="F67" s="62">
         <v>4.5</v>
       </c>
-      <c r="G56" s="59">
-        <v>5</v>
-      </c>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-    </row>
-    <row r="57" spans="1:9" ht="18.75">
-      <c r="A57" s="138" t="s">
+      <c r="G67" s="62">
+        <v>4.5</v>
+      </c>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A68" s="57">
+        <v>6</v>
+      </c>
+      <c r="B68" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="129"/>
+      <c r="D68" s="129"/>
+      <c r="E68" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="F68" s="59">
+        <v>4</v>
+      </c>
+      <c r="G68" s="59">
+        <v>5</v>
+      </c>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A69" s="57">
+        <v>7</v>
+      </c>
+      <c r="B69" s="130" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="130"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="61">
+        <v>0.02</v>
+      </c>
+      <c r="F69" s="59">
+        <v>4.5</v>
+      </c>
+      <c r="G69" s="59">
+        <v>5</v>
+      </c>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+    </row>
+    <row r="70" spans="1:9" ht="18.75">
+      <c r="A70" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="125"/>
+      <c r="C70" s="125"/>
+      <c r="D70" s="125"/>
+      <c r="E70" s="125"/>
+      <c r="F70" s="125"/>
+      <c r="G70" s="125"/>
+      <c r="H70" s="125"/>
+      <c r="I70" s="125"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A71" s="48"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="122"/>
+      <c r="H71" s="122"/>
+      <c r="I71" s="122"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A72" s="57">
+        <v>1</v>
+      </c>
+      <c r="B72" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="138"/>
-      <c r="F57" s="138"/>
-      <c r="G57" s="138"/>
-      <c r="H57" s="138"/>
-      <c r="I57" s="138"/>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A58" s="48"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="135" t="s">
+      <c r="C72" s="124"/>
+      <c r="D72" s="124"/>
+      <c r="E72" s="65">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F72" s="59">
+        <v>4</v>
+      </c>
+      <c r="G72" s="59">
+        <v>5</v>
+      </c>
+      <c r="H72" s="59"/>
+      <c r="I72" s="66"/>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A73" s="57">
+        <v>2</v>
+      </c>
+      <c r="B73" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="124"/>
+      <c r="D73" s="124"/>
+      <c r="E73" s="65">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F73" s="60">
+        <v>4.5</v>
+      </c>
+      <c r="G73" s="60">
+        <v>5</v>
+      </c>
+      <c r="H73" s="60"/>
+      <c r="I73" s="67"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A74" s="57">
+        <v>3</v>
+      </c>
+      <c r="B74" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="124"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="65">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F74" s="60">
+        <v>5</v>
+      </c>
+      <c r="G74" s="60">
+        <v>6</v>
+      </c>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A75" s="57">
+        <v>3</v>
+      </c>
+      <c r="B75" s="124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="124"/>
+      <c r="D75" s="124"/>
+      <c r="E75" s="65">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F75" s="60">
+        <v>4</v>
+      </c>
+      <c r="G75" s="60">
+        <v>5</v>
+      </c>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+    </row>
+    <row r="76" spans="1:9" ht="18">
+      <c r="A76" s="102" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="18.75">
+      <c r="A77" s="131" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="131"/>
+      <c r="C77" s="131"/>
+      <c r="D77" s="131"/>
+      <c r="E77" s="131"/>
+      <c r="F77" s="131"/>
+      <c r="G77" s="131"/>
+      <c r="H77" s="131"/>
+      <c r="I77" s="131"/>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A78" s="81"/>
+      <c r="B78" s="132"/>
+      <c r="C78" s="132"/>
+      <c r="D78" s="132"/>
+      <c r="E78" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G58" s="135"/>
-      <c r="H58" s="135"/>
-      <c r="I58" s="135"/>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A59" s="57">
-        <v>1</v>
-      </c>
-      <c r="B59" s="137" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="65">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F59" s="59">
-        <v>4</v>
-      </c>
-      <c r="G59" s="59">
-        <v>5</v>
-      </c>
-      <c r="H59" s="59"/>
-      <c r="I59" s="66"/>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A60" s="57">
-        <v>2</v>
-      </c>
-      <c r="B60" s="137" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="137"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="65">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F60" s="60">
-        <v>4.5</v>
-      </c>
-      <c r="G60" s="60">
-        <v>5</v>
-      </c>
-      <c r="H60" s="60"/>
-      <c r="I60" s="67"/>
-    </row>
-    <row r="61" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A61" s="57">
-        <v>3</v>
-      </c>
-      <c r="B61" s="137" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="65">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F61" s="60">
-        <v>5</v>
-      </c>
-      <c r="G61" s="60">
-        <v>6</v>
-      </c>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-    </row>
-    <row r="62" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A62" s="57">
-        <v>3</v>
-      </c>
-      <c r="B62" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="65">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F62" s="60">
-        <v>4</v>
-      </c>
-      <c r="G62" s="60">
-        <v>5</v>
-      </c>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-    </row>
-    <row r="63" spans="1:9" ht="18">
-      <c r="A63" s="120" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="18.75">
-      <c r="A64" s="144" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" s="144"/>
-      <c r="C64" s="144"/>
-      <c r="D64" s="144"/>
-      <c r="E64" s="144"/>
-      <c r="F64" s="144"/>
-      <c r="G64" s="144"/>
-      <c r="H64" s="144"/>
-      <c r="I64" s="144"/>
-    </row>
-    <row r="65" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A65" s="99"/>
-      <c r="B65" s="145"/>
-      <c r="C65" s="145"/>
-      <c r="D65" s="145"/>
-      <c r="E65" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75">
-      <c r="A66" s="11">
-        <v>1</v>
-      </c>
-      <c r="B66" s="136" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="136"/>
-      <c r="D66" s="136"/>
-      <c r="E66" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F66" s="122">
-        <v>4</v>
-      </c>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75">
-      <c r="A67" s="11">
-        <v>2</v>
-      </c>
-      <c r="B67" s="146" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="136"/>
-      <c r="D67" s="136"/>
-      <c r="E67" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F67" s="121">
-        <v>6</v>
-      </c>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75">
-      <c r="A68" s="11">
-        <v>3</v>
-      </c>
-      <c r="B68" s="146" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="136"/>
-      <c r="D68" s="136"/>
-      <c r="E68" s="12">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="F68" s="121">
-        <v>5</v>
-      </c>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75">
-      <c r="A69" s="11">
-        <v>4</v>
-      </c>
-      <c r="B69" s="133" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="133"/>
-      <c r="D69" s="133"/>
-      <c r="E69" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F69" s="121">
-        <v>4</v>
-      </c>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75">
-      <c r="A70" s="11">
-        <v>5</v>
-      </c>
-      <c r="B70" s="133" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="133"/>
-      <c r="D70" s="133"/>
-      <c r="E70" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F70" s="121">
-        <v>5</v>
-      </c>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-    </row>
-    <row r="72" spans="1:10" ht="16.5" thickBot="1">
-      <c r="E72" s="17"/>
-      <c r="F72" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="32.25" thickBot="1">
-      <c r="D73" t="str">
-        <f>IF(ISBLANK(F102),"", IF(COUNTA(F73:I73)&lt;&gt;E2,"Incorrect No.of Students",""))</f>
-        <v/>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F73" s="24">
-        <v>50</v>
-      </c>
-      <c r="G73" s="24">
-        <v>50</v>
-      </c>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="119" t="str">
-        <f>IF(SUM(F73:I73)&lt;&gt;100,"Sum must be 100","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A74" s="16"/>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="135" t="s">
-        <v>1</v>
-      </c>
-      <c r="G74" s="135"/>
-      <c r="H74" s="135"/>
-      <c r="I74" s="135"/>
-    </row>
-    <row r="75" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A75" s="11">
-        <v>6</v>
-      </c>
-      <c r="B75" s="147" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="148"/>
-      <c r="D75" s="148"/>
-      <c r="E75" s="27">
-        <v>0.3</v>
-      </c>
-      <c r="F75" s="123">
-        <v>5</v>
-      </c>
-      <c r="G75" s="123">
-        <v>5</v>
-      </c>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-    </row>
-    <row r="77" spans="1:10" ht="18.75">
-      <c r="A77" s="144" t="s">
-        <v>39</v>
-      </c>
-      <c r="B77" s="144"/>
-      <c r="C77" s="144"/>
-      <c r="D77" s="144"/>
-      <c r="E77" s="144"/>
-      <c r="F77" s="144"/>
-      <c r="G77" s="144"/>
-      <c r="H77" s="144"/>
-      <c r="I77" s="144"/>
-    </row>
-    <row r="78" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="135" t="s">
-        <v>1</v>
-      </c>
-      <c r="G78" s="135"/>
-      <c r="H78" s="135"/>
-      <c r="I78" s="135"/>
-    </row>
-    <row r="79" spans="1:10" ht="16.5" thickBot="1">
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75">
       <c r="A79" s="11">
         <v>1</v>
       </c>
-      <c r="B79" s="146" t="s">
-        <v>23</v>
-      </c>
-      <c r="C79" s="136"/>
-      <c r="D79" s="136"/>
-      <c r="E79" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="F79" s="125">
-        <v>5</v>
-      </c>
-      <c r="G79" s="125">
-        <v>5</v>
-      </c>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-    </row>
-    <row r="80" spans="1:10" ht="16.5" thickBot="1">
+      <c r="B79" s="123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="123"/>
+      <c r="D79" s="123"/>
+      <c r="E79" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F79" s="104">
+        <v>4</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75">
       <c r="A80" s="11">
         <v>2</v>
       </c>
-      <c r="B80" s="136" t="s">
-        <v>2</v>
-      </c>
-      <c r="C80" s="136"/>
-      <c r="D80" s="136"/>
-      <c r="E80" s="30">
-        <v>0.01</v>
-      </c>
-      <c r="F80" s="124">
-        <v>5</v>
-      </c>
-      <c r="G80" s="124">
-        <v>5</v>
-      </c>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-    </row>
-    <row r="81" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B80" s="133" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="123"/>
+      <c r="D80" s="123"/>
+      <c r="E80" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="F80" s="103">
+        <v>6</v>
+      </c>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+    </row>
+    <row r="81" spans="1:10" ht="15.75">
       <c r="A81" s="11">
         <v>3</v>
       </c>
-      <c r="B81" s="136" t="s">
-        <v>24</v>
-      </c>
-      <c r="C81" s="136"/>
-      <c r="D81" s="136"/>
-      <c r="E81" s="30">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F81" s="124">
-        <v>6</v>
-      </c>
-      <c r="G81" s="124">
-        <v>6</v>
-      </c>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-    </row>
-    <row r="82" spans="1:9" ht="16.5" thickBot="1">
+      <c r="B81" s="133" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="123"/>
+      <c r="D81" s="123"/>
+      <c r="E81" s="12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F81" s="103">
+        <v>5</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.75">
       <c r="A82" s="11">
         <v>4</v>
       </c>
-      <c r="B82" s="136" t="s">
+      <c r="B82" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="120"/>
+      <c r="D82" s="120"/>
+      <c r="E82" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="F82" s="103">
+        <v>4</v>
+      </c>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.75">
+      <c r="A83" s="11">
+        <v>5</v>
+      </c>
+      <c r="B83" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="120"/>
+      <c r="D83" s="120"/>
+      <c r="E83" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="F83" s="103">
+        <v>5</v>
+      </c>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+    </row>
+    <row r="85" spans="1:10" ht="16.5" thickBot="1">
+      <c r="E85" s="17"/>
+      <c r="F85" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="32.25" thickBot="1">
+      <c r="D86" t="str">
+        <f>IF(ISBLANK(F115),"", IF(COUNTA(F86:I86)&lt;&gt;E2,"Incorrect No.of Students",""))</f>
+        <v/>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="24">
+        <v>50</v>
+      </c>
+      <c r="G86" s="24">
+        <v>50</v>
+      </c>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="101" t="str">
+        <f>IF(SUM(F86:I86)&lt;&gt;100,"Sum must be 100","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A87" s="16"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87" s="122"/>
+      <c r="H87" s="122"/>
+      <c r="I87" s="122"/>
+    </row>
+    <row r="88" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A88" s="11">
+        <v>6</v>
+      </c>
+      <c r="B88" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="135"/>
+      <c r="D88" s="135"/>
+      <c r="E88" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="F88" s="105">
+        <v>5</v>
+      </c>
+      <c r="G88" s="105">
+        <v>5</v>
+      </c>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+    </row>
+    <row r="90" spans="1:10" ht="18.75">
+      <c r="A90" s="131" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" s="131"/>
+      <c r="C90" s="131"/>
+      <c r="D90" s="131"/>
+      <c r="E90" s="131"/>
+      <c r="F90" s="131"/>
+      <c r="G90" s="131"/>
+      <c r="H90" s="131"/>
+      <c r="I90" s="131"/>
+    </row>
+    <row r="91" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91" s="122"/>
+      <c r="H91" s="122"/>
+      <c r="I91" s="122"/>
+    </row>
+    <row r="92" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A92" s="11">
+        <v>1</v>
+      </c>
+      <c r="B92" s="133" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="123"/>
+      <c r="D92" s="123"/>
+      <c r="E92" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="F92" s="107">
+        <v>5</v>
+      </c>
+      <c r="G92" s="107">
+        <v>5</v>
+      </c>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+    </row>
+    <row r="93" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A93" s="11">
+        <v>2</v>
+      </c>
+      <c r="B93" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="123"/>
+      <c r="D93" s="123"/>
+      <c r="E93" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="F93" s="106">
+        <v>5</v>
+      </c>
+      <c r="G93" s="106">
+        <v>5</v>
+      </c>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+    </row>
+    <row r="94" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A94" s="11">
+        <v>3</v>
+      </c>
+      <c r="B94" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="123"/>
+      <c r="D94" s="123"/>
+      <c r="E94" s="30">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F94" s="106">
+        <v>6</v>
+      </c>
+      <c r="G94" s="106">
+        <v>6</v>
+      </c>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+    </row>
+    <row r="95" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A95" s="11">
+        <v>4</v>
+      </c>
+      <c r="B95" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="C82" s="136"/>
-      <c r="D82" s="136"/>
-      <c r="E82" s="30">
+      <c r="C95" s="123"/>
+      <c r="D95" s="123"/>
+      <c r="E95" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F82" s="124">
+      <c r="F95" s="106">
         <v>3</v>
       </c>
-      <c r="G82" s="124">
+      <c r="G95" s="106">
         <v>3</v>
       </c>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-    </row>
-    <row r="83" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A83" s="11">
-        <v>5</v>
-      </c>
-      <c r="B83" s="136" t="s">
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+    </row>
+    <row r="96" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A96" s="11">
+        <v>5</v>
+      </c>
+      <c r="B96" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="136"/>
-      <c r="D83" s="136"/>
-      <c r="E83" s="30">
+      <c r="C96" s="123"/>
+      <c r="D96" s="123"/>
+      <c r="E96" s="30">
         <v>0.01</v>
       </c>
-      <c r="F83" s="124">
+      <c r="F96" s="106">
         <v>4</v>
       </c>
-      <c r="G83" s="124">
+      <c r="G96" s="106">
         <v>4</v>
       </c>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-    </row>
-    <row r="84" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A84" s="11">
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A97" s="11">
         <v>6</v>
       </c>
-      <c r="B84" s="136" t="s">
+      <c r="B97" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="136"/>
-      <c r="D84" s="136"/>
-      <c r="E84" s="30">
+      <c r="C97" s="123"/>
+      <c r="D97" s="123"/>
+      <c r="E97" s="30">
         <v>0.01</v>
       </c>
-      <c r="F84" s="124">
+      <c r="F97" s="106">
         <v>4</v>
       </c>
-      <c r="G84" s="124">
+      <c r="G97" s="106">
         <v>6</v>
       </c>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-    </row>
-    <row r="86" spans="1:9" ht="18.75">
-      <c r="A86" s="144" t="s">
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+    </row>
+    <row r="99" spans="1:9" ht="18.75">
+      <c r="A99" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="B86" s="144"/>
-      <c r="C86" s="144"/>
-      <c r="D86" s="144"/>
-      <c r="E86" s="144"/>
-      <c r="F86" s="144"/>
-      <c r="G86" s="144"/>
-      <c r="H86" s="144"/>
-      <c r="I86" s="144"/>
-    </row>
-    <row r="87" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="135" t="s">
+      <c r="B99" s="131"/>
+      <c r="C99" s="131"/>
+      <c r="D99" s="131"/>
+      <c r="E99" s="131"/>
+      <c r="F99" s="131"/>
+      <c r="G99" s="131"/>
+      <c r="H99" s="131"/>
+      <c r="I99" s="131"/>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G87" s="135"/>
-      <c r="H87" s="135"/>
-      <c r="I87" s="135"/>
-    </row>
-    <row r="88" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A88" s="17">
+      <c r="G100" s="122"/>
+      <c r="H100" s="122"/>
+      <c r="I100" s="122"/>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A101" s="17">
         <v>1</v>
       </c>
-      <c r="B88" s="136" t="s">
+      <c r="B101" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="C88" s="136"/>
-      <c r="D88" s="136"/>
-      <c r="E88" s="12">
+      <c r="C101" s="123"/>
+      <c r="D101" s="123"/>
+      <c r="E101" s="12">
         <v>0.02</v>
       </c>
-      <c r="F88" s="130">
-        <v>5</v>
-      </c>
-      <c r="G88" s="128">
-        <v>5</v>
-      </c>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-    </row>
-    <row r="89" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A89" s="17">
+      <c r="F101" s="112">
+        <v>5</v>
+      </c>
+      <c r="G101" s="110">
+        <v>5</v>
+      </c>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A102" s="17">
         <v>2</v>
       </c>
-      <c r="B89" s="136" t="s">
+      <c r="B102" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="136"/>
-      <c r="D89" s="136"/>
-      <c r="E89" s="12">
+      <c r="C102" s="123"/>
+      <c r="D102" s="123"/>
+      <c r="E102" s="12">
         <v>0.02</v>
       </c>
-      <c r="F89" s="127">
-        <v>5</v>
-      </c>
-      <c r="G89" s="129">
+      <c r="F102" s="109">
+        <v>5</v>
+      </c>
+      <c r="G102" s="111">
         <v>6</v>
       </c>
-      <c r="H89" s="33"/>
-      <c r="I89" s="32"/>
-    </row>
-    <row r="90" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A90" s="17">
+      <c r="H102" s="33"/>
+      <c r="I102" s="32"/>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A103" s="17">
         <v>3</v>
       </c>
-      <c r="B90" s="136" t="s">
+      <c r="B103" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="136"/>
-      <c r="D90" s="136"/>
-      <c r="E90" s="12">
+      <c r="C103" s="123"/>
+      <c r="D103" s="123"/>
+      <c r="E103" s="12">
         <v>0.02</v>
       </c>
-      <c r="F90" s="127">
+      <c r="F103" s="109">
         <v>4</v>
       </c>
-      <c r="G90" s="129">
-        <v>5</v>
-      </c>
-      <c r="H90" s="33"/>
-      <c r="I90" s="32"/>
-    </row>
-    <row r="91" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A91" s="17">
+      <c r="G103" s="111">
+        <v>5</v>
+      </c>
+      <c r="H103" s="33"/>
+      <c r="I103" s="32"/>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A104" s="17">
         <v>4</v>
       </c>
-      <c r="B91" s="136" t="s">
+      <c r="B104" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="C91" s="136"/>
-      <c r="D91" s="136"/>
-      <c r="E91" s="12">
+      <c r="C104" s="123"/>
+      <c r="D104" s="123"/>
+      <c r="E104" s="12">
         <v>0.02</v>
       </c>
-      <c r="F91" s="127">
-        <v>5</v>
-      </c>
-      <c r="G91" s="129">
-        <v>5</v>
-      </c>
-      <c r="H91" s="33"/>
-      <c r="I91" s="32"/>
-    </row>
-    <row r="92" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A92" s="17">
-        <v>5</v>
-      </c>
-      <c r="B92" s="136" t="s">
+      <c r="F104" s="109">
+        <v>5</v>
+      </c>
+      <c r="G104" s="111">
+        <v>5</v>
+      </c>
+      <c r="H104" s="33"/>
+      <c r="I104" s="32"/>
+    </row>
+    <row r="105" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A105" s="17">
+        <v>5</v>
+      </c>
+      <c r="B105" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="C92" s="136"/>
-      <c r="D92" s="136"/>
-      <c r="E92" s="12">
+      <c r="C105" s="123"/>
+      <c r="D105" s="123"/>
+      <c r="E105" s="12">
         <v>0.02</v>
       </c>
-      <c r="F92" s="127">
-        <v>5</v>
-      </c>
-      <c r="G92" s="127">
-        <v>5</v>
-      </c>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-    </row>
-    <row r="93" spans="1:9" ht="15.75">
-      <c r="A93" s="126" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="18.75">
-      <c r="A94" s="144" t="s">
+      <c r="F105" s="109">
+        <v>5</v>
+      </c>
+      <c r="G105" s="109">
+        <v>5</v>
+      </c>
+      <c r="H105" s="31"/>
+      <c r="I105" s="31"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.75">
+      <c r="A106" s="108" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="18.75">
+      <c r="A107" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="B94" s="144"/>
-      <c r="C94" s="144"/>
-      <c r="D94" s="144"/>
-      <c r="E94" s="144"/>
-      <c r="F94" s="144"/>
-      <c r="G94" s="144"/>
-      <c r="H94" s="144"/>
-      <c r="I94" s="144"/>
-    </row>
-    <row r="95" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A95" s="99"/>
-      <c r="B95" s="145"/>
-      <c r="C95" s="145"/>
-      <c r="D95" s="145"/>
-      <c r="E95" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="F95" s="10" t="s">
+      <c r="B107" s="131"/>
+      <c r="C107" s="131"/>
+      <c r="D107" s="131"/>
+      <c r="E107" s="131"/>
+      <c r="F107" s="131"/>
+      <c r="G107" s="131"/>
+      <c r="H107" s="131"/>
+      <c r="I107" s="131"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A108" s="81"/>
+      <c r="B108" s="132"/>
+      <c r="C108" s="132"/>
+      <c r="D108" s="132"/>
+      <c r="E108" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-    </row>
-    <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="11">
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+    </row>
+    <row r="109" spans="1:9" ht="15.75">
+      <c r="A109" s="11">
         <v>1</v>
       </c>
-      <c r="B96" s="136" t="s">
+      <c r="B109" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="136"/>
-      <c r="D96" s="136"/>
-      <c r="E96" s="12">
+      <c r="C109" s="123"/>
+      <c r="D109" s="123"/>
+      <c r="E109" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F96" s="13">
+      <c r="F109" s="13">
         <v>4</v>
       </c>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-    </row>
-    <row r="97" spans="1:10" ht="15.75">
-      <c r="A97" s="11">
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+    </row>
+    <row r="110" spans="1:9" ht="15.75">
+      <c r="A110" s="11">
         <v>2</v>
       </c>
-      <c r="B97" s="146" t="s">
+      <c r="B110" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="136"/>
-      <c r="D97" s="136"/>
-      <c r="E97" s="12">
+      <c r="C110" s="123"/>
+      <c r="D110" s="123"/>
+      <c r="E110" s="12">
         <v>0.03</v>
       </c>
-      <c r="F97" s="15">
+      <c r="F110" s="15">
         <v>4.5</v>
       </c>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75">
-      <c r="A98" s="11">
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+    </row>
+    <row r="111" spans="1:9" ht="15.75">
+      <c r="A111" s="11">
         <v>3</v>
       </c>
-      <c r="B98" s="146" t="s">
+      <c r="B111" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="C98" s="136"/>
-      <c r="D98" s="136"/>
-      <c r="E98" s="12">
+      <c r="C111" s="123"/>
+      <c r="D111" s="123"/>
+      <c r="E111" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F98" s="15">
+      <c r="F111" s="15">
         <v>4</v>
       </c>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-    </row>
-    <row r="99" spans="1:10" ht="15.75">
-      <c r="A99" s="11">
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+    </row>
+    <row r="112" spans="1:9" ht="15.75">
+      <c r="A112" s="11">
         <v>4</v>
       </c>
-      <c r="B99" s="133" t="s">
+      <c r="B112" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="133"/>
-      <c r="D99" s="133"/>
-      <c r="E99" s="12">
+      <c r="C112" s="120"/>
+      <c r="D112" s="120"/>
+      <c r="E112" s="12">
         <v>0.03</v>
       </c>
-      <c r="F99" s="15">
+      <c r="F112" s="15">
         <v>4</v>
       </c>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.75">
-      <c r="A100" s="11">
-        <v>5</v>
-      </c>
-      <c r="B100" s="133" t="s">
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+    </row>
+    <row r="113" spans="1:10" ht="15.75">
+      <c r="A113" s="11">
+        <v>5</v>
+      </c>
+      <c r="B113" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="C100" s="133"/>
-      <c r="D100" s="133"/>
-      <c r="E100" s="12">
+      <c r="C113" s="120"/>
+      <c r="D113" s="120"/>
+      <c r="E113" s="12">
         <v>0.03</v>
       </c>
-      <c r="F100" s="15">
+      <c r="F113" s="15">
         <v>4</v>
       </c>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-    </row>
-    <row r="101" spans="1:10" ht="13.5" thickBot="1"/>
-    <row r="102" spans="1:10" ht="32.25" thickBot="1">
-      <c r="A102" s="16"/>
-      <c r="B102" s="99"/>
-      <c r="C102" s="21" t="str">
-        <f>IF(ISBLANK(F102),"", IF(OR(SUM(F102:I102)&lt;99.9,SUM(F102:I102)&gt;100.1),"Sum != 100",""))</f>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+    </row>
+    <row r="114" spans="1:10" ht="13.5" thickBot="1"/>
+    <row r="115" spans="1:10" ht="32.25" thickBot="1">
+      <c r="A115" s="16"/>
+      <c r="B115" s="81"/>
+      <c r="C115" s="21" t="str">
+        <f>IF(ISBLANK(F115),"", IF(OR(SUM(F115:I115)&lt;99.9,SUM(F115:I115)&gt;100.1),"Sum != 100",""))</f>
         <v/>
       </c>
-      <c r="D102" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E102" s="23" t="s">
+      <c r="D115" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E115" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F102" s="24">
+      <c r="F115" s="24">
         <v>50</v>
       </c>
-      <c r="G102" s="24">
+      <c r="G115" s="24">
         <v>50</v>
       </c>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" t="str">
-        <f>IF(SUM(F102:I102)&lt;&gt;100,"Sum must be 100","")</f>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" t="str">
+        <f>IF(SUM(F115:I115)&lt;&gt;100,"Sum must be 100","")</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A103" s="16"/>
-      <c r="B103" s="99"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="135" t="s">
+    <row r="116" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A116" s="16"/>
+      <c r="B116" s="81"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G103" s="135"/>
-      <c r="H103" s="135"/>
-      <c r="I103" s="135"/>
-    </row>
-    <row r="104" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A104" s="11">
+      <c r="G116" s="122"/>
+      <c r="H116" s="122"/>
+      <c r="I116" s="122"/>
+    </row>
+    <row r="117" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A117" s="11">
         <v>6</v>
       </c>
-      <c r="B104" s="147" t="s">
+      <c r="B117" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="C104" s="148"/>
-      <c r="D104" s="148"/>
-      <c r="E104" s="27">
+      <c r="C117" s="135"/>
+      <c r="D117" s="135"/>
+      <c r="E117" s="27">
         <v>0.3</v>
       </c>
-      <c r="F104" s="24">
+      <c r="F117" s="24">
         <v>4.5</v>
       </c>
-      <c r="G104" s="24">
-        <v>5</v>
-      </c>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-    </row>
-    <row r="106" spans="1:10" ht="18.75">
-      <c r="A106" s="144" t="s">
+      <c r="G117" s="24">
+        <v>5</v>
+      </c>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+    </row>
+    <row r="119" spans="1:10" ht="18.75">
+      <c r="A119" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="B106" s="144"/>
-      <c r="C106" s="144"/>
-      <c r="D106" s="144"/>
-      <c r="E106" s="144"/>
-      <c r="F106" s="144"/>
-      <c r="G106" s="144"/>
-      <c r="H106" s="144"/>
-      <c r="I106" s="144"/>
-    </row>
-    <row r="107" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="135" t="s">
+      <c r="B119" s="131"/>
+      <c r="C119" s="131"/>
+      <c r="D119" s="131"/>
+      <c r="E119" s="131"/>
+      <c r="F119" s="131"/>
+      <c r="G119" s="131"/>
+      <c r="H119" s="131"/>
+      <c r="I119" s="131"/>
+    </row>
+    <row r="120" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G107" s="135"/>
-      <c r="H107" s="135"/>
-      <c r="I107" s="135"/>
-    </row>
-    <row r="108" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A108" s="11">
+      <c r="G120" s="122"/>
+      <c r="H120" s="122"/>
+      <c r="I120" s="122"/>
+    </row>
+    <row r="121" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A121" s="11">
         <v>1</v>
       </c>
-      <c r="B108" s="146" t="s">
+      <c r="B121" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="C108" s="136"/>
-      <c r="D108" s="136"/>
-      <c r="E108" s="30">
+      <c r="C121" s="123"/>
+      <c r="D121" s="123"/>
+      <c r="E121" s="30">
         <v>0.01</v>
       </c>
-      <c r="F108" s="24">
+      <c r="F121" s="24">
         <v>4</v>
       </c>
-      <c r="G108" s="24">
-        <v>5</v>
-      </c>
-      <c r="H108" s="24"/>
-      <c r="I108" s="24"/>
-    </row>
-    <row r="109" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A109" s="11">
+      <c r="G121" s="24">
+        <v>5</v>
+      </c>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
+    </row>
+    <row r="122" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A122" s="11">
         <v>2</v>
       </c>
-      <c r="B109" s="136" t="s">
+      <c r="B122" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="136"/>
-      <c r="D109" s="136"/>
-      <c r="E109" s="30">
+      <c r="C122" s="123"/>
+      <c r="D122" s="123"/>
+      <c r="E122" s="30">
         <v>0.01</v>
       </c>
-      <c r="F109" s="31">
+      <c r="F122" s="31">
         <v>4.5</v>
       </c>
-      <c r="G109" s="31">
-        <v>5</v>
-      </c>
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
-    </row>
-    <row r="110" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A110" s="11">
+      <c r="G122" s="31">
+        <v>5</v>
+      </c>
+      <c r="H122" s="31"/>
+      <c r="I122" s="31"/>
+    </row>
+    <row r="123" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A123" s="11">
         <v>3</v>
       </c>
-      <c r="B110" s="136" t="s">
+      <c r="B123" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="136"/>
-      <c r="D110" s="136"/>
-      <c r="E110" s="30">
+      <c r="C123" s="123"/>
+      <c r="D123" s="123"/>
+      <c r="E123" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F110" s="31">
+      <c r="F123" s="31">
         <v>4</v>
       </c>
-      <c r="G110" s="31">
+      <c r="G123" s="31">
         <v>4</v>
       </c>
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-    </row>
-    <row r="111" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A111" s="11">
+      <c r="H123" s="31"/>
+      <c r="I123" s="31"/>
+    </row>
+    <row r="124" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A124" s="11">
         <v>4</v>
       </c>
-      <c r="B111" s="136" t="s">
+      <c r="B124" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="136"/>
-      <c r="D111" s="136"/>
-      <c r="E111" s="30">
+      <c r="C124" s="123"/>
+      <c r="D124" s="123"/>
+      <c r="E124" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F111" s="31">
+      <c r="F124" s="31">
         <v>4</v>
       </c>
-      <c r="G111" s="31">
+      <c r="G124" s="31">
         <v>4</v>
       </c>
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
-    </row>
-    <row r="112" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A112" s="11">
-        <v>5</v>
-      </c>
-      <c r="B112" s="136" t="s">
+      <c r="H124" s="31"/>
+      <c r="I124" s="31"/>
+    </row>
+    <row r="125" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A125" s="11">
+        <v>5</v>
+      </c>
+      <c r="B125" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="C112" s="136"/>
-      <c r="D112" s="136"/>
-      <c r="E112" s="30">
+      <c r="C125" s="123"/>
+      <c r="D125" s="123"/>
+      <c r="E125" s="30">
         <v>0.01</v>
       </c>
-      <c r="F112" s="31">
+      <c r="F125" s="31">
         <v>4.5</v>
       </c>
-      <c r="G112" s="31">
-        <v>5</v>
-      </c>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31"/>
-    </row>
-    <row r="113" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A113" s="11">
+      <c r="G125" s="31">
+        <v>5</v>
+      </c>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31"/>
+    </row>
+    <row r="126" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A126" s="11">
         <v>6</v>
       </c>
-      <c r="B113" s="136" t="s">
+      <c r="B126" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="136"/>
-      <c r="D113" s="136"/>
-      <c r="E113" s="30">
+      <c r="C126" s="123"/>
+      <c r="D126" s="123"/>
+      <c r="E126" s="30">
         <v>0.01</v>
       </c>
-      <c r="F113" s="31">
-        <v>5</v>
-      </c>
-      <c r="G113" s="31">
+      <c r="F126" s="31">
+        <v>5</v>
+      </c>
+      <c r="G126" s="31">
         <v>6</v>
       </c>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="31"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange password="DB87" sqref="B5:B9" name="Range1"/>
     <protectedRange password="DB87" sqref="B2" name="Range1_1"/>
-    <protectedRange password="DB87" sqref="A29:I29 A31:I32 A30:E30 F50:G50" name="Range1_3"/>
-    <protectedRange password="DB87" sqref="A33:A36 B36:D36 A37:I38 B33:D34 E33:I36 F51:G56" name="Range1_7"/>
-    <protectedRange password="DB87" sqref="A40:I40 A42:I45 A41:E41" name="Range1_8"/>
-    <protectedRange password="DB87" sqref="A47:A54 B54:D54 A55:E56 E47:I47 B47:D52 E49:I49 E48 E50:E54 H50:I56" name="Range1_10"/>
-    <protectedRange password="DB87" sqref="A57:I57 A59:I62 A58:E58" name="Range1_11"/>
+    <protectedRange password="DB87" sqref="A42:I42 A44:I45 A43:E43 F63:G63" name="Range1_3"/>
+    <protectedRange password="DB87" sqref="A46:A49 B49:D49 A50:I51 B46:D47 E46:I49 F64:G69" name="Range1_7"/>
+    <protectedRange password="DB87" sqref="A53:I53 A55:I58 A54:E54" name="Range1_8"/>
+    <protectedRange password="DB87" sqref="A60:A67 B67:D67 A68:E69 E60:I60 B60:D65 E62:I62 E61 E63:E67 H63:I69" name="Range1_10"/>
+    <protectedRange password="DB87" sqref="A70:I70 A72:I75 A71:E71" name="Range1_11"/>
   </protectedRanges>
-  <mergeCells count="86">
+  <mergeCells count="97">
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="A107:I107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
     <mergeCell ref="B110:D110"/>
     <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="A106:I106"/>
-    <mergeCell ref="F107:I107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="A99:I99"/>
+    <mergeCell ref="B83:D83"/>
     <mergeCell ref="F87:I87"/>
     <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="F91:I91"/>
     <mergeCell ref="B92:D92"/>
-    <mergeCell ref="A94:I94"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
     <mergeCell ref="B95:D95"/>
     <mergeCell ref="B96:D96"/>
     <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="A86:I86"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="A77:I77"/>
-    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="B78:D78"/>
     <mergeCell ref="B79:D79"/>
     <mergeCell ref="B80:D80"/>
     <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="F48:I48"/>
     <mergeCell ref="B69:D69"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="F54:I54"/>
     <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:D17"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
@@ -3885,10 +4174,10 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="F43:I43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3901,7 +4190,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:I8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3914,45 +4203,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="3"/>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="3"/>
-      <c r="B3" s="152" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
+      <c r="B3" s="139" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
@@ -3961,10 +4250,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
@@ -3980,13 +4269,13 @@
       <c r="E5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="154" t="str">
+      <c r="F5" s="141" t="str">
         <f>'Project Summary'!B10</f>
         <v>Cyrus Wong</v>
       </c>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
@@ -3994,7 +4283,7 @@
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="98">
+      <c r="C6" s="80">
         <f>'Project Summary'!B2</f>
         <v>0</v>
       </c>
@@ -4002,10 +4291,10 @@
       <c r="E6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
@@ -4013,7 +4302,7 @@
       <c r="B7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="98">
+      <c r="C7" s="80">
         <f>'Project Summary'!B3</f>
         <v>0</v>
       </c>
@@ -4021,13 +4310,13 @@
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="156">
+      <c r="F7" s="143">
         <f>'Project Summary'!D10</f>
         <v>41992</v>
       </c>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
@@ -4035,16 +4324,16 @@
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="98" t="str">
+      <c r="C8" s="80" t="str">
         <f>'Project Summary'!B5</f>
         <v>XXXX</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
@@ -4052,16 +4341,16 @@
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="98" t="str">
+      <c r="C9" s="80" t="str">
         <f>'Project Summary'!B6</f>
         <v>YYYY</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
@@ -4069,16 +4358,16 @@
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="80">
         <f>'Project Summary'!B7</f>
         <v>0</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
@@ -4086,16 +4375,16 @@
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="80">
         <f>'Project Summary'!B8</f>
         <v>0</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
@@ -4104,33 +4393,33 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A13" s="133"/>
-      <c r="B13" s="134" t="s">
+      <c r="A13" s="120"/>
+      <c r="B13" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="149" t="s">
+      <c r="F13" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="133"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
+      <c r="A14" s="120"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="37" t="s">
         <v>0</v>
       </c>
@@ -4166,11 +4455,11 @@
       <c r="A16" s="17">
         <v>1</v>
       </c>
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
       <c r="E16" s="40">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -4196,11 +4485,11 @@
       <c r="A17" s="17">
         <v>2</v>
       </c>
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
       <c r="E17" s="40">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -4226,11 +4515,11 @@
       <c r="A18" s="17">
         <v>3</v>
       </c>
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
       <c r="E18" s="40">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -4256,11 +4545,11 @@
       <c r="A19" s="17">
         <v>4</v>
       </c>
-      <c r="B19" s="136" t="s">
+      <c r="B19" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
       <c r="E19" s="40">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -4286,11 +4575,11 @@
       <c r="A20" s="17">
         <v>5</v>
       </c>
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
       <c r="E20" s="40">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -4330,11 +4619,11 @@
       <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B22" s="136" t="s">
+      <c r="B22" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
       <c r="E22" s="40">
         <v>0.01</v>
       </c>
@@ -4360,11 +4649,11 @@
       <c r="A23" s="17">
         <v>7</v>
       </c>
-      <c r="B23" s="136" t="s">
+      <c r="B23" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
       <c r="E23" s="40">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -4390,11 +4679,11 @@
       <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="136" t="s">
+      <c r="B24" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
       <c r="E24" s="40">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -4430,9 +4719,9 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" thickBot="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
       <c r="E26" s="17" t="s">
         <v>63</v>
       </c>
@@ -4501,13 +4790,628 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="9" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" customHeight="1">
+      <c r="A1" s="137" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="116"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="116"/>
+      <c r="B2" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="116"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="116"/>
+      <c r="B3" s="139" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="116"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" s="116"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="116"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A5" s="116"/>
+      <c r="B5" s="116" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="119" t="str">
+        <f>'Project Summary'!B1</f>
+        <v>IT114115/2</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="141" t="str">
+        <f>'Project Summary'!B10</f>
+        <v>Cyrus Wong</v>
+      </c>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="116"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A6" s="116"/>
+      <c r="B6" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="119">
+        <f>'Project Summary'!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A7" s="116"/>
+      <c r="B7" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="119">
+        <f>'Project Summary'!B3</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="143">
+        <f>'Project Summary'!D10</f>
+        <v>41992</v>
+      </c>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="116"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A8" s="116"/>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="119" t="str">
+        <f>'Project Summary'!B5</f>
+        <v>XXXX</v>
+      </c>
+      <c r="D8" s="116"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="116"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A9" s="116"/>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="119" t="str">
+        <f>'Project Summary'!B6</f>
+        <v>YYYY</v>
+      </c>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="116"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A10" s="116"/>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="119">
+        <f>'Project Summary'!B7</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="116"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A11" s="116"/>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="119">
+        <f>'Project Summary'!B8</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="116"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75">
+      <c r="A12" s="116"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="116"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A13" s="120"/>
+      <c r="B13" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="136" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="116"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
+      <c r="A14" s="120"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="116"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A15" s="116"/>
+      <c r="B15" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="116"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A16" s="17">
+        <v>1</v>
+      </c>
+      <c r="B16" s="123" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F16" s="41">
+        <f>'Project Summary'!F32</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="41">
+        <f>'Project Summary'!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="41">
+        <f>'Project Summary'!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="41">
+        <f>'Project Summary'!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="116"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A17" s="17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F17" s="41">
+        <f>'Project Summary'!F33</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="41">
+        <f>'Project Summary'!G33</f>
+        <v>5.5</v>
+      </c>
+      <c r="H17" s="41">
+        <f>'Project Summary'!H33</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="41">
+        <f>'Project Summary'!I33</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="116"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A18" s="17">
+        <v>3</v>
+      </c>
+      <c r="B18" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F18" s="41">
+        <f>'Project Summary'!F34</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="41">
+        <f>'Project Summary'!G34</f>
+        <v>5</v>
+      </c>
+      <c r="H18" s="41">
+        <f>'Project Summary'!H34</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="41">
+        <f>'Project Summary'!I34</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="116"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A19" s="17">
+        <v>4</v>
+      </c>
+      <c r="B19" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F19" s="41">
+        <f>'Project Summary'!F35</f>
+        <v>4.5</v>
+      </c>
+      <c r="G19" s="41">
+        <f>'Project Summary'!G35</f>
+        <v>4.5</v>
+      </c>
+      <c r="H19" s="41">
+        <f>'Project Summary'!H35</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="41">
+        <f>'Project Summary'!I35</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="116"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A20" s="17">
+        <v>5</v>
+      </c>
+      <c r="B20" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="40">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F20" s="41">
+        <f>'Project Summary'!F36</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="41">
+        <f>'Project Summary'!G36</f>
+        <v>4</v>
+      </c>
+      <c r="H20" s="41">
+        <f>'Project Summary'!H36</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="41">
+        <f>'Project Summary'!I36</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="116"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41">
+        <f>'Project Summary'!F37</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="41">
+        <f>'Project Summary'!G37</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="41">
+        <f>'Project Summary'!H37</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="41">
+        <f>'Project Summary'!I37</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="116"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A22" s="116">
+        <v>6</v>
+      </c>
+      <c r="B22" s="123" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="F22" s="41">
+        <f>'Project Summary'!F38</f>
+        <v>6</v>
+      </c>
+      <c r="G22" s="41">
+        <f>'Project Summary'!G38</f>
+        <v>6</v>
+      </c>
+      <c r="H22" s="41">
+        <f>'Project Summary'!H38</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="41">
+        <f>'Project Summary'!I38</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="116"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A23" s="17">
+        <v>7</v>
+      </c>
+      <c r="B23" s="123" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="40">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F23" s="41">
+        <f>'Project Summary'!F39</f>
+        <v>5</v>
+      </c>
+      <c r="G23" s="41">
+        <f>'Project Summary'!G39</f>
+        <v>5</v>
+      </c>
+      <c r="H23" s="41">
+        <f>'Project Summary'!H39</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="41">
+        <f>'Project Summary'!I39</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="116"/>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A24" s="116">
+        <v>8</v>
+      </c>
+      <c r="B24" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="40">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F24" s="41">
+        <f>'Project Summary'!F40</f>
+        <v>5</v>
+      </c>
+      <c r="G24" s="41">
+        <f>'Project Summary'!G40</f>
+        <v>5</v>
+      </c>
+      <c r="H24" s="41">
+        <f>'Project Summary'!H40</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="41">
+        <f>'Project Summary'!I40</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="116"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A25" s="116"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="116"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A26" s="116"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="46">
+        <f>IF(SUM(F16:F24)=0,"", ROUND( (SUMPRODUCT(($E16:$E20)*(F16:F20))+SUMPRODUCT(($E22:$E24)*(F22:F24)))*10,1))</f>
+        <v>3.4</v>
+      </c>
+      <c r="G26" s="46">
+        <f>IF(SUM(G16:G24)=0,"", ROUND( (SUMPRODUCT(($E16:$E20)*(G16:G20))+SUMPRODUCT(($E22:$E24)*(G22:G24)))*10,1))</f>
+        <v>4.2</v>
+      </c>
+      <c r="H26" s="46" t="str">
+        <f>IF(SUM(H16:H24)=0,"", ROUND( (SUMPRODUCT(($E16:$E20)*(H16:H20))+SUMPRODUCT(($E22:$E24)*(H22:H24)))*10,1))</f>
+        <v/>
+      </c>
+      <c r="I26" s="46" t="str">
+        <f>IF(SUM(I16:I24)=0,"", ROUND( (SUMPRODUCT(($E16:$E20)*(I16:I20))+SUMPRODUCT(($E22:$E24)*(I22:I24)))*10,1))</f>
+        <v/>
+      </c>
+      <c r="J26" s="116"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75">
+      <c r="A27" s="116"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.35" top="0.72" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="110" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:I29"/>
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4522,30 +5426,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
     </row>
     <row r="2" spans="1:9" s="48" customFormat="1" ht="20.25">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
     </row>
     <row r="3" spans="1:9" s="48" customFormat="1" ht="15.75">
       <c r="A3" s="49"/>
@@ -4553,10 +5457,10 @@
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
     </row>
     <row r="4" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A4" s="49"/>
@@ -4572,19 +5476,19 @@
         <v>4</v>
       </c>
       <c r="F4" s="49"/>
-      <c r="G4" s="165">
+      <c r="G4" s="152">
         <f>'Project Summary'!B3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
     </row>
     <row r="5" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A5" s="49"/>
       <c r="B5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="83">
         <f>'Project Summary'!B2</f>
         <v>0</v>
       </c>
@@ -4593,12 +5497,12 @@
         <v>66</v>
       </c>
       <c r="F5" s="49"/>
-      <c r="G5" s="161" t="str">
+      <c r="G5" s="148" t="str">
         <f>'Project Summary'!B10&amp;"/"&amp;'Project Summary'!B11</f>
         <v>Cyrus Wong/Carmen Wong</v>
       </c>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
     </row>
     <row r="6" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A6" s="49"/>
@@ -4614,9 +5518,9 @@
         <v>6</v>
       </c>
       <c r="F6" s="49"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
     </row>
     <row r="7" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A7" s="49"/>
@@ -4632,12 +5536,12 @@
         <v>9</v>
       </c>
       <c r="F7" s="49"/>
-      <c r="G7" s="160">
+      <c r="G7" s="147">
         <f>'Project Summary'!D11</f>
         <v>42017</v>
       </c>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
     </row>
     <row r="8" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="49"/>
@@ -4649,13 +5553,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="49"/>
-      <c r="E8" s="162" t="s">
+      <c r="E8" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
     </row>
     <row r="9" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A9" s="49"/>
@@ -4668,10 +5572,10 @@
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
     </row>
     <row r="10" spans="1:9" s="48" customFormat="1" ht="15.75">
       <c r="A10" s="49"/>
@@ -4685,39 +5589,39 @@
       <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" s="48" customFormat="1" ht="18.75">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
     </row>
     <row r="12" spans="1:9" s="48" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="139"/>
-      <c r="B12" s="140" t="s">
+      <c r="A12" s="126"/>
+      <c r="B12" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="159" t="s">
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
     </row>
     <row r="13" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A13" s="139"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="100" t="s">
+      <c r="A13" s="126"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="82" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="56" t="s">
@@ -4737,28 +5641,28 @@
       <c r="A14" s="57">
         <v>1</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="58">
         <v>0.03</v>
       </c>
       <c r="F14" s="59">
-        <f>'Project Summary'!F32</f>
+        <f>'Project Summary'!F45</f>
         <v>4.5</v>
       </c>
       <c r="G14" s="59">
-        <f>'Project Summary'!G32</f>
+        <f>'Project Summary'!G45</f>
         <v>4.5</v>
       </c>
       <c r="H14" s="59">
-        <f>'Project Summary'!H32</f>
+        <f>'Project Summary'!H45</f>
         <v>0</v>
       </c>
       <c r="I14" s="59">
-        <f>'Project Summary'!I32</f>
+        <f>'Project Summary'!I45</f>
         <v>0</v>
       </c>
     </row>
@@ -4766,28 +5670,28 @@
       <c r="A15" s="57">
         <v>2</v>
       </c>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
       <c r="E15" s="58">
         <v>0.06</v>
       </c>
       <c r="F15" s="59">
-        <f>'Project Summary'!F33</f>
+        <f>'Project Summary'!F46</f>
         <v>4</v>
       </c>
       <c r="G15" s="59">
-        <f>'Project Summary'!G33</f>
+        <f>'Project Summary'!G46</f>
         <v>4</v>
       </c>
       <c r="H15" s="59">
-        <f>'Project Summary'!H33</f>
+        <f>'Project Summary'!H46</f>
         <v>0</v>
       </c>
       <c r="I15" s="59">
-        <f>'Project Summary'!I33</f>
+        <f>'Project Summary'!I46</f>
         <v>0</v>
       </c>
     </row>
@@ -4795,28 +5699,28 @@
       <c r="A16" s="57">
         <v>3</v>
       </c>
-      <c r="B16" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
+      <c r="B16" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
       <c r="E16" s="58">
         <v>0.02</v>
       </c>
       <c r="F16" s="59">
-        <f>'Project Summary'!F34</f>
+        <f>'Project Summary'!F47</f>
         <v>4</v>
       </c>
       <c r="G16" s="59">
-        <f>'Project Summary'!G34</f>
+        <f>'Project Summary'!G47</f>
         <v>4</v>
       </c>
       <c r="H16" s="59">
-        <f>'Project Summary'!H34</f>
+        <f>'Project Summary'!H47</f>
         <v>0</v>
       </c>
       <c r="I16" s="59">
-        <f>'Project Summary'!I34</f>
+        <f>'Project Summary'!I47</f>
         <v>0</v>
       </c>
     </row>
@@ -4824,28 +5728,28 @@
       <c r="A17" s="57">
         <v>4</v>
       </c>
-      <c r="B17" s="141" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
+      <c r="B17" s="128" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
       <c r="E17" s="61">
         <v>0.02</v>
       </c>
       <c r="F17" s="59">
-        <f>'Project Summary'!F35</f>
+        <f>'Project Summary'!F48</f>
         <v>5</v>
       </c>
       <c r="G17" s="59">
-        <f>'Project Summary'!G35</f>
+        <f>'Project Summary'!G48</f>
         <v>5</v>
       </c>
       <c r="H17" s="59">
-        <f>'Project Summary'!H35</f>
+        <f>'Project Summary'!H48</f>
         <v>0</v>
       </c>
       <c r="I17" s="59">
-        <f>'Project Summary'!I35</f>
+        <f>'Project Summary'!I48</f>
         <v>0</v>
       </c>
     </row>
@@ -4853,28 +5757,28 @@
       <c r="A18" s="57">
         <v>5</v>
       </c>
-      <c r="B18" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
+      <c r="B18" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
       <c r="E18" s="61">
         <v>0.02</v>
       </c>
       <c r="F18" s="59">
-        <f>'Project Summary'!F36</f>
+        <f>'Project Summary'!F49</f>
         <v>4.5</v>
       </c>
       <c r="G18" s="59">
-        <f>'Project Summary'!G36</f>
+        <f>'Project Summary'!G49</f>
         <v>4.5</v>
       </c>
       <c r="H18" s="59">
-        <f>'Project Summary'!H36</f>
+        <f>'Project Summary'!H49</f>
         <v>0</v>
       </c>
       <c r="I18" s="59">
-        <f>'Project Summary'!I36</f>
+        <f>'Project Summary'!I49</f>
         <v>0</v>
       </c>
     </row>
@@ -4882,28 +5786,28 @@
       <c r="A19" s="57">
         <v>6</v>
       </c>
-      <c r="B19" s="142" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
+      <c r="B19" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
       <c r="E19" s="61">
         <v>0.1</v>
       </c>
       <c r="F19" s="59">
-        <f>'Project Summary'!F37</f>
+        <f>'Project Summary'!F50</f>
         <v>4</v>
       </c>
       <c r="G19" s="59">
-        <f>'Project Summary'!G37</f>
+        <f>'Project Summary'!G50</f>
         <v>5</v>
       </c>
       <c r="H19" s="59">
-        <f>'Project Summary'!H37</f>
+        <f>'Project Summary'!H50</f>
         <v>0</v>
       </c>
       <c r="I19" s="59">
-        <f>'Project Summary'!I37</f>
+        <f>'Project Summary'!I50</f>
         <v>0</v>
       </c>
     </row>
@@ -4911,49 +5815,49 @@
       <c r="A20" s="57">
         <v>7</v>
       </c>
-      <c r="B20" s="143" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
+      <c r="B20" s="130" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
       <c r="E20" s="61">
         <v>0.02</v>
       </c>
       <c r="F20" s="59">
-        <f>'Project Summary'!F38</f>
+        <f>'Project Summary'!F51</f>
         <v>4.5</v>
       </c>
       <c r="G20" s="59">
-        <f>'Project Summary'!G38</f>
+        <f>'Project Summary'!G51</f>
         <v>5</v>
       </c>
       <c r="H20" s="59">
-        <f>'Project Summary'!H38</f>
+        <f>'Project Summary'!H51</f>
         <v>0</v>
       </c>
       <c r="I20" s="59">
-        <f>'Project Summary'!I38</f>
+        <f>'Project Summary'!I51</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A21" s="49"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
       <c r="E21" s="49"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
     </row>
     <row r="22" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A22" s="49"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="63">
         <f>IF(ISBLANK(F14),"",(SUMPRODUCT(($E14:$E20)*(F14:F20)))*10)</f>
@@ -4984,52 +5888,52 @@
       <c r="I23" s="64"/>
     </row>
     <row r="24" spans="1:9" s="48" customFormat="1" ht="18.75">
-      <c r="A24" s="138" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
+      <c r="A24" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
     </row>
     <row r="25" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
-      <c r="F25" s="159" t="s">
+      <c r="F25" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="159"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
     </row>
     <row r="26" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A26" s="57">
         <v>1</v>
       </c>
-      <c r="B26" s="137" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
+      <c r="B26" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="65">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F26" s="59">
-        <f>'Project Summary'!F42</f>
+        <f>'Project Summary'!F55</f>
         <v>5</v>
       </c>
       <c r="G26" s="59">
-        <f>'Project Summary'!G42</f>
+        <f>'Project Summary'!G55</f>
         <v>6</v>
       </c>
       <c r="H26" s="59">
-        <f>'Project Summary'!H42</f>
+        <f>'Project Summary'!H55</f>
         <v>0</v>
       </c>
       <c r="I26" s="59">
-        <f>'Project Summary'!I42</f>
+        <f>'Project Summary'!I55</f>
         <v>0</v>
       </c>
     </row>
@@ -5037,28 +5941,28 @@
       <c r="A27" s="57">
         <v>2</v>
       </c>
-      <c r="B27" s="137" t="s">
+      <c r="B27" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
       <c r="E27" s="65">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F27" s="59">
-        <f>'Project Summary'!F43</f>
+        <f>'Project Summary'!F56</f>
         <v>4</v>
       </c>
       <c r="G27" s="59">
-        <f>'Project Summary'!G43</f>
+        <f>'Project Summary'!G56</f>
         <v>5</v>
       </c>
       <c r="H27" s="59">
-        <f>'Project Summary'!H43</f>
+        <f>'Project Summary'!H56</f>
         <v>0</v>
       </c>
       <c r="I27" s="59">
-        <f>'Project Summary'!I43</f>
+        <f>'Project Summary'!I56</f>
         <v>0</v>
       </c>
     </row>
@@ -5066,28 +5970,28 @@
       <c r="A28" s="57">
         <v>3</v>
       </c>
-      <c r="B28" s="137" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
+      <c r="B28" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
       <c r="E28" s="65">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F28" s="59">
-        <f>'Project Summary'!F44</f>
+        <f>'Project Summary'!F57</f>
         <v>4.5</v>
       </c>
       <c r="G28" s="59">
-        <f>'Project Summary'!G44</f>
+        <f>'Project Summary'!G57</f>
         <v>5</v>
       </c>
       <c r="H28" s="59">
-        <f>'Project Summary'!H44</f>
+        <f>'Project Summary'!H57</f>
         <v>0</v>
       </c>
       <c r="I28" s="59">
-        <f>'Project Summary'!I44</f>
+        <f>'Project Summary'!I57</f>
         <v>0</v>
       </c>
     </row>
@@ -5095,49 +5999,49 @@
       <c r="A29" s="57">
         <v>3</v>
       </c>
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
       <c r="E29" s="65">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F29" s="59">
-        <f>'Project Summary'!F45</f>
+        <f>'Project Summary'!F58</f>
         <v>5</v>
       </c>
       <c r="G29" s="59">
-        <f>'Project Summary'!G45</f>
+        <f>'Project Summary'!G58</f>
         <v>6</v>
       </c>
       <c r="H29" s="59">
-        <f>'Project Summary'!H45</f>
+        <f>'Project Summary'!H58</f>
         <v>0</v>
       </c>
       <c r="I29" s="59">
-        <f>'Project Summary'!I45</f>
+        <f>'Project Summary'!I58</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A30" s="49"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
       <c r="E30" s="49"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
     </row>
     <row r="31" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A31" s="49"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
       <c r="E31" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="63">
         <f>IF(ISBLANK(F26),"",(SUMPRODUCT(($E26:$E29)*(F26:F29)))*10)</f>
@@ -5159,7 +6063,7 @@
     <row r="32" spans="1:9" s="48" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="33" spans="5:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="E33" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F33" s="68">
         <f>IF(OR(ISBLANK(F26),ISBLANK(F14)),"",F22+F31)</f>
@@ -5221,7 +6125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
@@ -5229,7 +6133,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:I29"/>
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5244,30 +6148,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
     </row>
     <row r="2" spans="1:9" s="48" customFormat="1" ht="20.25">
-      <c r="A2" s="164" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
+      <c r="A2" s="151" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
     </row>
     <row r="3" spans="1:9" s="48" customFormat="1" ht="15.75">
       <c r="A3" s="49"/>
@@ -5275,17 +6179,17 @@
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
     </row>
     <row r="4" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A4" s="49"/>
       <c r="B4" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="101" t="str">
+      <c r="C4" s="83" t="str">
         <f>'Project Summary'!B1</f>
         <v>IT114115/2</v>
       </c>
@@ -5294,19 +6198,19 @@
         <v>4</v>
       </c>
       <c r="F4" s="49"/>
-      <c r="G4" s="165">
+      <c r="G4" s="152">
         <f>'Project Summary'!B3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
     </row>
     <row r="5" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A5" s="49"/>
       <c r="B5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="83">
         <f>'Project Summary'!B2</f>
         <v>0</v>
       </c>
@@ -5315,12 +6219,12 @@
         <v>66</v>
       </c>
       <c r="F5" s="49"/>
-      <c r="G5" s="161" t="str">
+      <c r="G5" s="148" t="str">
         <f>'Project Summary'!B11</f>
         <v>Carmen Wong</v>
       </c>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
     </row>
     <row r="6" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A6" s="49"/>
@@ -5336,9 +6240,9 @@
         <v>6</v>
       </c>
       <c r="F6" s="49"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
     </row>
     <row r="7" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A7" s="49"/>
@@ -5354,12 +6258,12 @@
         <v>9</v>
       </c>
       <c r="F7" s="49"/>
-      <c r="G7" s="160">
+      <c r="G7" s="147">
         <f>'Project Summary'!D11</f>
         <v>42017</v>
       </c>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
     </row>
     <row r="8" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="49"/>
@@ -5371,13 +6275,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="49"/>
-      <c r="E8" s="162" t="s">
+      <c r="E8" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
     </row>
     <row r="9" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A9" s="49"/>
@@ -5390,10 +6294,10 @@
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
     </row>
     <row r="10" spans="1:9" s="48" customFormat="1" ht="15.75">
       <c r="A10" s="49"/>
@@ -5407,39 +6311,39 @@
       <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" s="48" customFormat="1" ht="18.75">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
     </row>
     <row r="12" spans="1:9" s="48" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="139"/>
-      <c r="B12" s="140" t="s">
+      <c r="A12" s="126"/>
+      <c r="B12" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="159" t="s">
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
     </row>
     <row r="13" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A13" s="139"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="100" t="s">
+      <c r="A13" s="126"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="82" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="56" t="s">
@@ -5459,28 +6363,28 @@
       <c r="A14" s="57">
         <v>1</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="58">
         <v>0.03</v>
       </c>
       <c r="F14" s="59">
-        <f>'Project Summary'!F50</f>
+        <f>'Project Summary'!F63</f>
         <v>4.5</v>
       </c>
       <c r="G14" s="59">
-        <f>'Project Summary'!G50</f>
+        <f>'Project Summary'!G63</f>
         <v>4.5</v>
       </c>
       <c r="H14" s="59">
-        <f>'Project Summary'!H50</f>
+        <f>'Project Summary'!H63</f>
         <v>0</v>
       </c>
       <c r="I14" s="59">
-        <f>'Project Summary'!I50</f>
+        <f>'Project Summary'!I63</f>
         <v>0</v>
       </c>
     </row>
@@ -5488,28 +6392,28 @@
       <c r="A15" s="57">
         <v>2</v>
       </c>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
       <c r="E15" s="58">
         <v>0.06</v>
       </c>
       <c r="F15" s="59">
-        <f>'Project Summary'!F51</f>
+        <f>'Project Summary'!F64</f>
         <v>4</v>
       </c>
       <c r="G15" s="59">
-        <f>'Project Summary'!G51</f>
+        <f>'Project Summary'!G64</f>
         <v>4</v>
       </c>
       <c r="H15" s="59">
-        <f>'Project Summary'!H51</f>
+        <f>'Project Summary'!H64</f>
         <v>0</v>
       </c>
       <c r="I15" s="59">
-        <f>'Project Summary'!I51</f>
+        <f>'Project Summary'!I64</f>
         <v>0</v>
       </c>
     </row>
@@ -5517,28 +6421,28 @@
       <c r="A16" s="57">
         <v>3</v>
       </c>
-      <c r="B16" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
+      <c r="B16" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
       <c r="E16" s="58">
         <v>0.02</v>
       </c>
       <c r="F16" s="59">
-        <f>'Project Summary'!F52</f>
+        <f>'Project Summary'!F65</f>
         <v>4</v>
       </c>
       <c r="G16" s="59">
-        <f>'Project Summary'!G52</f>
+        <f>'Project Summary'!G65</f>
         <v>4</v>
       </c>
       <c r="H16" s="59">
-        <f>'Project Summary'!H52</f>
+        <f>'Project Summary'!H65</f>
         <v>0</v>
       </c>
       <c r="I16" s="59">
-        <f>'Project Summary'!I52</f>
+        <f>'Project Summary'!I65</f>
         <v>0</v>
       </c>
     </row>
@@ -5546,28 +6450,28 @@
       <c r="A17" s="57">
         <v>4</v>
       </c>
-      <c r="B17" s="141" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
+      <c r="B17" s="128" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
       <c r="E17" s="61">
         <v>0.02</v>
       </c>
       <c r="F17" s="59">
-        <f>'Project Summary'!F53</f>
+        <f>'Project Summary'!F66</f>
         <v>5</v>
       </c>
       <c r="G17" s="59">
-        <f>'Project Summary'!G53</f>
+        <f>'Project Summary'!G66</f>
         <v>5</v>
       </c>
       <c r="H17" s="59">
-        <f>'Project Summary'!H53</f>
+        <f>'Project Summary'!H66</f>
         <v>0</v>
       </c>
       <c r="I17" s="59">
-        <f>'Project Summary'!I53</f>
+        <f>'Project Summary'!I66</f>
         <v>0</v>
       </c>
     </row>
@@ -5575,28 +6479,28 @@
       <c r="A18" s="57">
         <v>5</v>
       </c>
-      <c r="B18" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
+      <c r="B18" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
       <c r="E18" s="61">
         <v>0.02</v>
       </c>
       <c r="F18" s="59">
-        <f>'Project Summary'!F54</f>
+        <f>'Project Summary'!F67</f>
         <v>4.5</v>
       </c>
       <c r="G18" s="59">
-        <f>'Project Summary'!G54</f>
+        <f>'Project Summary'!G67</f>
         <v>4.5</v>
       </c>
       <c r="H18" s="59">
-        <f>'Project Summary'!H54</f>
+        <f>'Project Summary'!H67</f>
         <v>0</v>
       </c>
       <c r="I18" s="59">
-        <f>'Project Summary'!I54</f>
+        <f>'Project Summary'!I67</f>
         <v>0</v>
       </c>
     </row>
@@ -5604,28 +6508,28 @@
       <c r="A19" s="57">
         <v>6</v>
       </c>
-      <c r="B19" s="142" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
+      <c r="B19" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
       <c r="E19" s="61">
         <v>0.1</v>
       </c>
       <c r="F19" s="59">
-        <f>'Project Summary'!F55</f>
+        <f>'Project Summary'!F68</f>
         <v>4</v>
       </c>
       <c r="G19" s="59">
-        <f>'Project Summary'!G55</f>
+        <f>'Project Summary'!G68</f>
         <v>5</v>
       </c>
       <c r="H19" s="59">
-        <f>'Project Summary'!H55</f>
+        <f>'Project Summary'!H68</f>
         <v>0</v>
       </c>
       <c r="I19" s="59">
-        <f>'Project Summary'!I55</f>
+        <f>'Project Summary'!I68</f>
         <v>0</v>
       </c>
     </row>
@@ -5633,49 +6537,49 @@
       <c r="A20" s="57">
         <v>7</v>
       </c>
-      <c r="B20" s="143" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
+      <c r="B20" s="130" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
       <c r="E20" s="61">
         <v>0.02</v>
       </c>
       <c r="F20" s="59">
-        <f>'Project Summary'!F56</f>
+        <f>'Project Summary'!F69</f>
         <v>4.5</v>
       </c>
       <c r="G20" s="59">
-        <f>'Project Summary'!G56</f>
+        <f>'Project Summary'!G69</f>
         <v>5</v>
       </c>
       <c r="H20" s="59">
-        <f>'Project Summary'!H56</f>
+        <f>'Project Summary'!H69</f>
         <v>0</v>
       </c>
       <c r="I20" s="59">
-        <f>'Project Summary'!I56</f>
+        <f>'Project Summary'!I69</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A21" s="49"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
       <c r="E21" s="49"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
     </row>
     <row r="22" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A22" s="49"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="63">
         <f>IF(ISBLANK(F14),"",(SUMPRODUCT(($E14:$E20)*(F14:F20)))*10)</f>
@@ -5706,52 +6610,52 @@
       <c r="I23" s="64"/>
     </row>
     <row r="24" spans="1:9" s="48" customFormat="1" ht="18.75">
-      <c r="A24" s="138" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
+      <c r="A24" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
     </row>
     <row r="25" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
-      <c r="F25" s="159" t="s">
+      <c r="F25" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="159"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
     </row>
     <row r="26" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A26" s="57">
         <v>1</v>
       </c>
-      <c r="B26" s="137" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
+      <c r="B26" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="65">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F26" s="59">
-        <f>'Project Summary'!F59</f>
+        <f>'Project Summary'!F72</f>
         <v>4</v>
       </c>
       <c r="G26" s="59">
-        <f>'Project Summary'!G59</f>
+        <f>'Project Summary'!G72</f>
         <v>5</v>
       </c>
       <c r="H26" s="59">
-        <f>'Project Summary'!H59</f>
+        <f>'Project Summary'!H72</f>
         <v>0</v>
       </c>
       <c r="I26" s="59">
-        <f>'Project Summary'!I59</f>
+        <f>'Project Summary'!I72</f>
         <v>0</v>
       </c>
     </row>
@@ -5759,28 +6663,28 @@
       <c r="A27" s="57">
         <v>2</v>
       </c>
-      <c r="B27" s="137" t="s">
+      <c r="B27" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
       <c r="E27" s="65">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F27" s="59">
-        <f>'Project Summary'!F60</f>
+        <f>'Project Summary'!F73</f>
         <v>4.5</v>
       </c>
       <c r="G27" s="59">
-        <f>'Project Summary'!G60</f>
+        <f>'Project Summary'!G73</f>
         <v>5</v>
       </c>
       <c r="H27" s="59">
-        <f>'Project Summary'!H60</f>
+        <f>'Project Summary'!H73</f>
         <v>0</v>
       </c>
       <c r="I27" s="59">
-        <f>'Project Summary'!I60</f>
+        <f>'Project Summary'!I73</f>
         <v>0</v>
       </c>
     </row>
@@ -5788,28 +6692,28 @@
       <c r="A28" s="57">
         <v>3</v>
       </c>
-      <c r="B28" s="137" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
+      <c r="B28" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
       <c r="E28" s="65">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F28" s="59">
-        <f>'Project Summary'!F61</f>
+        <f>'Project Summary'!F74</f>
         <v>5</v>
       </c>
       <c r="G28" s="59">
-        <f>'Project Summary'!G61</f>
+        <f>'Project Summary'!G74</f>
         <v>6</v>
       </c>
       <c r="H28" s="59">
-        <f>'Project Summary'!H61</f>
+        <f>'Project Summary'!H74</f>
         <v>0</v>
       </c>
       <c r="I28" s="59">
-        <f>'Project Summary'!I61</f>
+        <f>'Project Summary'!I74</f>
         <v>0</v>
       </c>
     </row>
@@ -5817,49 +6721,49 @@
       <c r="A29" s="57">
         <v>3</v>
       </c>
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
       <c r="E29" s="65">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="F29" s="59">
-        <f>'Project Summary'!F62</f>
+        <f>'Project Summary'!F75</f>
         <v>4</v>
       </c>
       <c r="G29" s="59">
-        <f>'Project Summary'!G62</f>
+        <f>'Project Summary'!G75</f>
         <v>5</v>
       </c>
       <c r="H29" s="59">
-        <f>'Project Summary'!H62</f>
+        <f>'Project Summary'!H75</f>
         <v>0</v>
       </c>
       <c r="I29" s="59">
-        <f>'Project Summary'!I62</f>
+        <f>'Project Summary'!I75</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A30" s="49"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
       <c r="E30" s="49"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
     </row>
     <row r="31" spans="1:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="A31" s="49"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
       <c r="E31" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="63">
         <f>IF(ISBLANK(F26),"",(SUMPRODUCT(($E26:$E29)*(F26:F29)))*10)</f>
@@ -5881,7 +6785,7 @@
     <row r="32" spans="1:9" s="48" customFormat="1" ht="15.75" thickBot="1"/>
     <row r="33" spans="5:9" s="48" customFormat="1" ht="16.5" thickBot="1">
       <c r="E33" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F33" s="68">
         <f>IF(OR(ISBLANK(F26),ISBLANK(F14)),"",F22+F31)</f>
@@ -5946,15 +6850,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:I8"/>
+    <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5968,30 +6872,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="20.25">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="15.75">
       <c r="A3" s="3"/>
@@ -5999,10 +6903,10 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A4" s="3"/>
@@ -6014,113 +6918,113 @@
         <v>IT114115/2</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="148" t="s">
+      <c r="E4" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="148"/>
-      <c r="G4" s="170">
+      <c r="F4" s="135"/>
+      <c r="G4" s="157">
         <f>'Project Summary'!B2</f>
         <v>0</v>
       </c>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="86">
         <f>'Project Summary'!B3</f>
         <v>0</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="148" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="148"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
+      <c r="E5" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="135"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="104" t="str">
+      <c r="C6" s="86" t="str">
         <f>'Project Summary'!B5</f>
         <v>XXXX</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="148" t="s">
+      <c r="E6" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="148"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="104" t="str">
+      <c r="C7" s="86" t="str">
         <f>'Project Summary'!B6</f>
         <v>YYYY</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="148" t="s">
+      <c r="E7" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="148"/>
-      <c r="G7" s="169">
+      <c r="F7" s="135"/>
+      <c r="G7" s="156">
         <f>COUNTA(C6:C9)</f>
         <v>4</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="3"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="86">
         <f>'Project Summary'!B7</f>
         <v>0</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="148" t="s">
+      <c r="E8" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="148"/>
-      <c r="G8" s="160">
+      <c r="F8" s="135"/>
+      <c r="G8" s="147">
         <f>'Project Summary'!D12</f>
         <v>42123</v>
       </c>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A9" s="3"/>
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="104">
+      <c r="C9" s="86">
         <f>'Project Summary'!B8</f>
         <v>0</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="148" t="s">
+      <c r="E9" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="K9" s="92"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="K9" s="75"/>
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1" ht="15.75">
       <c r="A10" s="3"/>
@@ -6134,23 +7038,23 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:11" s="7" customFormat="1" ht="18.75">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
     </row>
     <row r="12" spans="1:11" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
       <c r="E12" s="9" t="s">
         <v>0</v>
       </c>
@@ -6162,16 +7066,16 @@
       <c r="A13" s="11">
         <v>1</v>
       </c>
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
       <c r="E13" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F13" s="13">
-        <f>'Project Summary'!F66</f>
+        <f>'Project Summary'!F79</f>
         <v>4</v>
       </c>
       <c r="G13" s="14"/>
@@ -6182,16 +7086,16 @@
       <c r="A14" s="11">
         <v>2</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
       <c r="E14" s="12">
         <v>0.03</v>
       </c>
       <c r="F14" s="13">
-        <f>'Project Summary'!F67</f>
+        <f>'Project Summary'!F80</f>
         <v>6</v>
       </c>
       <c r="G14" s="14"/>
@@ -6202,16 +7106,16 @@
       <c r="A15" s="11">
         <v>3</v>
       </c>
-      <c r="B15" s="146" t="s">
+      <c r="B15" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
       <c r="E15" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="F15" s="13">
-        <f>'Project Summary'!F68</f>
+        <f>'Project Summary'!F81</f>
         <v>5</v>
       </c>
       <c r="G15" s="14"/>
@@ -6222,16 +7126,16 @@
       <c r="A16" s="11">
         <v>4</v>
       </c>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
       <c r="E16" s="12">
         <v>0.03</v>
       </c>
       <c r="F16" s="13">
-        <f>'Project Summary'!F69</f>
+        <f>'Project Summary'!F82</f>
         <v>4</v>
       </c>
       <c r="G16" s="14"/>
@@ -6242,16 +7146,16 @@
       <c r="A17" s="11">
         <v>5</v>
       </c>
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
       <c r="E17" s="12">
         <v>0.03</v>
       </c>
       <c r="F17" s="13">
-        <f>'Project Summary'!F70</f>
+        <f>'Project Summary'!F83</f>
         <v>5</v>
       </c>
       <c r="G17" s="14"/>
@@ -6260,9 +7164,9 @@
     </row>
     <row r="18" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
       <c r="E18" s="17" t="s">
         <v>34</v>
       </c>
@@ -6319,19 +7223,19 @@
         <v>21</v>
       </c>
       <c r="F21" s="24">
-        <f>IF('Project Summary'!F73&lt;&gt;0,'Project Summary'!F73,"")</f>
+        <f>IF('Project Summary'!F86&lt;&gt;0,'Project Summary'!F86,"")</f>
         <v>50</v>
       </c>
       <c r="G21" s="24">
-        <f>IF('Project Summary'!G73&lt;&gt;0,'Project Summary'!G73,"")</f>
+        <f>IF('Project Summary'!G86&lt;&gt;0,'Project Summary'!G86,"")</f>
         <v>50</v>
       </c>
       <c r="H21" s="24" t="str">
-        <f>IF('Project Summary'!H73&lt;&gt;0,'Project Summary'!H73,"")</f>
+        <f>IF('Project Summary'!H86&lt;&gt;0,'Project Summary'!H86,"")</f>
         <v/>
       </c>
       <c r="I21" s="24" t="str">
-        <f>IF('Project Summary'!I73&lt;&gt;0,'Project Summary'!I73,"")</f>
+        <f>IF('Project Summary'!I86&lt;&gt;0,'Project Summary'!I86,"")</f>
         <v/>
       </c>
       <c r="J21" s="25"/>
@@ -6399,47 +7303,47 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="135" t="s">
+      <c r="F25" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" ht="60.75" customHeight="1" thickBot="1">
       <c r="A26" s="11">
         <v>6</v>
       </c>
-      <c r="B26" s="147" t="s">
+      <c r="B26" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
       <c r="E26" s="27">
         <v>0.3</v>
       </c>
       <c r="F26" s="24">
-        <f>'Project Summary'!F75</f>
+        <f>'Project Summary'!F88</f>
         <v>5</v>
       </c>
       <c r="G26" s="24">
-        <f>'Project Summary'!G75</f>
+        <f>'Project Summary'!G88</f>
         <v>5</v>
       </c>
       <c r="H26" s="24">
-        <f>'Project Summary'!H75</f>
+        <f>'Project Summary'!H88</f>
         <v>0</v>
       </c>
       <c r="I26" s="24">
-        <f>'Project Summary'!I75</f>
+        <f>'Project Summary'!I88</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
       <c r="E27" s="17" t="s">
         <v>22</v>
       </c>
@@ -6472,52 +7376,52 @@
       <c r="I28" s="29"/>
     </row>
     <row r="29" spans="1:10" s="7" customFormat="1" ht="18.75">
-      <c r="A29" s="144" t="s">
+      <c r="A29" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
     </row>
     <row r="30" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="F30" s="135" t="s">
+      <c r="F30" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
     </row>
     <row r="31" spans="1:10" s="7" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="A31" s="11">
         <v>1</v>
       </c>
-      <c r="B31" s="146" t="s">
+      <c r="B31" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
       <c r="E31" s="30">
         <v>0.01</v>
       </c>
       <c r="F31" s="24">
-        <f>'Project Summary'!F79</f>
+        <f>'Project Summary'!F92</f>
         <v>5</v>
       </c>
       <c r="G31" s="24">
-        <f>'Project Summary'!G79</f>
+        <f>'Project Summary'!G92</f>
         <v>5</v>
       </c>
       <c r="H31" s="24">
-        <f>'Project Summary'!H79</f>
+        <f>'Project Summary'!H92</f>
         <v>0</v>
       </c>
       <c r="I31" s="24">
-        <f>'Project Summary'!I79</f>
+        <f>'Project Summary'!I92</f>
         <v>0</v>
       </c>
     </row>
@@ -6525,28 +7429,28 @@
       <c r="A32" s="11">
         <v>2</v>
       </c>
-      <c r="B32" s="136" t="s">
+      <c r="B32" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
       <c r="E32" s="30">
         <v>0.01</v>
       </c>
       <c r="F32" s="24">
-        <f>'Project Summary'!F80</f>
+        <f>'Project Summary'!F93</f>
         <v>5</v>
       </c>
       <c r="G32" s="24">
-        <f>'Project Summary'!G80</f>
+        <f>'Project Summary'!G93</f>
         <v>5</v>
       </c>
       <c r="H32" s="24">
-        <f>'Project Summary'!H80</f>
+        <f>'Project Summary'!H93</f>
         <v>0</v>
       </c>
       <c r="I32" s="24">
-        <f>'Project Summary'!I80</f>
+        <f>'Project Summary'!I93</f>
         <v>0</v>
       </c>
     </row>
@@ -6554,28 +7458,28 @@
       <c r="A33" s="11">
         <v>3</v>
       </c>
-      <c r="B33" s="136" t="s">
+      <c r="B33" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="136"/>
-      <c r="D33" s="136"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
       <c r="E33" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F33" s="24">
-        <f>'Project Summary'!F81</f>
+        <f>'Project Summary'!F94</f>
         <v>6</v>
       </c>
       <c r="G33" s="24">
-        <f>'Project Summary'!G81</f>
+        <f>'Project Summary'!G94</f>
         <v>6</v>
       </c>
       <c r="H33" s="24">
-        <f>'Project Summary'!H81</f>
+        <f>'Project Summary'!H94</f>
         <v>0</v>
       </c>
       <c r="I33" s="24">
-        <f>'Project Summary'!I81</f>
+        <f>'Project Summary'!I94</f>
         <v>0</v>
       </c>
     </row>
@@ -6583,28 +7487,28 @@
       <c r="A34" s="11">
         <v>4</v>
       </c>
-      <c r="B34" s="136" t="s">
+      <c r="B34" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
       <c r="E34" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F34" s="24">
-        <f>'Project Summary'!F82</f>
+        <f>'Project Summary'!F95</f>
         <v>3</v>
       </c>
       <c r="G34" s="24">
-        <f>'Project Summary'!G82</f>
+        <f>'Project Summary'!G95</f>
         <v>3</v>
       </c>
       <c r="H34" s="24">
-        <f>'Project Summary'!H82</f>
+        <f>'Project Summary'!H95</f>
         <v>0</v>
       </c>
       <c r="I34" s="24">
-        <f>'Project Summary'!I82</f>
+        <f>'Project Summary'!I95</f>
         <v>0</v>
       </c>
     </row>
@@ -6612,28 +7516,28 @@
       <c r="A35" s="11">
         <v>5</v>
       </c>
-      <c r="B35" s="136" t="s">
+      <c r="B35" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="136"/>
-      <c r="D35" s="136"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
       <c r="E35" s="30">
         <v>0.01</v>
       </c>
       <c r="F35" s="24">
-        <f>'Project Summary'!F83</f>
+        <f>'Project Summary'!F96</f>
         <v>4</v>
       </c>
       <c r="G35" s="24">
-        <f>'Project Summary'!G83</f>
+        <f>'Project Summary'!G96</f>
         <v>4</v>
       </c>
       <c r="H35" s="24">
-        <f>'Project Summary'!H83</f>
+        <f>'Project Summary'!H96</f>
         <v>0</v>
       </c>
       <c r="I35" s="24">
-        <f>'Project Summary'!I83</f>
+        <f>'Project Summary'!I96</f>
         <v>0</v>
       </c>
     </row>
@@ -6641,47 +7545,47 @@
       <c r="A36" s="11">
         <v>6</v>
       </c>
-      <c r="B36" s="136" t="s">
+      <c r="B36" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
       <c r="E36" s="30">
         <v>0.01</v>
       </c>
       <c r="F36" s="24">
-        <f>'Project Summary'!F84</f>
+        <f>'Project Summary'!F97</f>
         <v>4</v>
       </c>
       <c r="G36" s="24">
-        <f>'Project Summary'!G84</f>
+        <f>'Project Summary'!G97</f>
         <v>6</v>
       </c>
       <c r="H36" s="24">
-        <f>'Project Summary'!H84</f>
+        <f>'Project Summary'!H97</f>
         <v>0</v>
       </c>
       <c r="I36" s="24">
-        <f>'Project Summary'!I84</f>
+        <f>'Project Summary'!I97</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="133"/>
-      <c r="C37" s="133"/>
-      <c r="D37" s="133"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="166"/>
-      <c r="H37" s="166"/>
-      <c r="I37" s="166"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
     </row>
     <row r="38" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="133"/>
-      <c r="C38" s="133"/>
-      <c r="D38" s="133"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
       <c r="E38" s="17" t="s">
         <v>37</v>
       </c>
@@ -6704,52 +7608,52 @@
     </row>
     <row r="39" spans="1:9" s="7" customFormat="1"/>
     <row r="40" spans="1:9" s="7" customFormat="1" ht="18.75">
-      <c r="A40" s="144" t="s">
+      <c r="A40" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="144"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
     </row>
     <row r="41" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="F41" s="135" t="s">
+      <c r="F41" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
     </row>
     <row r="42" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A42" s="17">
         <v>1</v>
       </c>
-      <c r="B42" s="136" t="s">
+      <c r="B42" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="123"/>
       <c r="E42" s="12">
         <v>0.02</v>
       </c>
       <c r="F42" s="24">
-        <f>'Project Summary'!F88</f>
+        <f>'Project Summary'!F101</f>
         <v>5</v>
       </c>
       <c r="G42" s="24">
-        <f>'Project Summary'!G88</f>
+        <f>'Project Summary'!G101</f>
         <v>5</v>
       </c>
       <c r="H42" s="24">
-        <f>'Project Summary'!H88</f>
+        <f>'Project Summary'!H101</f>
         <v>0</v>
       </c>
       <c r="I42" s="24">
-        <f>'Project Summary'!I88</f>
+        <f>'Project Summary'!I101</f>
         <v>0</v>
       </c>
     </row>
@@ -6757,28 +7661,28 @@
       <c r="A43" s="17">
         <v>2</v>
       </c>
-      <c r="B43" s="136" t="s">
+      <c r="B43" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="136"/>
-      <c r="D43" s="136"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
       <c r="E43" s="12">
         <v>0.02</v>
       </c>
       <c r="F43" s="24">
-        <f>'Project Summary'!F89</f>
+        <f>'Project Summary'!F102</f>
         <v>5</v>
       </c>
       <c r="G43" s="24">
-        <f>'Project Summary'!G89</f>
+        <f>'Project Summary'!G102</f>
         <v>6</v>
       </c>
       <c r="H43" s="24">
-        <f>'Project Summary'!H89</f>
+        <f>'Project Summary'!H102</f>
         <v>0</v>
       </c>
       <c r="I43" s="24">
-        <f>'Project Summary'!I89</f>
+        <f>'Project Summary'!I102</f>
         <v>0</v>
       </c>
     </row>
@@ -6786,28 +7690,28 @@
       <c r="A44" s="17">
         <v>3</v>
       </c>
-      <c r="B44" s="136" t="s">
+      <c r="B44" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="123"/>
       <c r="E44" s="12">
         <v>0.02</v>
       </c>
       <c r="F44" s="24">
-        <f>'Project Summary'!F90</f>
+        <f>'Project Summary'!F103</f>
         <v>4</v>
       </c>
       <c r="G44" s="24">
-        <f>'Project Summary'!G90</f>
+        <f>'Project Summary'!G103</f>
         <v>5</v>
       </c>
       <c r="H44" s="24">
-        <f>'Project Summary'!H90</f>
+        <f>'Project Summary'!H103</f>
         <v>0</v>
       </c>
       <c r="I44" s="24">
-        <f>'Project Summary'!I90</f>
+        <f>'Project Summary'!I103</f>
         <v>0</v>
       </c>
     </row>
@@ -6815,28 +7719,28 @@
       <c r="A45" s="17">
         <v>4</v>
       </c>
-      <c r="B45" s="136" t="s">
+      <c r="B45" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
       <c r="E45" s="12">
         <v>0.02</v>
       </c>
       <c r="F45" s="24">
-        <f>'Project Summary'!F91</f>
+        <f>'Project Summary'!F104</f>
         <v>5</v>
       </c>
       <c r="G45" s="24">
-        <f>'Project Summary'!G91</f>
+        <f>'Project Summary'!G104</f>
         <v>5</v>
       </c>
       <c r="H45" s="24">
-        <f>'Project Summary'!H91</f>
+        <f>'Project Summary'!H104</f>
         <v>0</v>
       </c>
       <c r="I45" s="24">
-        <f>'Project Summary'!I91</f>
+        <f>'Project Summary'!I104</f>
         <v>0</v>
       </c>
     </row>
@@ -6844,47 +7748,47 @@
       <c r="A46" s="17">
         <v>5</v>
       </c>
-      <c r="B46" s="136" t="s">
+      <c r="B46" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="123"/>
       <c r="E46" s="12">
         <v>0.02</v>
       </c>
       <c r="F46" s="24">
-        <f>'Project Summary'!F92</f>
+        <f>'Project Summary'!F105</f>
         <v>5</v>
       </c>
       <c r="G46" s="24">
-        <f>'Project Summary'!G92</f>
+        <f>'Project Summary'!G105</f>
         <v>5</v>
       </c>
       <c r="H46" s="24">
-        <f>'Project Summary'!H92</f>
+        <f>'Project Summary'!H105</f>
         <v>0</v>
       </c>
       <c r="I46" s="24">
-        <f>'Project Summary'!I92</f>
+        <f>'Project Summary'!I105</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="133"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="166"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="166"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="153"/>
+      <c r="H47" s="153"/>
+      <c r="I47" s="153"/>
     </row>
     <row r="48" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="133"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="133"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="120"/>
       <c r="E48" s="17" t="s">
         <v>27</v>
       </c>
@@ -7058,14 +7962,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G5" sqref="G5:I5"/>
     </sheetView>
   </sheetViews>
@@ -7080,30 +7984,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" ht="20.25">
-      <c r="A2" s="167" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
+      <c r="A2" s="154" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" ht="15.75">
       <c r="A3" s="3"/>
@@ -7111,130 +8015,130 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
     </row>
     <row r="4" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="103" t="str">
+      <c r="C4" s="85" t="str">
         <f>'Project Summary'!B1</f>
         <v>IT114115/2</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="148" t="s">
+      <c r="E4" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="148"/>
-      <c r="G4" s="170">
+      <c r="F4" s="135"/>
+      <c r="G4" s="157">
         <f>'Project Summary'!B2</f>
         <v>0</v>
       </c>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="86">
         <f>'Project Summary'!B3</f>
         <v>0</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="148" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="148"/>
-      <c r="G5" s="168" t="str">
+      <c r="E5" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="135"/>
+      <c r="G5" s="155" t="str">
         <f>'Project Summary'!B10&amp;"/"&amp;'Project Summary'!B12</f>
         <v>Cyrus Wong/Ada Yuen</v>
       </c>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="104" t="str">
+      <c r="C6" s="86" t="str">
         <f>'Project Summary'!B5</f>
         <v>XXXX</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="148" t="s">
+      <c r="E6" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="148"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="104" t="str">
+      <c r="C7" s="86" t="str">
         <f>'Project Summary'!B6</f>
         <v>YYYY</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="148" t="s">
+      <c r="E7" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="148"/>
-      <c r="G7" s="169">
+      <c r="F7" s="135"/>
+      <c r="G7" s="156">
         <f>COUNTA(C6:C9)</f>
         <v>4</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="3"/>
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="86">
         <f>'Project Summary'!B7</f>
         <v>0</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="148" t="s">
+      <c r="E8" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="148"/>
-      <c r="G8" s="160">
+      <c r="F8" s="135"/>
+      <c r="G8" s="147">
         <f>'Project Summary'!D12</f>
         <v>42123</v>
       </c>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A9" s="3"/>
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="104">
+      <c r="C9" s="86">
         <f>'Project Summary'!B8</f>
         <v>0</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="148" t="s">
+      <c r="E9" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" ht="15.75">
       <c r="A10" s="3"/>
@@ -7248,23 +8152,23 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" s="7" customFormat="1" ht="18.75">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
       <c r="E12" s="9" t="s">
         <v>0</v>
       </c>
@@ -7276,16 +8180,16 @@
       <c r="A13" s="11">
         <v>1</v>
       </c>
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
       <c r="E13" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F13" s="13">
-        <f>'Project Summary'!F96</f>
+        <f>'Project Summary'!F109</f>
         <v>4</v>
       </c>
       <c r="G13" s="14"/>
@@ -7296,16 +8200,16 @@
       <c r="A14" s="11">
         <v>2</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
       <c r="E14" s="12">
         <v>0.03</v>
       </c>
       <c r="F14" s="13">
-        <f>'Project Summary'!F97</f>
+        <f>'Project Summary'!F110</f>
         <v>4.5</v>
       </c>
       <c r="G14" s="14"/>
@@ -7316,16 +8220,16 @@
       <c r="A15" s="11">
         <v>3</v>
       </c>
-      <c r="B15" s="146" t="s">
+      <c r="B15" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
       <c r="E15" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="F15" s="13">
-        <f>'Project Summary'!F98</f>
+        <f>'Project Summary'!F111</f>
         <v>4</v>
       </c>
       <c r="G15" s="14"/>
@@ -7336,16 +8240,16 @@
       <c r="A16" s="11">
         <v>4</v>
       </c>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
       <c r="E16" s="12">
         <v>0.03</v>
       </c>
       <c r="F16" s="13">
-        <f>'Project Summary'!F99</f>
+        <f>'Project Summary'!F112</f>
         <v>4</v>
       </c>
       <c r="G16" s="14"/>
@@ -7356,16 +8260,16 @@
       <c r="A17" s="11">
         <v>5</v>
       </c>
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
       <c r="E17" s="12">
         <v>0.03</v>
       </c>
       <c r="F17" s="13">
-        <f>'Project Summary'!F100</f>
+        <f>'Project Summary'!F113</f>
         <v>4</v>
       </c>
       <c r="G17" s="14"/>
@@ -7374,9 +8278,9 @@
     </row>
     <row r="18" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
       <c r="E18" s="17" t="s">
         <v>34</v>
       </c>
@@ -7433,19 +8337,19 @@
         <v>21</v>
       </c>
       <c r="F21" s="24">
-        <f>'Project Summary'!F102</f>
+        <f>'Project Summary'!F115</f>
         <v>50</v>
       </c>
       <c r="G21" s="24">
-        <f>'Project Summary'!G102</f>
+        <f>'Project Summary'!G115</f>
         <v>50</v>
       </c>
       <c r="H21" s="24">
-        <f>'Project Summary'!H102</f>
+        <f>'Project Summary'!H115</f>
         <v>0</v>
       </c>
       <c r="I21" s="24">
-        <f>'Project Summary'!I102</f>
+        <f>'Project Summary'!I115</f>
         <v>0</v>
       </c>
       <c r="J21" s="25"/>
@@ -7513,47 +8417,47 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="135" t="s">
+      <c r="F25" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" ht="60.75" customHeight="1" thickBot="1">
       <c r="A26" s="11">
         <v>6</v>
       </c>
-      <c r="B26" s="147" t="s">
+      <c r="B26" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
       <c r="E26" s="27">
         <v>0.3</v>
       </c>
       <c r="F26" s="24">
-        <f>'Project Summary'!F104</f>
+        <f>'Project Summary'!F117</f>
         <v>4.5</v>
       </c>
       <c r="G26" s="24">
-        <f>'Project Summary'!G104</f>
+        <f>'Project Summary'!G117</f>
         <v>5</v>
       </c>
       <c r="H26" s="24">
-        <f>'Project Summary'!H104</f>
+        <f>'Project Summary'!H117</f>
         <v>0</v>
       </c>
       <c r="I26" s="24">
-        <f>'Project Summary'!I104</f>
+        <f>'Project Summary'!I117</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
       <c r="E27" s="17" t="s">
         <v>22</v>
       </c>
@@ -7586,52 +8490,52 @@
       <c r="I28" s="29"/>
     </row>
     <row r="29" spans="1:10" s="7" customFormat="1" ht="18.75">
-      <c r="A29" s="144" t="s">
+      <c r="A29" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
     </row>
     <row r="30" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="F30" s="135" t="s">
+      <c r="F30" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
     </row>
     <row r="31" spans="1:10" s="7" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="A31" s="11">
         <v>1</v>
       </c>
-      <c r="B31" s="146" t="s">
+      <c r="B31" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
       <c r="E31" s="30">
         <v>0.01</v>
       </c>
       <c r="F31" s="24">
-        <f>'Project Summary'!F108</f>
+        <f>'Project Summary'!F121</f>
         <v>4</v>
       </c>
       <c r="G31" s="24">
-        <f>'Project Summary'!G108</f>
+        <f>'Project Summary'!G121</f>
         <v>5</v>
       </c>
       <c r="H31" s="24">
-        <f>'Project Summary'!H108</f>
+        <f>'Project Summary'!H121</f>
         <v>0</v>
       </c>
       <c r="I31" s="24">
-        <f>'Project Summary'!I108</f>
+        <f>'Project Summary'!I121</f>
         <v>0</v>
       </c>
     </row>
@@ -7639,28 +8543,28 @@
       <c r="A32" s="11">
         <v>2</v>
       </c>
-      <c r="B32" s="136" t="s">
+      <c r="B32" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
       <c r="E32" s="30">
         <v>0.01</v>
       </c>
       <c r="F32" s="24">
-        <f>'Project Summary'!F109</f>
+        <f>'Project Summary'!F122</f>
         <v>4.5</v>
       </c>
       <c r="G32" s="24">
-        <f>'Project Summary'!G109</f>
+        <f>'Project Summary'!G122</f>
         <v>5</v>
       </c>
       <c r="H32" s="24">
-        <f>'Project Summary'!H109</f>
+        <f>'Project Summary'!H122</f>
         <v>0</v>
       </c>
       <c r="I32" s="24">
-        <f>'Project Summary'!I109</f>
+        <f>'Project Summary'!I122</f>
         <v>0</v>
       </c>
     </row>
@@ -7668,28 +8572,28 @@
       <c r="A33" s="11">
         <v>3</v>
       </c>
-      <c r="B33" s="136" t="s">
+      <c r="B33" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="136"/>
-      <c r="D33" s="136"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
       <c r="E33" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F33" s="24">
-        <f>'Project Summary'!F110</f>
+        <f>'Project Summary'!F123</f>
         <v>4</v>
       </c>
       <c r="G33" s="24">
-        <f>'Project Summary'!G110</f>
+        <f>'Project Summary'!G123</f>
         <v>4</v>
       </c>
       <c r="H33" s="24">
-        <f>'Project Summary'!H110</f>
+        <f>'Project Summary'!H123</f>
         <v>0</v>
       </c>
       <c r="I33" s="24">
-        <f>'Project Summary'!I110</f>
+        <f>'Project Summary'!I123</f>
         <v>0</v>
       </c>
     </row>
@@ -7697,28 +8601,28 @@
       <c r="A34" s="11">
         <v>4</v>
       </c>
-      <c r="B34" s="136" t="s">
+      <c r="B34" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
       <c r="E34" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F34" s="24">
-        <f>'Project Summary'!F111</f>
+        <f>'Project Summary'!F124</f>
         <v>4</v>
       </c>
       <c r="G34" s="24">
-        <f>'Project Summary'!G111</f>
+        <f>'Project Summary'!G124</f>
         <v>4</v>
       </c>
       <c r="H34" s="24">
-        <f>'Project Summary'!H111</f>
+        <f>'Project Summary'!H124</f>
         <v>0</v>
       </c>
       <c r="I34" s="24">
-        <f>'Project Summary'!I111</f>
+        <f>'Project Summary'!I124</f>
         <v>0</v>
       </c>
     </row>
@@ -7726,28 +8630,28 @@
       <c r="A35" s="11">
         <v>5</v>
       </c>
-      <c r="B35" s="136" t="s">
+      <c r="B35" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="136"/>
-      <c r="D35" s="136"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
       <c r="E35" s="30">
         <v>0.01</v>
       </c>
       <c r="F35" s="24">
-        <f>'Project Summary'!F112</f>
+        <f>'Project Summary'!F125</f>
         <v>4.5</v>
       </c>
       <c r="G35" s="24">
-        <f>'Project Summary'!G112</f>
+        <f>'Project Summary'!G125</f>
         <v>5</v>
       </c>
       <c r="H35" s="24">
-        <f>'Project Summary'!H112</f>
+        <f>'Project Summary'!H125</f>
         <v>0</v>
       </c>
       <c r="I35" s="24">
-        <f>'Project Summary'!I112</f>
+        <f>'Project Summary'!I125</f>
         <v>0</v>
       </c>
     </row>
@@ -7755,47 +8659,47 @@
       <c r="A36" s="11">
         <v>6</v>
       </c>
-      <c r="B36" s="136" t="s">
+      <c r="B36" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
       <c r="E36" s="30">
         <v>0.01</v>
       </c>
       <c r="F36" s="24">
-        <f>'Project Summary'!F113</f>
+        <f>'Project Summary'!F126</f>
         <v>5</v>
       </c>
       <c r="G36" s="24">
-        <f>'Project Summary'!G113</f>
+        <f>'Project Summary'!G126</f>
         <v>6</v>
       </c>
       <c r="H36" s="24">
-        <f>'Project Summary'!H113</f>
+        <f>'Project Summary'!H126</f>
         <v>0</v>
       </c>
       <c r="I36" s="24">
-        <f>'Project Summary'!I113</f>
+        <f>'Project Summary'!I126</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="133"/>
-      <c r="C37" s="133"/>
-      <c r="D37" s="133"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="166"/>
-      <c r="H37" s="166"/>
-      <c r="I37" s="166"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
     </row>
     <row r="38" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="133"/>
-      <c r="C38" s="133"/>
-      <c r="D38" s="133"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
       <c r="E38" s="17" t="s">
         <v>37</v>
       </c>
@@ -7818,127 +8722,127 @@
     </row>
     <row r="39" spans="1:9" s="7" customFormat="1"/>
     <row r="40" spans="1:9" s="7" customFormat="1" ht="18.75">
-      <c r="A40" s="144" t="s">
+      <c r="A40" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="144"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
     </row>
     <row r="41" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="F41" s="135" t="s">
+      <c r="F41" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
     </row>
     <row r="42" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A42" s="17">
         <v>1</v>
       </c>
-      <c r="B42" s="136" t="s">
+      <c r="B42" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="123"/>
       <c r="E42" s="12">
         <v>0.02</v>
       </c>
-      <c r="F42" s="93"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
     </row>
     <row r="43" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A43" s="17">
         <v>2</v>
       </c>
-      <c r="B43" s="136" t="s">
+      <c r="B43" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="136"/>
-      <c r="D43" s="136"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
       <c r="E43" s="12">
         <v>0.02</v>
       </c>
-      <c r="F43" s="95"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="94"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="77"/>
     </row>
     <row r="44" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A44" s="17">
         <v>3</v>
       </c>
-      <c r="B44" s="136" t="s">
+      <c r="B44" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="123"/>
       <c r="E44" s="12">
         <v>0.02</v>
       </c>
-      <c r="F44" s="95"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="94"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="77"/>
     </row>
     <row r="45" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A45" s="17">
         <v>4</v>
       </c>
-      <c r="B45" s="136" t="s">
+      <c r="B45" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
       <c r="E45" s="12">
         <v>0.02</v>
       </c>
-      <c r="F45" s="95"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="94"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="77"/>
     </row>
     <row r="46" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A46" s="17">
         <v>5</v>
       </c>
-      <c r="B46" s="136" t="s">
+      <c r="B46" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="123"/>
       <c r="E46" s="12">
         <v>0.02</v>
       </c>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
     </row>
     <row r="47" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="133"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="166"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="166"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="153"/>
+      <c r="H47" s="153"/>
+      <c r="I47" s="153"/>
     </row>
     <row r="48" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="133"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="133"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="120"/>
       <c r="E48" s="17" t="s">
         <v>27</v>
       </c>
@@ -8108,102 +9012,108 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="70" customFormat="1" ht="15.75">
       <c r="A1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="171">
+      <c r="B1" s="158">
         <f>'Project Summary'!B2</f>
         <v>0</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
     </row>
     <row r="2" spans="1:14" s="70" customFormat="1" ht="15.75">
       <c r="A2" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="172" t="str">
+        <v>82</v>
+      </c>
+      <c r="B2" s="159" t="str">
         <f>'Project Summary'!B10</f>
         <v>Cyrus Wong</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
     </row>
     <row r="3" spans="1:14" s="70" customFormat="1" ht="15.75">
       <c r="A3" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="172" t="str">
+        <v>83</v>
+      </c>
+      <c r="B3" s="159" t="str">
         <f>'Project Summary'!B11&amp;"(Semester 1) /  "&amp;'Project Summary'!B12&amp;"(Semester 2)"</f>
         <v>Carmen Wong(Semester 1) /  Ada Yuen(Semester 2)</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
     </row>
     <row r="4" spans="1:14" s="70" customFormat="1" ht="73.150000000000006" customHeight="1">
       <c r="A4" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="172"/>
+        <v>84</v>
+      </c>
+      <c r="B4" s="160"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
     </row>
     <row r="5" spans="1:14" s="70" customFormat="1" ht="15">
       <c r="A5" s="73"/>
@@ -8221,335 +9131,347 @@
       <c r="M5" s="73"/>
       <c r="N5" s="73"/>
     </row>
-    <row r="6" spans="1:14" s="70" customFormat="1" ht="15.75">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="174" t="s">
+    <row r="6" spans="1:14" s="70" customFormat="1" ht="18">
+      <c r="A6" s="161"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="175" t="s">
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="175"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="176" t="s">
+      <c r="L6" s="164"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="164"/>
+    </row>
+    <row r="7" spans="1:14" s="70" customFormat="1" ht="18">
+      <c r="A7" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="176"/>
-      <c r="M6" s="176"/>
-      <c r="N6" s="176"/>
-    </row>
-    <row r="7" spans="1:14" s="70" customFormat="1" ht="15.75">
-      <c r="A7" s="177" t="s">
+      <c r="B7" s="166" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="178" t="s">
+      <c r="C7" s="167" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="179" t="s">
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+    </row>
+    <row r="8" spans="1:14" s="70" customFormat="1" ht="18">
+      <c r="A8" s="165"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="168">
+        <v>1</v>
+      </c>
+      <c r="D8" s="168">
+        <v>2</v>
+      </c>
+      <c r="E8" s="168">
+        <v>3</v>
+      </c>
+      <c r="F8" s="168">
+        <v>4</v>
+      </c>
+      <c r="G8" s="168">
+        <v>1</v>
+      </c>
+      <c r="H8" s="168">
+        <v>2</v>
+      </c>
+      <c r="I8" s="168">
+        <v>3</v>
+      </c>
+      <c r="J8" s="168">
+        <v>4</v>
+      </c>
+      <c r="K8" s="168">
+        <v>1</v>
+      </c>
+      <c r="L8" s="168">
+        <v>2</v>
+      </c>
+      <c r="M8" s="168">
+        <v>3</v>
+      </c>
+      <c r="N8" s="168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="70" customFormat="1" ht="18">
+      <c r="A9" s="169" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-    </row>
-    <row r="8" spans="1:14" s="70" customFormat="1" ht="15.75">
-      <c r="A8" s="177"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="74">
-        <v>1</v>
-      </c>
-      <c r="D8" s="74">
-        <v>2</v>
-      </c>
-      <c r="E8" s="74">
-        <v>3</v>
-      </c>
-      <c r="F8" s="74">
-        <v>4</v>
-      </c>
-      <c r="G8" s="74">
-        <v>1</v>
-      </c>
-      <c r="H8" s="74">
-        <v>2</v>
-      </c>
-      <c r="I8" s="74">
-        <v>3</v>
-      </c>
-      <c r="J8" s="74">
-        <v>4</v>
-      </c>
-      <c r="K8" s="74">
-        <v>1</v>
-      </c>
-      <c r="L8" s="74">
-        <v>2</v>
-      </c>
-      <c r="M8" s="74">
-        <v>3</v>
-      </c>
-      <c r="N8" s="74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="70" customFormat="1" ht="15.75">
-      <c r="A9" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="76">
+      <c r="B9" s="170">
         <v>0.1</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="171">
         <f>'Initial Report'!F26</f>
         <v>3.4</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="171">
         <f>'Initial Report'!G26</f>
         <v>4.2</v>
       </c>
-      <c r="E9" s="77" t="str">
+      <c r="E9" s="171" t="str">
         <f>'Initial Report'!H26</f>
         <v/>
       </c>
-      <c r="F9" s="77" t="str">
+      <c r="F9" s="171" t="str">
         <f>'Initial Report'!I26</f>
         <v/>
       </c>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="79">
-        <f>C9</f>
+      <c r="G9" s="172">
+        <f>'Initial Report_Co'!F26</f>
         <v>3.4</v>
       </c>
-      <c r="L9" s="79">
-        <f>D9</f>
+      <c r="H9" s="172">
+        <f>'Initial Report_Co'!G26</f>
         <v>4.2</v>
       </c>
-      <c r="M9" s="79" t="str">
-        <f>E9</f>
+      <c r="I9" s="172" t="str">
+        <f>'Initial Report_Co'!H26</f>
         <v/>
       </c>
-      <c r="N9" s="79" t="str">
-        <f>F9</f>
+      <c r="J9" s="172" t="str">
+        <f>'Initial Report_Co'!I26</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="70" customFormat="1" ht="47.25">
-      <c r="A10" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="76">
+      <c r="K9" s="173">
+        <f>(C9+G9)/2</f>
+        <v>3.4</v>
+      </c>
+      <c r="L9" s="173">
+        <f>(D9+H9)/2</f>
+        <v>4.2</v>
+      </c>
+      <c r="M9" s="173" t="e">
+        <f>(E9+I9)/2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N9" s="173" t="e">
+        <f t="shared" ref="N9" si="0">(F9+J9)/2</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="70" customFormat="1" ht="54">
+      <c r="A10" s="174" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="170">
         <v>0.3</v>
       </c>
-      <c r="C10" s="77">
+      <c r="C10" s="171">
         <f>'Interim Report'!F33</f>
         <v>12.737500000000001</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="171">
         <f>'Interim Report'!G33</f>
         <v>14.100000000000001</v>
       </c>
-      <c r="E10" s="77">
+      <c r="E10" s="171">
         <f>'Interim Report'!H33</f>
         <v>0</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="171">
         <f>'Interim Report'!I33</f>
         <v>0</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="175">
         <f>'Interim Report_Co'!F33</f>
         <v>12.6625</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="175">
         <f>'Interim Report_Co'!G33</f>
         <v>14.025</v>
       </c>
-      <c r="I10" s="78">
+      <c r="I10" s="175">
         <f>'Interim Report_Co'!H33</f>
         <v>0</v>
       </c>
-      <c r="J10" s="78">
+      <c r="J10" s="175">
         <f>'Interim Report_Co'!I33</f>
         <v>0</v>
       </c>
-      <c r="K10" s="79">
+      <c r="K10" s="173">
         <f>(C10+G10)/2</f>
         <v>12.7</v>
       </c>
-      <c r="L10" s="79">
-        <f t="shared" ref="K10:N11" si="0">(D10+H10)/2</f>
+      <c r="L10" s="173">
+        <f t="shared" ref="K10:N11" si="1">(D10+H10)/2</f>
         <v>14.0625</v>
       </c>
-      <c r="M10" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="79">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="70" customFormat="1" ht="47.25">
-      <c r="A11" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="76">
+      <c r="M10" s="173">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="173">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="70" customFormat="1" ht="90">
+      <c r="A11" s="174" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="170">
         <v>0.5</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="176">
         <f>Final_Report!F22+Final_Report!F23+Final_Report!F27+Final_Report!F38</f>
         <v>29.2</v>
       </c>
-      <c r="D11" s="88">
+      <c r="D11" s="176">
         <f>Final_Report!G22+Final_Report!G23+Final_Report!G27+Final_Report!G38</f>
         <v>29.4</v>
       </c>
-      <c r="E11" s="88" t="e">
+      <c r="E11" s="176" t="e">
         <f>Final_Report!H22+Final_Report!H23+Final_Report!H27+Final_Report!H38</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F11" s="88" t="e">
+      <c r="F11" s="176" t="e">
         <f>Final_Report!I22+Final_Report!I23+Final_Report!I27+Final_Report!I38</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="177">
         <f>Final_Report_Co!F22+Final_Report_Co!F23+Final_Report_Co!F27+Final_Report_Co!F38</f>
         <v>25.599999999999998</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="177">
         <f>Final_Report_Co!G22+Final_Report_Co!G23+Final_Report_Co!G27+Final_Report_Co!G38</f>
         <v>27.4</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="177">
         <f>Final_Report_Co!H22+Final_Report_Co!H23+Final_Report_Co!H27+Final_Report_Co!H38</f>
         <v>2.5</v>
       </c>
-      <c r="J11" s="90">
+      <c r="J11" s="177">
         <f>Final_Report_Co!I22+Final_Report_Co!I23+Final_Report_Co!I27+Final_Report_Co!I38</f>
         <v>2.5</v>
       </c>
-      <c r="K11" s="89">
-        <f t="shared" si="0"/>
+      <c r="K11" s="178">
+        <f t="shared" si="1"/>
         <v>27.4</v>
       </c>
-      <c r="L11" s="89">
-        <f t="shared" si="0"/>
+      <c r="L11" s="178">
+        <f t="shared" si="1"/>
         <v>28.4</v>
       </c>
-      <c r="M11" s="89" t="e">
-        <f t="shared" si="0"/>
+      <c r="M11" s="178" t="e">
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N11" s="89" t="e">
-        <f t="shared" si="0"/>
+      <c r="N11" s="178" t="e">
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="70" customFormat="1" ht="15.75">
-      <c r="A12" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="76">
+    <row r="12" spans="1:14" s="70" customFormat="1" ht="18">
+      <c r="A12" s="169" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="170">
         <v>0.1</v>
       </c>
-      <c r="C12" s="88">
+      <c r="C12" s="176">
         <f>Final_Report!F48</f>
         <v>4.8</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="176">
         <f>Final_Report!G48</f>
         <v>5.2</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="176">
         <f>Final_Report!H48</f>
         <v>0</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="176">
         <f>Final_Report!I48</f>
         <v>0</v>
       </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="87">
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="180">
         <f>C12</f>
         <v>4.8</v>
       </c>
-      <c r="L12" s="87">
+      <c r="L12" s="180">
         <f>D12</f>
         <v>5.2</v>
       </c>
-      <c r="M12" s="87">
+      <c r="M12" s="180">
         <f>E12</f>
         <v>0</v>
       </c>
-      <c r="N12" s="87">
+      <c r="N12" s="180">
         <f>F12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="86" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A13" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="82">
+    <row r="13" spans="1:14" s="74" customFormat="1" ht="18.75" thickBot="1">
+      <c r="A13" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="181">
         <f>SUM(B9:B12)</f>
         <v>1</v>
       </c>
-      <c r="C13" s="83">
+      <c r="C13" s="182">
         <f>SUM(C9:C12)</f>
         <v>50.137499999999996</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="182">
         <f>SUM(D9:D12)</f>
         <v>52.900000000000006</v>
       </c>
-      <c r="E13" s="83" t="e">
+      <c r="E13" s="182" t="e">
         <f>SUM(E9:E12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F13" s="83" t="e">
+      <c r="F13" s="182" t="e">
         <f>SUM(F9:F12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="85">
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="184">
         <f>SUM(K9:K12)</f>
         <v>48.3</v>
       </c>
-      <c r="L13" s="85">
+      <c r="L13" s="184">
         <f>SUM(L9:L12)</f>
         <v>51.862499999999997</v>
       </c>
-      <c r="M13" s="85" t="e">
+      <c r="M13" s="184" t="e">
         <f>SUM(M9:M12)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N13" s="85" t="e">
+      <c r="N13" s="184" t="e">
         <f>SUM(N9:N12)</f>
         <v>#VALUE!</v>
       </c>
@@ -8666,5 +9588,6 @@
     <mergeCell ref="K6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IT114115_FYP_MarkSheet_Template.xlsx
+++ b/IT114115_FYP_MarkSheet_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyrus\Documents\GitHub\IVEAutomationTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\IVE\Course\NHD Project\1819\Marksheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1364,7 +1364,12 @@
     <xf numFmtId="165" fontId="3" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1374,20 +1379,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1402,19 +1396,34 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1440,13 +1449,29 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1459,52 +1484,24 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1524,11 +1521,14 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1845,8 +1845,8 @@
   <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1913,7 +1913,7 @@
       <c r="H3" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="177" t="s">
+      <c r="I3" s="130" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       <c r="H4" s="93">
         <v>1</v>
       </c>
-      <c r="I4" s="178"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="88" t="s">
@@ -1974,7 +1974,7 @@
         <f>SUM(D5:G5)</f>
         <v>44</v>
       </c>
-      <c r="I5" s="178" t="str">
+      <c r="I5" s="131" t="str">
         <f>IF(H5&gt;=74.1,"A",IF(H5&gt;=69.1,"A-",IF(H5&gt;=66.1,"B+", IF(H5&gt;=62.1, "B", IF(H5&gt;=59.1, "B-", IF(H5&gt;=56.1, "C+", IF(H5&gt;=52.1, "C", IF(H5&gt;=49.1, "C-", IF(H5&gt;=45.1, "D+", IF(H5&gt;=39.1, "D", IF(H5&gt;=0, "F"))))))) ))))</f>
         <v>D</v>
       </c>
@@ -2009,7 +2009,7 @@
         <f t="shared" ref="H6:H8" si="0">SUM(D6:G6)</f>
         <v>44</v>
       </c>
-      <c r="I6" s="178" t="str">
+      <c r="I6" s="131" t="str">
         <f t="shared" ref="I6:I8" si="1">IF(H6&gt;=74.1,"A",IF(H6&gt;=69.1,"A-",IF(H6&gt;=66.1,"B+", IF(H6&gt;=62.1, "B", IF(H6&gt;=59.1, "B-", IF(H6&gt;=56.1, "C+", IF(H6&gt;=52.1, "C", IF(H6&gt;=49.1, "C-", IF(H6&gt;=45.1, "D+", IF(H6&gt;=39.1, "D", IF(H6&gt;=0, "F"))))))) ))))</f>
         <v>D</v>
       </c>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D7" s="86">
         <f>Finalize!M9</f>
-        <v>4.25</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E7" s="86">
         <f>Finalize!M10</f>
@@ -2042,9 +2042,9 @@
       </c>
       <c r="H7" s="86">
         <f t="shared" si="0"/>
-        <v>43.599999999999994</v>
-      </c>
-      <c r="I7" s="178" t="str">
+        <v>44</v>
+      </c>
+      <c r="I7" s="131" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="D8" s="86">
         <f>Finalize!N9</f>
-        <v>4.25</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E8" s="86">
         <f>Finalize!N10</f>
@@ -2077,9 +2077,9 @@
       </c>
       <c r="H8" s="86">
         <f t="shared" si="0"/>
-        <v>43.599999999999994</v>
-      </c>
-      <c r="I8" s="178" t="str">
+        <v>44</v>
+      </c>
+      <c r="I8" s="131" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
@@ -2154,25 +2154,25 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="131"/>
-      <c r="B16" s="132" t="s">
+      <c r="A16" s="132"/>
+      <c r="B16" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
       <c r="E16" s="80"/>
-      <c r="F16" s="133" t="s">
+      <c r="F16" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
     </row>
     <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="131"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
       <c r="E17" s="35" t="s">
         <v>0</v>
       </c>
@@ -2206,11 +2206,11 @@
       <c r="A19" s="17">
         <v>1</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2231,11 +2231,11 @@
       <c r="A20" s="17">
         <v>2</v>
       </c>
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
       <c r="E20" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2256,11 +2256,11 @@
       <c r="A21" s="17">
         <v>3</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
       <c r="E21" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2270,22 +2270,22 @@
       <c r="G21" s="40">
         <v>5</v>
       </c>
-      <c r="H21" s="39">
-        <v>0</v>
-      </c>
-      <c r="I21" s="39">
-        <v>0</v>
+      <c r="H21" s="40">
+        <v>5</v>
+      </c>
+      <c r="I21" s="40">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickBot="1">
       <c r="A22" s="17">
         <v>4</v>
       </c>
-      <c r="B22" s="130" t="s">
+      <c r="B22" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2306,11 +2306,11 @@
       <c r="A23" s="17">
         <v>5</v>
       </c>
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
       <c r="E23" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2344,11 +2344,11 @@
       <c r="A25" s="77">
         <v>6</v>
       </c>
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
       <c r="E25" s="38">
         <v>0.01</v>
       </c>
@@ -2369,11 +2369,11 @@
       <c r="A26" s="17">
         <v>7</v>
       </c>
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
       <c r="E26" s="38">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -2394,11 +2394,11 @@
       <c r="A27" s="77">
         <v>8</v>
       </c>
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
       <c r="E27" s="38">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -2429,25 +2429,25 @@
       <c r="I28" s="41"/>
     </row>
     <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="131"/>
-      <c r="B29" s="132" t="s">
+      <c r="A29" s="132"/>
+      <c r="B29" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
       <c r="E29" s="109"/>
-      <c r="F29" s="133" t="s">
+      <c r="F29" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
     </row>
     <row r="30" spans="1:9" ht="15.75">
-      <c r="A30" s="131"/>
-      <c r="B30" s="132"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
+      <c r="A30" s="132"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
       <c r="E30" s="35" t="s">
         <v>0</v>
       </c>
@@ -2481,11 +2481,11 @@
       <c r="A32" s="17">
         <v>1</v>
       </c>
-      <c r="B32" s="130" t="s">
+      <c r="B32" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
       <c r="E32" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2506,11 +2506,11 @@
       <c r="A33" s="17">
         <v>2</v>
       </c>
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
       <c r="E33" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2531,11 +2531,11 @@
       <c r="A34" s="17">
         <v>3</v>
       </c>
-      <c r="B34" s="130" t="s">
+      <c r="B34" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
       <c r="E34" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2556,11 +2556,11 @@
       <c r="A35" s="17">
         <v>4</v>
       </c>
-      <c r="B35" s="130" t="s">
+      <c r="B35" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
       <c r="E35" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2581,11 +2581,11 @@
       <c r="A36" s="17">
         <v>5</v>
       </c>
-      <c r="B36" s="131" t="s">
+      <c r="B36" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
       <c r="E36" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2619,11 +2619,11 @@
       <c r="A38" s="108">
         <v>6</v>
       </c>
-      <c r="B38" s="130" t="s">
+      <c r="B38" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
       <c r="E38" s="38">
         <v>0.01</v>
       </c>
@@ -2644,11 +2644,11 @@
       <c r="A39" s="17">
         <v>7</v>
       </c>
-      <c r="B39" s="130" t="s">
+      <c r="B39" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
       <c r="E39" s="38">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -2669,11 +2669,11 @@
       <c r="A40" s="108">
         <v>8</v>
       </c>
-      <c r="B40" s="130" t="s">
+      <c r="B40" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
       <c r="E40" s="38">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -2696,38 +2696,38 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="18.75">
-      <c r="A42" s="139" t="s">
+      <c r="A42" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="139"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="137"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
     </row>
     <row r="43" spans="1:9" ht="15.75">
-      <c r="A43" s="140"/>
-      <c r="B43" s="141" t="s">
+      <c r="A43" s="138"/>
+      <c r="B43" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="141"/>
-      <c r="D43" s="141"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="139"/>
       <c r="E43" s="78"/>
-      <c r="F43" s="133" t="s">
+      <c r="F43" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="134"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A44" s="140"/>
-      <c r="B44" s="141"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="141"/>
+      <c r="A44" s="138"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
       <c r="E44" s="78" t="s">
         <v>0</v>
       </c>
@@ -2748,11 +2748,11 @@
       <c r="A45" s="55">
         <v>1</v>
       </c>
-      <c r="B45" s="142" t="s">
+      <c r="B45" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="142"/>
-      <c r="D45" s="142"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
       <c r="E45" s="56">
         <v>0.03</v>
       </c>
@@ -2773,11 +2773,11 @@
       <c r="A46" s="55">
         <v>2</v>
       </c>
-      <c r="B46" s="144" t="s">
+      <c r="B46" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="144"/>
-      <c r="D46" s="144"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="140"/>
       <c r="E46" s="56">
         <v>0.06</v>
       </c>
@@ -2798,11 +2798,11 @@
       <c r="A47" s="55">
         <v>3</v>
       </c>
-      <c r="B47" s="142" t="s">
+      <c r="B47" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="136"/>
       <c r="E47" s="56">
         <v>0.02</v>
       </c>
@@ -2823,11 +2823,11 @@
       <c r="A48" s="55">
         <v>4</v>
       </c>
-      <c r="B48" s="144" t="s">
+      <c r="B48" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="144"/>
-      <c r="D48" s="144"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="140"/>
       <c r="E48" s="59">
         <v>0.02</v>
       </c>
@@ -2848,11 +2848,11 @@
       <c r="A49" s="55">
         <v>5</v>
       </c>
-      <c r="B49" s="140" t="s">
+      <c r="B49" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="140"/>
-      <c r="D49" s="140"/>
+      <c r="C49" s="138"/>
+      <c r="D49" s="138"/>
       <c r="E49" s="59">
         <v>0.02</v>
       </c>
@@ -2873,11 +2873,11 @@
       <c r="A50" s="55">
         <v>6</v>
       </c>
-      <c r="B50" s="145" t="s">
+      <c r="B50" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="145"/>
-      <c r="D50" s="145"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="141"/>
       <c r="E50" s="59">
         <v>0.1</v>
       </c>
@@ -2898,11 +2898,11 @@
       <c r="A51" s="55">
         <v>7</v>
       </c>
-      <c r="B51" s="143" t="s">
+      <c r="B51" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="143"/>
-      <c r="D51" s="143"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="142"/>
       <c r="E51" s="59">
         <v>0.02</v>
       </c>
@@ -2920,17 +2920,17 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="18.75">
-      <c r="A53" s="139" t="s">
+      <c r="A53" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="139"/>
-      <c r="C53" s="139"/>
-      <c r="D53" s="139"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="139"/>
-      <c r="H53" s="139"/>
-      <c r="I53" s="139"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="137"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" thickBot="1">
       <c r="A54" s="46"/>
@@ -2938,22 +2938,22 @@
       <c r="C54" s="46"/>
       <c r="D54" s="46"/>
       <c r="E54" s="46"/>
-      <c r="F54" s="133" t="s">
+      <c r="F54" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G54" s="133"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="133"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="134"/>
+      <c r="I54" s="134"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" thickBot="1">
       <c r="A55" s="55">
         <v>1</v>
       </c>
-      <c r="B55" s="142" t="s">
+      <c r="B55" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="142"/>
-      <c r="D55" s="142"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="136"/>
       <c r="E55" s="63">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -2974,11 +2974,11 @@
       <c r="A56" s="55">
         <v>2</v>
       </c>
-      <c r="B56" s="142" t="s">
+      <c r="B56" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="142"/>
-      <c r="D56" s="142"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
       <c r="E56" s="63">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -2999,11 +2999,11 @@
       <c r="A57" s="55">
         <v>3</v>
       </c>
-      <c r="B57" s="142" t="s">
+      <c r="B57" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="142"/>
-      <c r="D57" s="142"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="136"/>
       <c r="E57" s="63">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -3024,11 +3024,11 @@
       <c r="A58" s="55">
         <v>3</v>
       </c>
-      <c r="B58" s="142" t="s">
+      <c r="B58" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="142"/>
-      <c r="D58" s="142"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="136"/>
       <c r="E58" s="63">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -3051,38 +3051,38 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="18.75">
-      <c r="A60" s="139" t="s">
+      <c r="A60" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="139"/>
-      <c r="C60" s="139"/>
-      <c r="D60" s="139"/>
-      <c r="E60" s="139"/>
-      <c r="F60" s="139"/>
-      <c r="G60" s="139"/>
-      <c r="H60" s="139"/>
-      <c r="I60" s="139"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
     </row>
     <row r="61" spans="1:9" ht="15.75">
-      <c r="A61" s="140"/>
-      <c r="B61" s="141" t="s">
+      <c r="A61" s="138"/>
+      <c r="B61" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="141"/>
-      <c r="D61" s="141"/>
+      <c r="C61" s="139"/>
+      <c r="D61" s="139"/>
       <c r="E61" s="78"/>
-      <c r="F61" s="133" t="s">
+      <c r="F61" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G61" s="133"/>
-      <c r="H61" s="133"/>
-      <c r="I61" s="133"/>
+      <c r="G61" s="134"/>
+      <c r="H61" s="134"/>
+      <c r="I61" s="134"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A62" s="140"/>
-      <c r="B62" s="141"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="141"/>
+      <c r="A62" s="138"/>
+      <c r="B62" s="139"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
       <c r="E62" s="78" t="s">
         <v>0</v>
       </c>
@@ -3103,11 +3103,11 @@
       <c r="A63" s="55">
         <v>1</v>
       </c>
-      <c r="B63" s="142" t="s">
+      <c r="B63" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="142"/>
-      <c r="D63" s="142"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="136"/>
       <c r="E63" s="56">
         <v>0.03</v>
       </c>
@@ -3128,11 +3128,11 @@
       <c r="A64" s="55">
         <v>2</v>
       </c>
-      <c r="B64" s="144" t="s">
+      <c r="B64" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="144"/>
-      <c r="D64" s="144"/>
+      <c r="C64" s="140"/>
+      <c r="D64" s="140"/>
       <c r="E64" s="56">
         <v>0.06</v>
       </c>
@@ -3153,11 +3153,11 @@
       <c r="A65" s="55">
         <v>3</v>
       </c>
-      <c r="B65" s="142" t="s">
+      <c r="B65" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="142"/>
-      <c r="D65" s="142"/>
+      <c r="C65" s="136"/>
+      <c r="D65" s="136"/>
       <c r="E65" s="56">
         <v>0.02</v>
       </c>
@@ -3178,11 +3178,11 @@
       <c r="A66" s="55">
         <v>4</v>
       </c>
-      <c r="B66" s="144" t="s">
+      <c r="B66" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="144"/>
-      <c r="D66" s="144"/>
+      <c r="C66" s="140"/>
+      <c r="D66" s="140"/>
       <c r="E66" s="59">
         <v>0.02</v>
       </c>
@@ -3203,11 +3203,11 @@
       <c r="A67" s="55">
         <v>5</v>
       </c>
-      <c r="B67" s="140" t="s">
+      <c r="B67" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="140"/>
-      <c r="D67" s="140"/>
+      <c r="C67" s="138"/>
+      <c r="D67" s="138"/>
       <c r="E67" s="59">
         <v>0.02</v>
       </c>
@@ -3228,11 +3228,11 @@
       <c r="A68" s="55">
         <v>6</v>
       </c>
-      <c r="B68" s="145" t="s">
+      <c r="B68" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="145"/>
-      <c r="D68" s="145"/>
+      <c r="C68" s="141"/>
+      <c r="D68" s="141"/>
       <c r="E68" s="59">
         <v>0.1</v>
       </c>
@@ -3253,11 +3253,11 @@
       <c r="A69" s="55">
         <v>7</v>
       </c>
-      <c r="B69" s="143" t="s">
+      <c r="B69" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="143"/>
-      <c r="D69" s="143"/>
+      <c r="C69" s="142"/>
+      <c r="D69" s="142"/>
       <c r="E69" s="59">
         <v>0.02</v>
       </c>
@@ -3275,17 +3275,17 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="18.75">
-      <c r="A70" s="139" t="s">
+      <c r="A70" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="139"/>
-      <c r="C70" s="139"/>
-      <c r="D70" s="139"/>
-      <c r="E70" s="139"/>
-      <c r="F70" s="139"/>
-      <c r="G70" s="139"/>
-      <c r="H70" s="139"/>
-      <c r="I70" s="139"/>
+      <c r="B70" s="137"/>
+      <c r="C70" s="137"/>
+      <c r="D70" s="137"/>
+      <c r="E70" s="137"/>
+      <c r="F70" s="137"/>
+      <c r="G70" s="137"/>
+      <c r="H70" s="137"/>
+      <c r="I70" s="137"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" thickBot="1">
       <c r="A71" s="46"/>
@@ -3293,22 +3293,22 @@
       <c r="C71" s="46"/>
       <c r="D71" s="46"/>
       <c r="E71" s="46"/>
-      <c r="F71" s="133" t="s">
+      <c r="F71" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G71" s="133"/>
-      <c r="H71" s="133"/>
-      <c r="I71" s="133"/>
+      <c r="G71" s="134"/>
+      <c r="H71" s="134"/>
+      <c r="I71" s="134"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" thickBot="1">
       <c r="A72" s="55">
         <v>1</v>
       </c>
-      <c r="B72" s="142" t="s">
+      <c r="B72" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="142"/>
-      <c r="D72" s="142"/>
+      <c r="C72" s="136"/>
+      <c r="D72" s="136"/>
       <c r="E72" s="63">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -3329,11 +3329,11 @@
       <c r="A73" s="55">
         <v>2</v>
       </c>
-      <c r="B73" s="142" t="s">
+      <c r="B73" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="142"/>
-      <c r="D73" s="142"/>
+      <c r="C73" s="136"/>
+      <c r="D73" s="136"/>
       <c r="E73" s="63">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -3354,11 +3354,11 @@
       <c r="A74" s="55">
         <v>3</v>
       </c>
-      <c r="B74" s="142" t="s">
+      <c r="B74" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="142"/>
-      <c r="D74" s="142"/>
+      <c r="C74" s="136"/>
+      <c r="D74" s="136"/>
       <c r="E74" s="63">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -3379,11 +3379,11 @@
       <c r="A75" s="55">
         <v>3</v>
       </c>
-      <c r="B75" s="142" t="s">
+      <c r="B75" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="142"/>
-      <c r="D75" s="142"/>
+      <c r="C75" s="136"/>
+      <c r="D75" s="136"/>
       <c r="E75" s="63">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -3406,23 +3406,23 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="18.75">
-      <c r="A77" s="136" t="s">
+      <c r="A77" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="136"/>
-      <c r="C77" s="136"/>
-      <c r="D77" s="136"/>
-      <c r="E77" s="136"/>
-      <c r="F77" s="136"/>
-      <c r="G77" s="136"/>
-      <c r="H77" s="136"/>
-      <c r="I77" s="136"/>
+      <c r="B77" s="143"/>
+      <c r="C77" s="143"/>
+      <c r="D77" s="143"/>
+      <c r="E77" s="143"/>
+      <c r="F77" s="143"/>
+      <c r="G77" s="143"/>
+      <c r="H77" s="143"/>
+      <c r="I77" s="143"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" thickBot="1">
       <c r="A78" s="77"/>
-      <c r="B78" s="138"/>
-      <c r="C78" s="138"/>
-      <c r="D78" s="138"/>
+      <c r="B78" s="144"/>
+      <c r="C78" s="144"/>
+      <c r="D78" s="144"/>
       <c r="E78" s="80" t="s">
         <v>0</v>
       </c>
@@ -3437,11 +3437,11 @@
       <c r="A79" s="11">
         <v>1</v>
       </c>
-      <c r="B79" s="130" t="s">
+      <c r="B79" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="130"/>
-      <c r="D79" s="130"/>
+      <c r="C79" s="135"/>
+      <c r="D79" s="135"/>
       <c r="E79" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -3456,11 +3456,11 @@
       <c r="A80" s="11">
         <v>2</v>
       </c>
-      <c r="B80" s="137" t="s">
+      <c r="B80" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="130"/>
-      <c r="D80" s="130"/>
+      <c r="C80" s="135"/>
+      <c r="D80" s="135"/>
       <c r="E80" s="12">
         <v>0.03</v>
       </c>
@@ -3475,11 +3475,11 @@
       <c r="A81" s="11">
         <v>3</v>
       </c>
-      <c r="B81" s="137" t="s">
+      <c r="B81" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="130"/>
-      <c r="D81" s="130"/>
+      <c r="C81" s="135"/>
+      <c r="D81" s="135"/>
       <c r="E81" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -3494,11 +3494,11 @@
       <c r="A82" s="11">
         <v>4</v>
       </c>
-      <c r="B82" s="131" t="s">
+      <c r="B82" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C82" s="131"/>
-      <c r="D82" s="131"/>
+      <c r="C82" s="132"/>
+      <c r="D82" s="132"/>
       <c r="E82" s="12">
         <v>0.03</v>
       </c>
@@ -3513,11 +3513,11 @@
       <c r="A83" s="11">
         <v>5</v>
       </c>
-      <c r="B83" s="131" t="s">
+      <c r="B83" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="132"/>
       <c r="E83" s="12">
         <v>0.03</v>
       </c>
@@ -3574,22 +3574,22 @@
       <c r="C87" s="77"/>
       <c r="D87" s="77"/>
       <c r="E87" s="17"/>
-      <c r="F87" s="133" t="s">
+      <c r="F87" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G87" s="133"/>
-      <c r="H87" s="133"/>
-      <c r="I87" s="133"/>
+      <c r="G87" s="134"/>
+      <c r="H87" s="134"/>
+      <c r="I87" s="134"/>
     </row>
     <row r="88" spans="1:10" ht="16.5" thickBot="1">
       <c r="A88" s="11">
         <v>6</v>
       </c>
-      <c r="B88" s="134" t="s">
+      <c r="B88" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="C88" s="135"/>
-      <c r="D88" s="135"/>
+      <c r="C88" s="147"/>
+      <c r="D88" s="147"/>
       <c r="E88" s="27">
         <v>0.3</v>
       </c>
@@ -3607,17 +3607,17 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="18.75">
-      <c r="A90" s="136" t="s">
+      <c r="A90" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="B90" s="136"/>
-      <c r="C90" s="136"/>
-      <c r="D90" s="136"/>
-      <c r="E90" s="136"/>
-      <c r="F90" s="136"/>
-      <c r="G90" s="136"/>
-      <c r="H90" s="136"/>
-      <c r="I90" s="136"/>
+      <c r="B90" s="143"/>
+      <c r="C90" s="143"/>
+      <c r="D90" s="143"/>
+      <c r="E90" s="143"/>
+      <c r="F90" s="143"/>
+      <c r="G90" s="143"/>
+      <c r="H90" s="143"/>
+      <c r="I90" s="143"/>
     </row>
     <row r="91" spans="1:10" ht="16.5" thickBot="1">
       <c r="A91" s="7"/>
@@ -3625,22 +3625,22 @@
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
-      <c r="F91" s="133" t="s">
+      <c r="F91" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G91" s="133"/>
-      <c r="H91" s="133"/>
-      <c r="I91" s="133"/>
+      <c r="G91" s="134"/>
+      <c r="H91" s="134"/>
+      <c r="I91" s="134"/>
     </row>
     <row r="92" spans="1:10" ht="16.5" thickBot="1">
       <c r="A92" s="11">
         <v>1</v>
       </c>
-      <c r="B92" s="137" t="s">
+      <c r="B92" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="130"/>
-      <c r="D92" s="130"/>
+      <c r="C92" s="135"/>
+      <c r="D92" s="135"/>
       <c r="E92" s="30">
         <v>0.01</v>
       </c>
@@ -3661,11 +3661,11 @@
       <c r="A93" s="11">
         <v>2</v>
       </c>
-      <c r="B93" s="130" t="s">
+      <c r="B93" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="130"/>
-      <c r="D93" s="130"/>
+      <c r="C93" s="135"/>
+      <c r="D93" s="135"/>
       <c r="E93" s="30">
         <v>0.01</v>
       </c>
@@ -3686,11 +3686,11 @@
       <c r="A94" s="11">
         <v>3</v>
       </c>
-      <c r="B94" s="130" t="s">
+      <c r="B94" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="C94" s="130"/>
-      <c r="D94" s="130"/>
+      <c r="C94" s="135"/>
+      <c r="D94" s="135"/>
       <c r="E94" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3711,11 +3711,11 @@
       <c r="A95" s="11">
         <v>4</v>
       </c>
-      <c r="B95" s="130" t="s">
+      <c r="B95" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="C95" s="130"/>
-      <c r="D95" s="130"/>
+      <c r="C95" s="135"/>
+      <c r="D95" s="135"/>
       <c r="E95" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3736,11 +3736,11 @@
       <c r="A96" s="11">
         <v>5</v>
       </c>
-      <c r="B96" s="130" t="s">
+      <c r="B96" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="130"/>
-      <c r="D96" s="130"/>
+      <c r="C96" s="135"/>
+      <c r="D96" s="135"/>
       <c r="E96" s="30">
         <v>0.01</v>
       </c>
@@ -3761,11 +3761,11 @@
       <c r="A97" s="11">
         <v>6</v>
       </c>
-      <c r="B97" s="130" t="s">
+      <c r="B97" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="C97" s="130"/>
-      <c r="D97" s="130"/>
+      <c r="C97" s="135"/>
+      <c r="D97" s="135"/>
       <c r="E97" s="30">
         <v>0.01</v>
       </c>
@@ -3783,17 +3783,17 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="18.75">
-      <c r="A99" s="136" t="s">
+      <c r="A99" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="B99" s="136"/>
-      <c r="C99" s="136"/>
-      <c r="D99" s="136"/>
-      <c r="E99" s="136"/>
-      <c r="F99" s="136"/>
-      <c r="G99" s="136"/>
-      <c r="H99" s="136"/>
-      <c r="I99" s="136"/>
+      <c r="B99" s="143"/>
+      <c r="C99" s="143"/>
+      <c r="D99" s="143"/>
+      <c r="E99" s="143"/>
+      <c r="F99" s="143"/>
+      <c r="G99" s="143"/>
+      <c r="H99" s="143"/>
+      <c r="I99" s="143"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" thickBot="1">
       <c r="A100" s="7"/>
@@ -3801,22 +3801,22 @@
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="133" t="s">
+      <c r="F100" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G100" s="133"/>
-      <c r="H100" s="133"/>
-      <c r="I100" s="133"/>
+      <c r="G100" s="134"/>
+      <c r="H100" s="134"/>
+      <c r="I100" s="134"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" thickBot="1">
       <c r="A101" s="17">
         <v>1</v>
       </c>
-      <c r="B101" s="130" t="s">
+      <c r="B101" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="C101" s="130"/>
-      <c r="D101" s="130"/>
+      <c r="C101" s="135"/>
+      <c r="D101" s="135"/>
       <c r="E101" s="12">
         <v>0.02</v>
       </c>
@@ -3837,11 +3837,11 @@
       <c r="A102" s="17">
         <v>2</v>
       </c>
-      <c r="B102" s="130" t="s">
+      <c r="B102" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C102" s="130"/>
-      <c r="D102" s="130"/>
+      <c r="C102" s="135"/>
+      <c r="D102" s="135"/>
       <c r="E102" s="12">
         <v>0.02</v>
       </c>
@@ -3862,11 +3862,11 @@
       <c r="A103" s="17">
         <v>3</v>
       </c>
-      <c r="B103" s="130" t="s">
+      <c r="B103" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="130"/>
-      <c r="D103" s="130"/>
+      <c r="C103" s="135"/>
+      <c r="D103" s="135"/>
       <c r="E103" s="12">
         <v>0.02</v>
       </c>
@@ -3887,11 +3887,11 @@
       <c r="A104" s="17">
         <v>4</v>
       </c>
-      <c r="B104" s="130" t="s">
+      <c r="B104" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C104" s="130"/>
-      <c r="D104" s="130"/>
+      <c r="C104" s="135"/>
+      <c r="D104" s="135"/>
       <c r="E104" s="12">
         <v>0.02</v>
       </c>
@@ -3912,11 +3912,11 @@
       <c r="A105" s="17">
         <v>5</v>
       </c>
-      <c r="B105" s="130" t="s">
+      <c r="B105" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="C105" s="130"/>
-      <c r="D105" s="130"/>
+      <c r="C105" s="135"/>
+      <c r="D105" s="135"/>
       <c r="E105" s="12">
         <v>0.02</v>
       </c>
@@ -3939,23 +3939,23 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="18.75">
-      <c r="A107" s="136" t="s">
+      <c r="A107" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="B107" s="136"/>
-      <c r="C107" s="136"/>
-      <c r="D107" s="136"/>
-      <c r="E107" s="136"/>
-      <c r="F107" s="136"/>
-      <c r="G107" s="136"/>
-      <c r="H107" s="136"/>
-      <c r="I107" s="136"/>
+      <c r="B107" s="143"/>
+      <c r="C107" s="143"/>
+      <c r="D107" s="143"/>
+      <c r="E107" s="143"/>
+      <c r="F107" s="143"/>
+      <c r="G107" s="143"/>
+      <c r="H107" s="143"/>
+      <c r="I107" s="143"/>
     </row>
     <row r="108" spans="1:9" ht="16.5" thickBot="1">
       <c r="A108" s="77"/>
-      <c r="B108" s="138"/>
-      <c r="C108" s="138"/>
-      <c r="D108" s="138"/>
+      <c r="B108" s="144"/>
+      <c r="C108" s="144"/>
+      <c r="D108" s="144"/>
       <c r="E108" s="80" t="s">
         <v>0</v>
       </c>
@@ -3970,11 +3970,11 @@
       <c r="A109" s="11">
         <v>1</v>
       </c>
-      <c r="B109" s="130" t="s">
+      <c r="B109" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="130"/>
-      <c r="D109" s="130"/>
+      <c r="C109" s="135"/>
+      <c r="D109" s="135"/>
       <c r="E109" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -3989,11 +3989,11 @@
       <c r="A110" s="11">
         <v>2</v>
       </c>
-      <c r="B110" s="137" t="s">
+      <c r="B110" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="C110" s="130"/>
-      <c r="D110" s="130"/>
+      <c r="C110" s="135"/>
+      <c r="D110" s="135"/>
       <c r="E110" s="12">
         <v>0.03</v>
       </c>
@@ -4008,11 +4008,11 @@
       <c r="A111" s="11">
         <v>3</v>
       </c>
-      <c r="B111" s="137" t="s">
+      <c r="B111" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C111" s="130"/>
-      <c r="D111" s="130"/>
+      <c r="C111" s="135"/>
+      <c r="D111" s="135"/>
       <c r="E111" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -4027,11 +4027,11 @@
       <c r="A112" s="11">
         <v>4</v>
       </c>
-      <c r="B112" s="131" t="s">
+      <c r="B112" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C112" s="131"/>
-      <c r="D112" s="131"/>
+      <c r="C112" s="132"/>
+      <c r="D112" s="132"/>
       <c r="E112" s="12">
         <v>0.03</v>
       </c>
@@ -4046,11 +4046,11 @@
       <c r="A113" s="11">
         <v>5</v>
       </c>
-      <c r="B113" s="131" t="s">
+      <c r="B113" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="C113" s="131"/>
-      <c r="D113" s="131"/>
+      <c r="C113" s="132"/>
+      <c r="D113" s="132"/>
       <c r="E113" s="12">
         <v>0.03</v>
       </c>
@@ -4098,22 +4098,22 @@
       <c r="C116" s="21"/>
       <c r="D116" s="22"/>
       <c r="E116" s="23"/>
-      <c r="F116" s="133" t="s">
+      <c r="F116" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G116" s="133"/>
-      <c r="H116" s="133"/>
-      <c r="I116" s="133"/>
+      <c r="G116" s="134"/>
+      <c r="H116" s="134"/>
+      <c r="I116" s="134"/>
     </row>
     <row r="117" spans="1:10" ht="16.5" thickBot="1">
       <c r="A117" s="11">
         <v>6</v>
       </c>
-      <c r="B117" s="134" t="s">
+      <c r="B117" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="C117" s="135"/>
-      <c r="D117" s="135"/>
+      <c r="C117" s="147"/>
+      <c r="D117" s="147"/>
       <c r="E117" s="27">
         <v>0.3</v>
       </c>
@@ -4131,17 +4131,17 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="18.75">
-      <c r="A119" s="136" t="s">
+      <c r="A119" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="B119" s="136"/>
-      <c r="C119" s="136"/>
-      <c r="D119" s="136"/>
-      <c r="E119" s="136"/>
-      <c r="F119" s="136"/>
-      <c r="G119" s="136"/>
-      <c r="H119" s="136"/>
-      <c r="I119" s="136"/>
+      <c r="B119" s="143"/>
+      <c r="C119" s="143"/>
+      <c r="D119" s="143"/>
+      <c r="E119" s="143"/>
+      <c r="F119" s="143"/>
+      <c r="G119" s="143"/>
+      <c r="H119" s="143"/>
+      <c r="I119" s="143"/>
     </row>
     <row r="120" spans="1:10" ht="16.5" thickBot="1">
       <c r="A120" s="7"/>
@@ -4149,22 +4149,22 @@
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
-      <c r="F120" s="133" t="s">
+      <c r="F120" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G120" s="133"/>
-      <c r="H120" s="133"/>
-      <c r="I120" s="133"/>
+      <c r="G120" s="134"/>
+      <c r="H120" s="134"/>
+      <c r="I120" s="134"/>
     </row>
     <row r="121" spans="1:10" ht="16.5" thickBot="1">
       <c r="A121" s="11">
         <v>1</v>
       </c>
-      <c r="B121" s="137" t="s">
+      <c r="B121" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="C121" s="130"/>
-      <c r="D121" s="130"/>
+      <c r="C121" s="135"/>
+      <c r="D121" s="135"/>
       <c r="E121" s="30">
         <v>0.01</v>
       </c>
@@ -4185,11 +4185,11 @@
       <c r="A122" s="11">
         <v>2</v>
       </c>
-      <c r="B122" s="130" t="s">
+      <c r="B122" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="130"/>
-      <c r="D122" s="130"/>
+      <c r="C122" s="135"/>
+      <c r="D122" s="135"/>
       <c r="E122" s="30">
         <v>0.01</v>
       </c>
@@ -4210,11 +4210,11 @@
       <c r="A123" s="11">
         <v>3</v>
       </c>
-      <c r="B123" s="130" t="s">
+      <c r="B123" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="C123" s="130"/>
-      <c r="D123" s="130"/>
+      <c r="C123" s="135"/>
+      <c r="D123" s="135"/>
       <c r="E123" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -4235,11 +4235,11 @@
       <c r="A124" s="11">
         <v>4</v>
       </c>
-      <c r="B124" s="130" t="s">
+      <c r="B124" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="C124" s="130"/>
-      <c r="D124" s="130"/>
+      <c r="C124" s="135"/>
+      <c r="D124" s="135"/>
       <c r="E124" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -4260,11 +4260,11 @@
       <c r="A125" s="11">
         <v>5</v>
       </c>
-      <c r="B125" s="130" t="s">
+      <c r="B125" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="C125" s="130"/>
-      <c r="D125" s="130"/>
+      <c r="C125" s="135"/>
+      <c r="D125" s="135"/>
       <c r="E125" s="30">
         <v>0.01</v>
       </c>
@@ -4285,11 +4285,11 @@
       <c r="A126" s="11">
         <v>6</v>
       </c>
-      <c r="B126" s="130" t="s">
+      <c r="B126" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="C126" s="130"/>
-      <c r="D126" s="130"/>
+      <c r="C126" s="135"/>
+      <c r="D126" s="135"/>
       <c r="E126" s="30">
         <v>0.01</v>
       </c>
@@ -4317,6 +4317,87 @@
     <protectedRange password="DB87" sqref="A70:I70 A71:E75" name="Range1_11"/>
   </protectedRanges>
   <mergeCells count="97">
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="A107:I107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="A99:I99"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:D17"/>
     <mergeCell ref="F16:I16"/>
@@ -4333,87 +4414,6 @@
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="B43:D44"/>
     <mergeCell ref="F43:I43"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="A99:I99"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="A90:I90"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="A107:I107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="A119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4439,45 +4439,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" customHeight="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="3"/>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="3"/>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
@@ -4486,10 +4486,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
@@ -4505,13 +4505,13 @@
       <c r="E5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="150" t="str">
+      <c r="F5" s="153" t="str">
         <f>'Project Summary'!B10</f>
         <v>Cyrus Wong</v>
       </c>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
@@ -4527,10 +4527,10 @@
       <c r="E6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
@@ -4546,13 +4546,13 @@
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="152">
+      <c r="F7" s="155">
         <f>'Project Summary'!D10</f>
         <v>41992</v>
       </c>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
@@ -4565,11 +4565,11 @@
         <v>XXXX</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
@@ -4583,10 +4583,10 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
@@ -4600,10 +4600,10 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
@@ -4617,10 +4617,10 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
@@ -4629,33 +4629,33 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A13" s="131"/>
-      <c r="B13" s="132" t="s">
+      <c r="A13" s="132"/>
+      <c r="B13" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="153" t="s">
+      <c r="F13" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="131"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
       <c r="E14" s="35" t="s">
         <v>0</v>
       </c>
@@ -4691,11 +4691,11 @@
       <c r="A16" s="17">
         <v>1</v>
       </c>
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
       <c r="E16" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -4721,11 +4721,11 @@
       <c r="A17" s="17">
         <v>2</v>
       </c>
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
       <c r="E17" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -4751,11 +4751,11 @@
       <c r="A18" s="17">
         <v>3</v>
       </c>
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
       <c r="E18" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -4769,11 +4769,11 @@
       </c>
       <c r="H18" s="39">
         <f>'Project Summary'!H21</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I18" s="39">
         <f>'Project Summary'!I21</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" s="3"/>
     </row>
@@ -4781,11 +4781,11 @@
       <c r="A19" s="17">
         <v>4</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
       <c r="E19" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -4811,11 +4811,11 @@
       <c r="A20" s="17">
         <v>5</v>
       </c>
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
       <c r="E20" s="38">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -4855,11 +4855,11 @@
       <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B22" s="130" t="s">
+      <c r="B22" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="38">
         <v>0.01</v>
       </c>
@@ -4885,11 +4885,11 @@
       <c r="A23" s="17">
         <v>7</v>
       </c>
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
       <c r="E23" s="38">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -4915,11 +4915,11 @@
       <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
       <c r="E24" s="38">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -4955,9 +4955,9 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" thickBot="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
       <c r="E26" s="17" t="s">
         <v>63</v>
       </c>
@@ -4971,11 +4971,11 @@
       </c>
       <c r="H26" s="44">
         <f>IF(SUM(H16:H24)=0,"", ROUND( (SUMPRODUCT(($E16:$E20)*(H16:H20))+SUMPRODUCT(($E22:$E24)*(H22:H24)))*10,1))</f>
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="I26" s="44">
         <f>IF(SUM(I16:I24)=0,"", ROUND( (SUMPRODUCT(($E16:$E20)*(I16:I20))+SUMPRODUCT(($E22:$E24)*(I22:I24)))*10,1))</f>
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="J26" s="3"/>
     </row>
@@ -4990,6 +4990,621 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.35" top="0.72" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="110" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="9" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" customHeight="1">
+      <c r="A1" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="108"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="108"/>
+      <c r="B2" s="151" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="108"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="108"/>
+      <c r="B3" s="151" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="108"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="108"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A5" s="108"/>
+      <c r="B5" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="111" t="str">
+        <f>'Project Summary'!B1</f>
+        <v>IT114115/2</v>
+      </c>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="153" t="str">
+        <f>'Project Summary'!B10</f>
+        <v>Cyrus Wong</v>
+      </c>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="108"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A6" s="108"/>
+      <c r="B6" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="111">
+        <f>'Project Summary'!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="108"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A7" s="108"/>
+      <c r="B7" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="111">
+        <f>'Project Summary'!B3</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="155">
+        <f>'Project Summary'!D10</f>
+        <v>41992</v>
+      </c>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="108"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A8" s="108"/>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="111" t="str">
+        <f>'Project Summary'!B5</f>
+        <v>XXXX</v>
+      </c>
+      <c r="D8" s="108"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="108"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A9" s="108"/>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="111" t="str">
+        <f>'Project Summary'!B6</f>
+        <v>YYYY</v>
+      </c>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="108"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A10" s="108"/>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="111" t="str">
+        <f>'Project Summary'!B7</f>
+        <v>AAAA</v>
+      </c>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="108"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A11" s="108"/>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="111" t="str">
+        <f>'Project Summary'!B8</f>
+        <v>BBBB</v>
+      </c>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="108"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75">
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="108"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A13" s="132"/>
+      <c r="B13" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="148" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="108"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
+      <c r="A14" s="132"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="108"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A15" s="108"/>
+      <c r="B15" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="108"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A16" s="17">
+        <v>1</v>
+      </c>
+      <c r="B16" s="135" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="38">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F16" s="39">
+        <f>'Project Summary'!F32</f>
+        <v>4</v>
+      </c>
+      <c r="G16" s="39">
+        <f>'Project Summary'!G32</f>
+        <v>4</v>
+      </c>
+      <c r="H16" s="39">
+        <f>'Project Summary'!H32</f>
+        <v>4</v>
+      </c>
+      <c r="I16" s="39">
+        <f>'Project Summary'!I32</f>
+        <v>4</v>
+      </c>
+      <c r="J16" s="108"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A17" s="17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="38">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F17" s="39">
+        <f>'Project Summary'!F33</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="39">
+        <f>'Project Summary'!G33</f>
+        <v>5</v>
+      </c>
+      <c r="H17" s="39">
+        <f>'Project Summary'!H33</f>
+        <v>5</v>
+      </c>
+      <c r="I17" s="39">
+        <f>'Project Summary'!I33</f>
+        <v>5</v>
+      </c>
+      <c r="J17" s="108"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A18" s="17">
+        <v>3</v>
+      </c>
+      <c r="B18" s="135" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="38">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F18" s="39">
+        <f>'Project Summary'!F34</f>
+        <v>5</v>
+      </c>
+      <c r="G18" s="39">
+        <f>'Project Summary'!G34</f>
+        <v>5</v>
+      </c>
+      <c r="H18" s="39">
+        <f>'Project Summary'!H34</f>
+        <v>5</v>
+      </c>
+      <c r="I18" s="39">
+        <f>'Project Summary'!I34</f>
+        <v>5</v>
+      </c>
+      <c r="J18" s="108"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A19" s="17">
+        <v>4</v>
+      </c>
+      <c r="B19" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="38">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F19" s="39">
+        <f>'Project Summary'!F35</f>
+        <v>4</v>
+      </c>
+      <c r="G19" s="39">
+        <f>'Project Summary'!G35</f>
+        <v>4</v>
+      </c>
+      <c r="H19" s="39">
+        <f>'Project Summary'!H35</f>
+        <v>4</v>
+      </c>
+      <c r="I19" s="39">
+        <f>'Project Summary'!I35</f>
+        <v>4</v>
+      </c>
+      <c r="J19" s="108"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A20" s="17">
+        <v>5</v>
+      </c>
+      <c r="B20" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="38">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F20" s="39">
+        <f>'Project Summary'!F36</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="39">
+        <f>'Project Summary'!G36</f>
+        <v>4</v>
+      </c>
+      <c r="H20" s="39">
+        <f>'Project Summary'!H36</f>
+        <v>4</v>
+      </c>
+      <c r="I20" s="39">
+        <f>'Project Summary'!I36</f>
+        <v>4</v>
+      </c>
+      <c r="J20" s="108"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39">
+        <f>'Project Summary'!F37</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="39">
+        <f>'Project Summary'!G37</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="39">
+        <f>'Project Summary'!H37</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="39">
+        <f>'Project Summary'!I37</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="108"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A22" s="108">
+        <v>6</v>
+      </c>
+      <c r="B22" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="F22" s="39">
+        <f>'Project Summary'!F38</f>
+        <v>5</v>
+      </c>
+      <c r="G22" s="39">
+        <f>'Project Summary'!G38</f>
+        <v>5</v>
+      </c>
+      <c r="H22" s="39">
+        <f>'Project Summary'!H38</f>
+        <v>5</v>
+      </c>
+      <c r="I22" s="39">
+        <f>'Project Summary'!I38</f>
+        <v>5</v>
+      </c>
+      <c r="J22" s="108"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A23" s="17">
+        <v>7</v>
+      </c>
+      <c r="B23" s="135" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="38">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F23" s="39">
+        <f>'Project Summary'!F39</f>
+        <v>5</v>
+      </c>
+      <c r="G23" s="39">
+        <f>'Project Summary'!G39</f>
+        <v>5</v>
+      </c>
+      <c r="H23" s="39">
+        <f>'Project Summary'!H39</f>
+        <v>5</v>
+      </c>
+      <c r="I23" s="39">
+        <f>'Project Summary'!I39</f>
+        <v>5</v>
+      </c>
+      <c r="J23" s="108"/>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A24" s="108">
+        <v>8</v>
+      </c>
+      <c r="B24" s="135" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="38">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F24" s="39">
+        <f>'Project Summary'!F40</f>
+        <v>5</v>
+      </c>
+      <c r="G24" s="39">
+        <f>'Project Summary'!G40</f>
+        <v>5</v>
+      </c>
+      <c r="H24" s="39">
+        <f>'Project Summary'!H40</f>
+        <v>5</v>
+      </c>
+      <c r="I24" s="39">
+        <f>'Project Summary'!I40</f>
+        <v>5</v>
+      </c>
+      <c r="J24" s="108"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A25" s="108"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="108"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A26" s="108"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="44">
+        <f>IF(SUM(F16:F24)=0,"", ROUND( (SUMPRODUCT(($E16:$E20)*(F16:F20))+SUMPRODUCT(($E22:$E24)*(F22:F24)))*10,1))</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G26" s="44">
+        <f>IF(SUM(G16:G24)=0,"", ROUND( (SUMPRODUCT(($E16:$E20)*(G16:G20))+SUMPRODUCT(($E22:$E24)*(G22:G24)))*10,1))</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H26" s="44">
+        <f>IF(SUM(H16:H24)=0,"", ROUND( (SUMPRODUCT(($E16:$E20)*(H16:H20))+SUMPRODUCT(($E22:$E24)*(H22:H24)))*10,1))</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I26" s="44">
+        <f>IF(SUM(I16:I24)=0,"", ROUND( (SUMPRODUCT(($E16:$E20)*(I16:I20))+SUMPRODUCT(($E22:$E24)*(I22:I24)))*10,1))</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J26" s="108"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75">
+      <c r="A27" s="108"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -5024,621 +5639,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="9" width="8.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1">
-      <c r="A1" s="146" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="108"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="108"/>
-      <c r="B2" s="148" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="108"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="108"/>
-      <c r="B3" s="148" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="108"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="108"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="111" t="str">
-        <f>'Project Summary'!B1</f>
-        <v>IT114115/2</v>
-      </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="150" t="str">
-        <f>'Project Summary'!B10</f>
-        <v>Cyrus Wong</v>
-      </c>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="108"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="111">
-        <f>'Project Summary'!B2</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="108"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A7" s="108"/>
-      <c r="B7" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="111">
-        <f>'Project Summary'!B3</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="152">
-        <f>'Project Summary'!D10</f>
-        <v>41992</v>
-      </c>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="108"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A8" s="108"/>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="111" t="str">
-        <f>'Project Summary'!B5</f>
-        <v>XXXX</v>
-      </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="108"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A9" s="108"/>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="111" t="str">
-        <f>'Project Summary'!B6</f>
-        <v>YYYY</v>
-      </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="108"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A10" s="108"/>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="111" t="str">
-        <f>'Project Summary'!B7</f>
-        <v>AAAA</v>
-      </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="108"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A11" s="108"/>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="111" t="str">
-        <f>'Project Summary'!B8</f>
-        <v>BBBB</v>
-      </c>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="108"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="108"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A13" s="131"/>
-      <c r="B13" s="132" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="153" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="108"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="131"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="108"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A15" s="108"/>
-      <c r="B15" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="108"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A16" s="17">
-        <v>1</v>
-      </c>
-      <c r="B16" s="130" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="38">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F16" s="39">
-        <f>'Project Summary'!F32</f>
-        <v>4</v>
-      </c>
-      <c r="G16" s="39">
-        <f>'Project Summary'!G32</f>
-        <v>4</v>
-      </c>
-      <c r="H16" s="39">
-        <f>'Project Summary'!H32</f>
-        <v>4</v>
-      </c>
-      <c r="I16" s="39">
-        <f>'Project Summary'!I32</f>
-        <v>4</v>
-      </c>
-      <c r="J16" s="108"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A17" s="17">
-        <v>2</v>
-      </c>
-      <c r="B17" s="130" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="38">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F17" s="39">
-        <f>'Project Summary'!F33</f>
-        <v>5</v>
-      </c>
-      <c r="G17" s="39">
-        <f>'Project Summary'!G33</f>
-        <v>5</v>
-      </c>
-      <c r="H17" s="39">
-        <f>'Project Summary'!H33</f>
-        <v>5</v>
-      </c>
-      <c r="I17" s="39">
-        <f>'Project Summary'!I33</f>
-        <v>5</v>
-      </c>
-      <c r="J17" s="108"/>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A18" s="17">
-        <v>3</v>
-      </c>
-      <c r="B18" s="130" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="38">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F18" s="39">
-        <f>'Project Summary'!F34</f>
-        <v>5</v>
-      </c>
-      <c r="G18" s="39">
-        <f>'Project Summary'!G34</f>
-        <v>5</v>
-      </c>
-      <c r="H18" s="39">
-        <f>'Project Summary'!H34</f>
-        <v>5</v>
-      </c>
-      <c r="I18" s="39">
-        <f>'Project Summary'!I34</f>
-        <v>5</v>
-      </c>
-      <c r="J18" s="108"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A19" s="17">
-        <v>4</v>
-      </c>
-      <c r="B19" s="130" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="38">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F19" s="39">
-        <f>'Project Summary'!F35</f>
-        <v>4</v>
-      </c>
-      <c r="G19" s="39">
-        <f>'Project Summary'!G35</f>
-        <v>4</v>
-      </c>
-      <c r="H19" s="39">
-        <f>'Project Summary'!H35</f>
-        <v>4</v>
-      </c>
-      <c r="I19" s="39">
-        <f>'Project Summary'!I35</f>
-        <v>4</v>
-      </c>
-      <c r="J19" s="108"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A20" s="17">
-        <v>5</v>
-      </c>
-      <c r="B20" s="131" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="38">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F20" s="39">
-        <f>'Project Summary'!F36</f>
-        <v>4</v>
-      </c>
-      <c r="G20" s="39">
-        <f>'Project Summary'!G36</f>
-        <v>4</v>
-      </c>
-      <c r="H20" s="39">
-        <f>'Project Summary'!H36</f>
-        <v>4</v>
-      </c>
-      <c r="I20" s="39">
-        <f>'Project Summary'!I36</f>
-        <v>4</v>
-      </c>
-      <c r="J20" s="108"/>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39">
-        <f>'Project Summary'!F37</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="39">
-        <f>'Project Summary'!G37</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="39">
-        <f>'Project Summary'!H37</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="39">
-        <f>'Project Summary'!I37</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="108"/>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A22" s="108">
-        <v>6</v>
-      </c>
-      <c r="B22" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="38">
-        <v>0.01</v>
-      </c>
-      <c r="F22" s="39">
-        <f>'Project Summary'!F38</f>
-        <v>5</v>
-      </c>
-      <c r="G22" s="39">
-        <f>'Project Summary'!G38</f>
-        <v>5</v>
-      </c>
-      <c r="H22" s="39">
-        <f>'Project Summary'!H38</f>
-        <v>5</v>
-      </c>
-      <c r="I22" s="39">
-        <f>'Project Summary'!I38</f>
-        <v>5</v>
-      </c>
-      <c r="J22" s="108"/>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A23" s="17">
-        <v>7</v>
-      </c>
-      <c r="B23" s="130" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="38">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F23" s="39">
-        <f>'Project Summary'!F39</f>
-        <v>5</v>
-      </c>
-      <c r="G23" s="39">
-        <f>'Project Summary'!G39</f>
-        <v>5</v>
-      </c>
-      <c r="H23" s="39">
-        <f>'Project Summary'!H39</f>
-        <v>5</v>
-      </c>
-      <c r="I23" s="39">
-        <f>'Project Summary'!I39</f>
-        <v>5</v>
-      </c>
-      <c r="J23" s="108"/>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A24" s="108">
-        <v>8</v>
-      </c>
-      <c r="B24" s="130" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="38">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F24" s="39">
-        <f>'Project Summary'!F40</f>
-        <v>5</v>
-      </c>
-      <c r="G24" s="39">
-        <f>'Project Summary'!G40</f>
-        <v>5</v>
-      </c>
-      <c r="H24" s="39">
-        <f>'Project Summary'!H40</f>
-        <v>5</v>
-      </c>
-      <c r="I24" s="39">
-        <f>'Project Summary'!I40</f>
-        <v>5</v>
-      </c>
-      <c r="J24" s="108"/>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A25" s="108"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="108"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A26" s="108"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="44">
-        <f>IF(SUM(F16:F24)=0,"", ROUND( (SUMPRODUCT(($E16:$E20)*(F16:F20))+SUMPRODUCT(($E22:$E24)*(F22:F24)))*10,1))</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G26" s="44">
-        <f>IF(SUM(G16:G24)=0,"", ROUND( (SUMPRODUCT(($E16:$E20)*(G16:G20))+SUMPRODUCT(($E22:$E24)*(G22:G24)))*10,1))</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H26" s="44">
-        <f>IF(SUM(H16:H24)=0,"", ROUND( (SUMPRODUCT(($E16:$E20)*(H16:H20))+SUMPRODUCT(($E22:$E24)*(H22:H24)))*10,1))</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I26" s="44">
-        <f>IF(SUM(I16:I24)=0,"", ROUND( (SUMPRODUCT(($E16:$E20)*(I16:I20))+SUMPRODUCT(($E22:$E24)*(I22:I24)))*10,1))</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J26" s="108"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.35" top="0.72" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="110" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
@@ -5662,30 +5662,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
     </row>
     <row r="2" spans="1:9" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="163" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
     </row>
     <row r="3" spans="1:9" s="46" customFormat="1" ht="15.75">
       <c r="A3" s="47"/>
@@ -5693,10 +5693,10 @@
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
     </row>
     <row r="4" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A4" s="47"/>
@@ -5712,12 +5712,12 @@
         <v>4</v>
       </c>
       <c r="F4" s="47"/>
-      <c r="G4" s="157">
+      <c r="G4" s="164">
         <f>'Project Summary'!B3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
     </row>
     <row r="5" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A5" s="47"/>
@@ -5733,12 +5733,12 @@
         <v>66</v>
       </c>
       <c r="F5" s="47"/>
-      <c r="G5" s="154" t="str">
+      <c r="G5" s="160" t="str">
         <f>'Project Summary'!B10&amp;"/"&amp;'Project Summary'!B11</f>
         <v>Cyrus Wong/Carmen Wong</v>
       </c>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
     </row>
     <row r="6" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A6" s="47"/>
@@ -5754,9 +5754,9 @@
         <v>6</v>
       </c>
       <c r="F6" s="47"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
     </row>
     <row r="7" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A7" s="47"/>
@@ -5772,12 +5772,12 @@
         <v>9</v>
       </c>
       <c r="F7" s="47"/>
-      <c r="G7" s="158">
+      <c r="G7" s="159">
         <f>'Project Summary'!D11</f>
         <v>42017</v>
       </c>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
     </row>
     <row r="8" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="47"/>
@@ -5789,13 +5789,13 @@
         <v>AAAA</v>
       </c>
       <c r="D8" s="47"/>
-      <c r="E8" s="159" t="s">
+      <c r="E8" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
     </row>
     <row r="9" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A9" s="47"/>
@@ -5808,10 +5808,10 @@
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
     </row>
     <row r="10" spans="1:9" s="46" customFormat="1" ht="15.75">
       <c r="A10" s="47"/>
@@ -5825,38 +5825,38 @@
       <c r="I10" s="47"/>
     </row>
     <row r="11" spans="1:9" s="46" customFormat="1" ht="18.75">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="139"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
     </row>
     <row r="12" spans="1:9" s="46" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="140"/>
-      <c r="B12" s="141" t="s">
+      <c r="A12" s="138"/>
+      <c r="B12" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
       <c r="E12" s="78"/>
-      <c r="F12" s="160" t="s">
+      <c r="F12" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
     </row>
     <row r="13" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A13" s="140"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
       <c r="E13" s="78" t="s">
         <v>0</v>
       </c>
@@ -5877,11 +5877,11 @@
       <c r="A14" s="55">
         <v>1</v>
       </c>
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
       <c r="E14" s="56">
         <v>0.03</v>
       </c>
@@ -5906,11 +5906,11 @@
       <c r="A15" s="55">
         <v>2</v>
       </c>
-      <c r="B15" s="144" t="s">
+      <c r="B15" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
       <c r="E15" s="56">
         <v>0.06</v>
       </c>
@@ -5935,11 +5935,11 @@
       <c r="A16" s="55">
         <v>3</v>
       </c>
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
       <c r="E16" s="56">
         <v>0.02</v>
       </c>
@@ -5964,11 +5964,11 @@
       <c r="A17" s="55">
         <v>4</v>
       </c>
-      <c r="B17" s="144" t="s">
+      <c r="B17" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
       <c r="E17" s="59">
         <v>0.02</v>
       </c>
@@ -5993,11 +5993,11 @@
       <c r="A18" s="55">
         <v>5</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
       <c r="E18" s="59">
         <v>0.02</v>
       </c>
@@ -6022,11 +6022,11 @@
       <c r="A19" s="55">
         <v>6</v>
       </c>
-      <c r="B19" s="145" t="s">
+      <c r="B19" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
       <c r="E19" s="59">
         <v>0.1</v>
       </c>
@@ -6051,11 +6051,11 @@
       <c r="A20" s="55">
         <v>7</v>
       </c>
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
       <c r="E20" s="59">
         <v>0.02</v>
       </c>
@@ -6078,20 +6078,20 @@
     </row>
     <row r="21" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A21" s="47"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
       <c r="E21" s="47"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="162"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
     </row>
     <row r="22" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A22" s="47"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
       <c r="E22" s="55" t="s">
         <v>75</v>
       </c>
@@ -6124,35 +6124,35 @@
       <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9" s="46" customFormat="1" ht="18.75">
-      <c r="A24" s="139" t="s">
+      <c r="A24" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="139"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
     </row>
     <row r="25" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
-      <c r="F25" s="160" t="s">
+      <c r="F25" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
     </row>
     <row r="26" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A26" s="55">
         <v>1</v>
       </c>
-      <c r="B26" s="142" t="s">
+      <c r="B26" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
       <c r="E26" s="63">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -6177,11 +6177,11 @@
       <c r="A27" s="55">
         <v>2</v>
       </c>
-      <c r="B27" s="142" t="s">
+      <c r="B27" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
       <c r="E27" s="63">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -6206,11 +6206,11 @@
       <c r="A28" s="55">
         <v>3</v>
       </c>
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
       <c r="E28" s="63">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -6235,11 +6235,11 @@
       <c r="A29" s="55">
         <v>3</v>
       </c>
-      <c r="B29" s="142" t="s">
+      <c r="B29" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
       <c r="E29" s="63">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -6262,20 +6262,20 @@
     </row>
     <row r="30" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A30" s="47"/>
-      <c r="B30" s="140"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
       <c r="E30" s="47"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
     </row>
     <row r="31" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A31" s="47"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
       <c r="E31" s="55" t="s">
         <v>79</v>
       </c>
@@ -6323,19 +6323,12 @@
     <protectedRange password="DB87" sqref="A1:A18 B18:D18 B1:D16 E1:IV14 A19:E20 E15:E18 F15:IV20 A21:IV65536" name="Range1"/>
   </protectedRanges>
   <mergeCells count="32">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="E8:I8"/>
@@ -6349,12 +6342,19 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.41" top="0.44" bottom="0.35" header="0.3" footer="0.48"/>
   <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
@@ -6384,30 +6384,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
     </row>
     <row r="2" spans="1:9" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="163" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
     </row>
     <row r="3" spans="1:9" s="46" customFormat="1" ht="15.75">
       <c r="A3" s="47"/>
@@ -6415,10 +6415,10 @@
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
     </row>
     <row r="4" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A4" s="47"/>
@@ -6434,12 +6434,12 @@
         <v>4</v>
       </c>
       <c r="F4" s="47"/>
-      <c r="G4" s="157">
+      <c r="G4" s="164">
         <f>'Project Summary'!B3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
     </row>
     <row r="5" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A5" s="47"/>
@@ -6455,12 +6455,12 @@
         <v>66</v>
       </c>
       <c r="F5" s="47"/>
-      <c r="G5" s="154" t="str">
+      <c r="G5" s="160" t="str">
         <f>'Project Summary'!B11</f>
         <v>Carmen Wong</v>
       </c>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
     </row>
     <row r="6" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A6" s="47"/>
@@ -6476,9 +6476,9 @@
         <v>6</v>
       </c>
       <c r="F6" s="47"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
     </row>
     <row r="7" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A7" s="47"/>
@@ -6494,12 +6494,12 @@
         <v>9</v>
       </c>
       <c r="F7" s="47"/>
-      <c r="G7" s="158">
+      <c r="G7" s="159">
         <f>'Project Summary'!D11</f>
         <v>42017</v>
       </c>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
     </row>
     <row r="8" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="47"/>
@@ -6511,13 +6511,13 @@
         <v>AAAA</v>
       </c>
       <c r="D8" s="47"/>
-      <c r="E8" s="159" t="s">
+      <c r="E8" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
     </row>
     <row r="9" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A9" s="47"/>
@@ -6530,10 +6530,10 @@
       </c>
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
     </row>
     <row r="10" spans="1:9" s="46" customFormat="1" ht="15.75">
       <c r="A10" s="47"/>
@@ -6547,38 +6547,38 @@
       <c r="I10" s="47"/>
     </row>
     <row r="11" spans="1:9" s="46" customFormat="1" ht="18.75">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="139"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
     </row>
     <row r="12" spans="1:9" s="46" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="140"/>
-      <c r="B12" s="141" t="s">
+      <c r="A12" s="138"/>
+      <c r="B12" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
       <c r="E12" s="78"/>
-      <c r="F12" s="160" t="s">
+      <c r="F12" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
     </row>
     <row r="13" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A13" s="140"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
+      <c r="A13" s="138"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
       <c r="E13" s="78" t="s">
         <v>0</v>
       </c>
@@ -6599,11 +6599,11 @@
       <c r="A14" s="55">
         <v>1</v>
       </c>
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
       <c r="E14" s="56">
         <v>0.03</v>
       </c>
@@ -6628,11 +6628,11 @@
       <c r="A15" s="55">
         <v>2</v>
       </c>
-      <c r="B15" s="144" t="s">
+      <c r="B15" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
       <c r="E15" s="56">
         <v>0.06</v>
       </c>
@@ -6657,11 +6657,11 @@
       <c r="A16" s="55">
         <v>3</v>
       </c>
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
       <c r="E16" s="56">
         <v>0.02</v>
       </c>
@@ -6686,11 +6686,11 @@
       <c r="A17" s="55">
         <v>4</v>
       </c>
-      <c r="B17" s="144" t="s">
+      <c r="B17" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
       <c r="E17" s="59">
         <v>0.02</v>
       </c>
@@ -6715,11 +6715,11 @@
       <c r="A18" s="55">
         <v>5</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
       <c r="E18" s="59">
         <v>0.02</v>
       </c>
@@ -6744,11 +6744,11 @@
       <c r="A19" s="55">
         <v>6</v>
       </c>
-      <c r="B19" s="145" t="s">
+      <c r="B19" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
       <c r="E19" s="59">
         <v>0.1</v>
       </c>
@@ -6773,11 +6773,11 @@
       <c r="A20" s="55">
         <v>7</v>
       </c>
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
       <c r="E20" s="59">
         <v>0.02</v>
       </c>
@@ -6800,20 +6800,20 @@
     </row>
     <row r="21" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A21" s="47"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
       <c r="E21" s="47"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="162"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
     </row>
     <row r="22" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A22" s="47"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
       <c r="E22" s="55" t="s">
         <v>75</v>
       </c>
@@ -6846,35 +6846,35 @@
       <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9" s="46" customFormat="1" ht="18.75">
-      <c r="A24" s="139" t="s">
+      <c r="A24" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="139"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
     </row>
     <row r="25" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
-      <c r="F25" s="160" t="s">
+      <c r="F25" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
     </row>
     <row r="26" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A26" s="55">
         <v>1</v>
       </c>
-      <c r="B26" s="142" t="s">
+      <c r="B26" s="136" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
       <c r="E26" s="63">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -6899,11 +6899,11 @@
       <c r="A27" s="55">
         <v>2</v>
       </c>
-      <c r="B27" s="142" t="s">
+      <c r="B27" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
       <c r="E27" s="63">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -6928,11 +6928,11 @@
       <c r="A28" s="55">
         <v>3</v>
       </c>
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
       <c r="E28" s="63">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -6957,11 +6957,11 @@
       <c r="A29" s="55">
         <v>3</v>
       </c>
-      <c r="B29" s="142" t="s">
+      <c r="B29" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
       <c r="E29" s="63">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -6984,20 +6984,20 @@
     </row>
     <row r="30" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A30" s="47"/>
-      <c r="B30" s="140"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
       <c r="E30" s="47"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
     </row>
     <row r="31" spans="1:9" s="46" customFormat="1" ht="16.5" thickBot="1">
       <c r="A31" s="47"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
       <c r="E31" s="55" t="s">
         <v>79</v>
       </c>
@@ -7048,19 +7048,12 @@
     <protectedRange password="DB87" sqref="G4:I4" name="Range1_3"/>
   </protectedRanges>
   <mergeCells count="32">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="E8:I8"/>
@@ -7074,12 +7067,19 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.41" top="0.44" bottom="0.35" header="0.3" footer="0.48"/>
   <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
@@ -7108,30 +7108,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="20.25">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="15.75">
       <c r="A3" s="3"/>
@@ -7139,10 +7139,10 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A4" s="3"/>
@@ -7154,16 +7154,16 @@
         <v>IT114115/2</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="135" t="s">
+      <c r="E4" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="135"/>
-      <c r="G4" s="164">
+      <c r="F4" s="147"/>
+      <c r="G4" s="169">
         <f>'Project Summary'!B2</f>
         <v>0</v>
       </c>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A5" s="3"/>
@@ -7175,13 +7175,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="135"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
+      <c r="E5" s="147" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="147"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A6" s="3"/>
@@ -7193,13 +7193,13 @@
         <v>XXXX</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="135"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A7" s="3"/>
@@ -7211,16 +7211,16 @@
         <v>YYYY</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="135"/>
-      <c r="G7" s="166">
+      <c r="F7" s="147"/>
+      <c r="G7" s="168">
         <f>COUNTA(C6:C9)</f>
         <v>4</v>
       </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="3"/>
@@ -7232,16 +7232,16 @@
         <v>AAAA</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="135" t="s">
+      <c r="E8" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="135"/>
-      <c r="G8" s="158">
+      <c r="F8" s="147"/>
+      <c r="G8" s="159">
         <f>'Project Summary'!D12</f>
         <v>42123</v>
       </c>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A9" s="3"/>
@@ -7253,13 +7253,13 @@
         <v>BBBB</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="135" t="s">
+      <c r="E9" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
       <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:11" s="7" customFormat="1" ht="15.75">
@@ -7274,23 +7274,23 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:11" s="7" customFormat="1" ht="18.75">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
     </row>
     <row r="12" spans="1:11" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
       <c r="E12" s="9" t="s">
         <v>0</v>
       </c>
@@ -7302,11 +7302,11 @@
       <c r="A13" s="11">
         <v>1</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
       <c r="E13" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -7322,11 +7322,11 @@
       <c r="A14" s="11">
         <v>2</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
       <c r="E14" s="12">
         <v>0.03</v>
       </c>
@@ -7342,11 +7342,11 @@
       <c r="A15" s="11">
         <v>3</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
       <c r="E15" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -7362,11 +7362,11 @@
       <c r="A16" s="11">
         <v>4</v>
       </c>
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
       <c r="E16" s="12">
         <v>0.03</v>
       </c>
@@ -7382,11 +7382,11 @@
       <c r="A17" s="11">
         <v>5</v>
       </c>
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
       <c r="E17" s="12">
         <v>0.03</v>
       </c>
@@ -7400,9 +7400,9 @@
     </row>
     <row r="18" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
       <c r="E18" s="17" t="s">
         <v>34</v>
       </c>
@@ -7539,22 +7539,22 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="133" t="s">
+      <c r="F25" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" ht="60.75" customHeight="1" thickBot="1">
       <c r="A26" s="11">
         <v>6</v>
       </c>
-      <c r="B26" s="134" t="s">
+      <c r="B26" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
       <c r="E26" s="27">
         <v>0.3</v>
       </c>
@@ -7577,9 +7577,9 @@
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="17" t="s">
         <v>22</v>
       </c>
@@ -7612,35 +7612,35 @@
       <c r="I28" s="29"/>
     </row>
     <row r="29" spans="1:10" s="7" customFormat="1" ht="18.75">
-      <c r="A29" s="136" t="s">
+      <c r="A29" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="136"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
     </row>
     <row r="30" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="F30" s="133" t="s">
+      <c r="F30" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
     </row>
     <row r="31" spans="1:10" s="7" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="A31" s="11">
         <v>1</v>
       </c>
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
       <c r="E31" s="30">
         <v>0.01</v>
       </c>
@@ -7665,11 +7665,11 @@
       <c r="A32" s="11">
         <v>2</v>
       </c>
-      <c r="B32" s="130" t="s">
+      <c r="B32" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
       <c r="E32" s="30">
         <v>0.01</v>
       </c>
@@ -7694,11 +7694,11 @@
       <c r="A33" s="11">
         <v>3</v>
       </c>
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
       <c r="E33" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -7723,11 +7723,11 @@
       <c r="A34" s="11">
         <v>4</v>
       </c>
-      <c r="B34" s="130" t="s">
+      <c r="B34" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
       <c r="E34" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -7752,11 +7752,11 @@
       <c r="A35" s="11">
         <v>5</v>
       </c>
-      <c r="B35" s="130" t="s">
+      <c r="B35" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
       <c r="E35" s="30">
         <v>0.01</v>
       </c>
@@ -7781,11 +7781,11 @@
       <c r="A36" s="11">
         <v>6</v>
       </c>
-      <c r="B36" s="130" t="s">
+      <c r="B36" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
       <c r="E36" s="30">
         <v>0.01</v>
       </c>
@@ -7808,20 +7808,20 @@
     </row>
     <row r="37" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="131"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
     </row>
     <row r="38" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="131"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
       <c r="E38" s="17" t="s">
         <v>37</v>
       </c>
@@ -7844,35 +7844,35 @@
     </row>
     <row r="39" spans="1:9" s="7" customFormat="1"/>
     <row r="40" spans="1:9" s="7" customFormat="1" ht="18.75">
-      <c r="A40" s="136" t="s">
+      <c r="A40" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="136"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="136"/>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
     </row>
     <row r="41" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="F41" s="133" t="s">
+      <c r="F41" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
     </row>
     <row r="42" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A42" s="17">
         <v>1</v>
       </c>
-      <c r="B42" s="130" t="s">
+      <c r="B42" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="135"/>
       <c r="E42" s="12">
         <v>0.02</v>
       </c>
@@ -7897,11 +7897,11 @@
       <c r="A43" s="17">
         <v>2</v>
       </c>
-      <c r="B43" s="130" t="s">
+      <c r="B43" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
       <c r="E43" s="12">
         <v>0.02</v>
       </c>
@@ -7926,11 +7926,11 @@
       <c r="A44" s="17">
         <v>3</v>
       </c>
-      <c r="B44" s="130" t="s">
+      <c r="B44" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
       <c r="E44" s="12">
         <v>0.02</v>
       </c>
@@ -7955,11 +7955,11 @@
       <c r="A45" s="17">
         <v>4</v>
       </c>
-      <c r="B45" s="130" t="s">
+      <c r="B45" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
       <c r="E45" s="12">
         <v>0.02</v>
       </c>
@@ -7984,11 +7984,11 @@
       <c r="A46" s="17">
         <v>5</v>
       </c>
-      <c r="B46" s="130" t="s">
+      <c r="B46" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
       <c r="E46" s="12">
         <v>0.02</v>
       </c>
@@ -8011,20 +8011,20 @@
     </row>
     <row r="47" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="131"/>
-      <c r="C47" s="131"/>
-      <c r="D47" s="131"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="167"/>
-      <c r="G47" s="167"/>
-      <c r="H47" s="167"/>
-      <c r="I47" s="167"/>
+      <c r="F47" s="165"/>
+      <c r="G47" s="165"/>
+      <c r="H47" s="165"/>
+      <c r="I47" s="165"/>
     </row>
     <row r="48" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="131"/>
-      <c r="C48" s="131"/>
-      <c r="D48" s="131"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
       <c r="E48" s="17" t="s">
         <v>27</v>
       </c>
@@ -8141,36 +8141,6 @@
     <protectedRange password="DB87" sqref="C4" name="Range1_1"/>
   </protectedRanges>
   <mergeCells count="46">
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="E9:I9"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="B26:D26"/>
@@ -8187,6 +8157,36 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="A11:I11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="B45:D45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.42" right="0.32" top="0.5" bottom="0.48" header="0.5" footer="0.5"/>
@@ -8220,30 +8220,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" ht="20.25">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" ht="15.75">
       <c r="A3" s="3"/>
@@ -8251,10 +8251,10 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
     </row>
     <row r="4" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A4" s="3"/>
@@ -8266,16 +8266,16 @@
         <v>IT114115/2</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="135" t="s">
+      <c r="E4" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="135"/>
-      <c r="G4" s="164">
+      <c r="F4" s="147"/>
+      <c r="G4" s="169">
         <f>'Project Summary'!B2</f>
         <v>0</v>
       </c>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A5" s="3"/>
@@ -8287,16 +8287,16 @@
         <v>0</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="135"/>
-      <c r="G5" s="163" t="str">
+      <c r="E5" s="147" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="147"/>
+      <c r="G5" s="167" t="str">
         <f>'Project Summary'!B10&amp;"/"&amp;'Project Summary'!B12</f>
         <v>Cyrus Wong/Ada Yuen</v>
       </c>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A6" s="3"/>
@@ -8308,13 +8308,13 @@
         <v>XXXX</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="135"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A7" s="3"/>
@@ -8326,16 +8326,16 @@
         <v>YYYY</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="135"/>
-      <c r="G7" s="166">
+      <c r="F7" s="147"/>
+      <c r="G7" s="168">
         <f>COUNTA(C6:C9)</f>
         <v>4</v>
       </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="3"/>
@@ -8347,16 +8347,16 @@
         <v>AAAA</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="135" t="s">
+      <c r="E8" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="135"/>
-      <c r="G8" s="158">
+      <c r="F8" s="147"/>
+      <c r="G8" s="159">
         <f>'Project Summary'!D12</f>
         <v>42123</v>
       </c>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A9" s="3"/>
@@ -8368,13 +8368,13 @@
         <v>BBBB</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="135" t="s">
+      <c r="E9" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" ht="15.75">
       <c r="A10" s="3"/>
@@ -8388,23 +8388,23 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" s="7" customFormat="1" ht="18.75">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
       <c r="E12" s="9" t="s">
         <v>0</v>
       </c>
@@ -8416,11 +8416,11 @@
       <c r="A13" s="11">
         <v>1</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
       <c r="E13" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -8436,11 +8436,11 @@
       <c r="A14" s="11">
         <v>2</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="145" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
       <c r="E14" s="12">
         <v>0.03</v>
       </c>
@@ -8456,11 +8456,11 @@
       <c r="A15" s="11">
         <v>3</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
       <c r="E15" s="12">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -8476,11 +8476,11 @@
       <c r="A16" s="11">
         <v>4</v>
       </c>
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
       <c r="E16" s="12">
         <v>0.03</v>
       </c>
@@ -8496,11 +8496,11 @@
       <c r="A17" s="11">
         <v>5</v>
       </c>
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
       <c r="E17" s="12">
         <v>0.03</v>
       </c>
@@ -8514,9 +8514,9 @@
     </row>
     <row r="18" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
       <c r="E18" s="17" t="s">
         <v>34</v>
       </c>
@@ -8653,22 +8653,22 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="133" t="s">
+      <c r="F25" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" ht="60.75" customHeight="1" thickBot="1">
       <c r="A26" s="11">
         <v>6</v>
       </c>
-      <c r="B26" s="134" t="s">
+      <c r="B26" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
       <c r="E26" s="27">
         <v>0.3</v>
       </c>
@@ -8691,9 +8691,9 @@
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="17" t="s">
         <v>22</v>
       </c>
@@ -8726,35 +8726,35 @@
       <c r="I28" s="29"/>
     </row>
     <row r="29" spans="1:10" s="7" customFormat="1" ht="18.75">
-      <c r="A29" s="136" t="s">
+      <c r="A29" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="136"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
     </row>
     <row r="30" spans="1:10" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="F30" s="133" t="s">
+      <c r="F30" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
     </row>
     <row r="31" spans="1:10" s="7" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
       <c r="A31" s="11">
         <v>1</v>
       </c>
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
       <c r="E31" s="30">
         <v>0.01</v>
       </c>
@@ -8779,11 +8779,11 @@
       <c r="A32" s="11">
         <v>2</v>
       </c>
-      <c r="B32" s="130" t="s">
+      <c r="B32" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
       <c r="E32" s="30">
         <v>0.01</v>
       </c>
@@ -8808,11 +8808,11 @@
       <c r="A33" s="11">
         <v>3</v>
       </c>
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
       <c r="E33" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8837,11 +8837,11 @@
       <c r="A34" s="11">
         <v>4</v>
       </c>
-      <c r="B34" s="130" t="s">
+      <c r="B34" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
       <c r="E34" s="30">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8866,11 +8866,11 @@
       <c r="A35" s="11">
         <v>5</v>
       </c>
-      <c r="B35" s="130" t="s">
+      <c r="B35" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
       <c r="E35" s="30">
         <v>0.01</v>
       </c>
@@ -8895,11 +8895,11 @@
       <c r="A36" s="11">
         <v>6</v>
       </c>
-      <c r="B36" s="130" t="s">
+      <c r="B36" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
       <c r="E36" s="30">
         <v>0.01</v>
       </c>
@@ -8922,20 +8922,20 @@
     </row>
     <row r="37" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="131"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
     </row>
     <row r="38" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="131"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
       <c r="E38" s="17" t="s">
         <v>37</v>
       </c>
@@ -8958,35 +8958,35 @@
     </row>
     <row r="39" spans="1:9" s="7" customFormat="1"/>
     <row r="40" spans="1:9" s="7" customFormat="1" ht="18.75">
-      <c r="A40" s="136" t="s">
+      <c r="A40" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="136"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="136"/>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="143"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
     </row>
     <row r="41" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
-      <c r="F41" s="133" t="s">
+      <c r="F41" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
     </row>
     <row r="42" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A42" s="17">
         <v>1</v>
       </c>
-      <c r="B42" s="130" t="s">
+      <c r="B42" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="135"/>
       <c r="E42" s="12">
         <v>0.02</v>
       </c>
@@ -8999,11 +8999,11 @@
       <c r="A43" s="17">
         <v>2</v>
       </c>
-      <c r="B43" s="130" t="s">
+      <c r="B43" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
       <c r="E43" s="12">
         <v>0.02</v>
       </c>
@@ -9016,11 +9016,11 @@
       <c r="A44" s="17">
         <v>3</v>
       </c>
-      <c r="B44" s="130" t="s">
+      <c r="B44" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
       <c r="E44" s="12">
         <v>0.02</v>
       </c>
@@ -9033,11 +9033,11 @@
       <c r="A45" s="17">
         <v>4</v>
       </c>
-      <c r="B45" s="130" t="s">
+      <c r="B45" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
       <c r="E45" s="12">
         <v>0.02</v>
       </c>
@@ -9050,11 +9050,11 @@
       <c r="A46" s="17">
         <v>5</v>
       </c>
-      <c r="B46" s="130" t="s">
+      <c r="B46" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
       <c r="E46" s="12">
         <v>0.02</v>
       </c>
@@ -9065,20 +9065,20 @@
     </row>
     <row r="47" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="131"/>
-      <c r="C47" s="131"/>
-      <c r="D47" s="131"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="167"/>
-      <c r="G47" s="167"/>
-      <c r="H47" s="167"/>
-      <c r="I47" s="167"/>
+      <c r="F47" s="165"/>
+      <c r="G47" s="165"/>
+      <c r="H47" s="165"/>
+      <c r="I47" s="165"/>
     </row>
     <row r="48" spans="1:9" s="7" customFormat="1" ht="16.5" thickBot="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="131"/>
-      <c r="C48" s="131"/>
-      <c r="D48" s="131"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
       <c r="E48" s="17" t="s">
         <v>27</v>
       </c>
@@ -9195,15 +9195,31 @@
     <protectedRange password="DB87" sqref="C4" name="Range1_1_1"/>
   </protectedRanges>
   <mergeCells count="46">
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="A29:I29"/>
     <mergeCell ref="F30:I30"/>
@@ -9216,31 +9232,15 @@
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
   </mergeCells>
   <pageMargins left="0.42" right="0.32" top="0.5" bottom="0.48" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
@@ -9274,82 +9274,82 @@
       <c r="A1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="171">
+      <c r="B1" s="170">
         <f>'Project Summary'!B2</f>
         <v>0</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
     </row>
     <row r="2" spans="1:14" s="66" customFormat="1" ht="15.75">
       <c r="A2" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="172" t="str">
+      <c r="B2" s="171" t="str">
         <f>'Project Summary'!B10</f>
         <v>Cyrus Wong</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
     </row>
     <row r="3" spans="1:14" s="66" customFormat="1" ht="15.75">
       <c r="A3" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="172" t="str">
+      <c r="B3" s="171" t="str">
         <f>'Project Summary'!B11&amp;"(Semester 1) /  "&amp;'Project Summary'!B12&amp;"(Semester 2)"</f>
         <v>Carmen Wong(Semester 1) /  Ada Yuen(Semester 2)</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="171"/>
     </row>
     <row r="4" spans="1:14" s="66" customFormat="1" ht="73.150000000000006" customHeight="1">
       <c r="A4" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="172"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
     </row>
     <row r="5" spans="1:14" s="66" customFormat="1" ht="15">
       <c r="A5" s="69"/>
@@ -9370,54 +9370,54 @@
     <row r="6" spans="1:14" s="66" customFormat="1" ht="18">
       <c r="A6" s="112"/>
       <c r="B6" s="112"/>
-      <c r="C6" s="174" t="s">
+      <c r="C6" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="175" t="s">
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="175"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="176" t="s">
+      <c r="H6" s="174"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="174"/>
+      <c r="K6" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="L6" s="176"/>
-      <c r="M6" s="176"/>
-      <c r="N6" s="176"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="175"/>
     </row>
     <row r="7" spans="1:14" s="66" customFormat="1" ht="18">
-      <c r="A7" s="168" t="s">
+      <c r="A7" s="176" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="177" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170" t="s">
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170" t="s">
+      <c r="H7" s="178"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
+      <c r="L7" s="178"/>
+      <c r="M7" s="178"/>
+      <c r="N7" s="178"/>
     </row>
     <row r="8" spans="1:14" s="66" customFormat="1" ht="18">
-      <c r="A8" s="168"/>
-      <c r="B8" s="169"/>
+      <c r="A8" s="176"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="113">
         <v>1</v>
       </c>
@@ -9472,11 +9472,11 @@
       </c>
       <c r="E9" s="116">
         <f>'Initial Report'!H26</f>
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="F9" s="116">
         <f>'Initial Report'!I26</f>
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="G9" s="117">
         <f>'Initial Report_Co'!F26</f>
@@ -9504,11 +9504,11 @@
       </c>
       <c r="M9" s="118">
         <f>(E9+I9)/2</f>
-        <v>4.25</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="N9" s="118">
         <f t="shared" ref="N9" si="0">(F9+J9)/2</f>
-        <v>4.25</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="66" customFormat="1" ht="54">
@@ -9685,11 +9685,11 @@
       </c>
       <c r="E13" s="127">
         <f>SUM(E9:E12)</f>
-        <v>44.65</v>
+        <v>45.45</v>
       </c>
       <c r="F13" s="127">
         <f>SUM(F9:F12)</f>
-        <v>44.65</v>
+        <v>45.45</v>
       </c>
       <c r="G13" s="128"/>
       <c r="H13" s="128"/>
@@ -9705,11 +9705,11 @@
       </c>
       <c r="M13" s="129">
         <f>SUM(M9:M12)</f>
-        <v>43.599999999999994</v>
+        <v>44</v>
       </c>
       <c r="N13" s="129">
         <f>SUM(N9:N12)</f>
-        <v>43.599999999999994</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="66" customFormat="1" ht="15.75" thickTop="1">
@@ -9810,6 +9810,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:N7"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:N3"/>
@@ -9817,11 +9822,6 @@
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
